--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T511"/>
+  <dimension ref="A1:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27808,6 +27808,278 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>335.43</v>
+      </c>
+      <c r="L512" t="n">
+        <v>330.31</v>
+      </c>
+      <c r="M512" t="n">
+        <v>330.5457142857143</v>
+      </c>
+      <c r="N512" t="n">
+        <v>335.0457142857143</v>
+      </c>
+      <c r="O512" t="n">
+        <v>333.56</v>
+      </c>
+      <c r="P512" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>347.58</v>
+      </c>
+      <c r="R512" t="n">
+        <v>357.86</v>
+      </c>
+      <c r="S512" t="n">
+        <v>379.12</v>
+      </c>
+      <c r="T512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>370.28</v>
+      </c>
+      <c r="C513" t="n">
+        <v>348.5933333333333</v>
+      </c>
+      <c r="D513" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="E513" t="n">
+        <v>354.1855555555555</v>
+      </c>
+      <c r="F513" t="n">
+        <v>352.8955555555555</v>
+      </c>
+      <c r="G513" t="n">
+        <v>349.8355555555555</v>
+      </c>
+      <c r="H513" t="n">
+        <v>342.5345454545454</v>
+      </c>
+      <c r="I513" t="n">
+        <v>344.94</v>
+      </c>
+      <c r="J513" t="n">
+        <v>343.38</v>
+      </c>
+      <c r="K513" t="n">
+        <v>341.17</v>
+      </c>
+      <c r="L513" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="M513" t="n">
+        <v>336.0471428571428</v>
+      </c>
+      <c r="N513" t="n">
+        <v>339.4371428571428</v>
+      </c>
+      <c r="O513" t="n">
+        <v>343.3033333333333</v>
+      </c>
+      <c r="P513" t="n">
+        <v>346.9633333333333</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>352.3133333333333</v>
+      </c>
+      <c r="R513" t="n">
+        <v>361.4933333333333</v>
+      </c>
+      <c r="S513" t="n">
+        <v>376.95</v>
+      </c>
+      <c r="T513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:07:22+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="n">
+        <v>334.6033333333333</v>
+      </c>
+      <c r="D514" t="n">
+        <v>338.1</v>
+      </c>
+      <c r="E514" t="n">
+        <v>351.0255555555556</v>
+      </c>
+      <c r="F514" t="n">
+        <v>343.4755555555556</v>
+      </c>
+      <c r="G514" t="n">
+        <v>341.5255555555556</v>
+      </c>
+      <c r="H514" t="n">
+        <v>338.360909090909</v>
+      </c>
+      <c r="I514" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="J514" t="n">
+        <v>331.34</v>
+      </c>
+      <c r="K514" t="n">
+        <v>327.28</v>
+      </c>
+      <c r="L514" t="n">
+        <v>321.22</v>
+      </c>
+      <c r="M514" t="n">
+        <v>322.7628571428572</v>
+      </c>
+      <c r="N514" t="n">
+        <v>330.1428571428572</v>
+      </c>
+      <c r="O514" t="n">
+        <v>326.7133333333333</v>
+      </c>
+      <c r="P514" t="n">
+        <v>333.0133333333333</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>336.4133333333333</v>
+      </c>
+      <c r="R514" t="n">
+        <v>347.4933333333333</v>
+      </c>
+      <c r="S514" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="T514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="n">
+        <v>327.97</v>
+      </c>
+      <c r="M515" t="n">
+        <v>330.37</v>
+      </c>
+      <c r="N515" t="n">
+        <v>333.37</v>
+      </c>
+      <c r="O515" t="n">
+        <v>334.74</v>
+      </c>
+      <c r="P515" t="n">
+        <v>340.31</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="R515" t="n">
+        <v>350.33</v>
+      </c>
+      <c r="S515" t="n">
+        <v>356.03</v>
+      </c>
+      <c r="T515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>332.04</v>
+      </c>
+      <c r="L516" t="n">
+        <v>329.88</v>
+      </c>
+      <c r="M516" t="n">
+        <v>331.4271428571428</v>
+      </c>
+      <c r="N516" t="n">
+        <v>333.4971428571428</v>
+      </c>
+      <c r="O516" t="n">
+        <v>336.6066666666667</v>
+      </c>
+      <c r="P516" t="n">
+        <v>339.7666666666667</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>342.8266666666667</v>
+      </c>
+      <c r="R516" t="n">
+        <v>346.8466666666667</v>
+      </c>
+      <c r="S516" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="T516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27819,7 +28091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33097,6 +33369,56 @@
       </c>
       <c r="B527" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -33265,28 +33587,28 @@
         <v>0.0493</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5684941535085314</v>
+        <v>-0.5727630882642472</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03922247383373523</v>
+        <v>0.04026431121507801</v>
       </c>
       <c r="M2" t="n">
-        <v>17.37734824454824</v>
+        <v>17.32273759773372</v>
       </c>
       <c r="N2" t="n">
-        <v>415.1924011016955</v>
+        <v>413.5316708912346</v>
       </c>
       <c r="O2" t="n">
-        <v>20.3762705395687</v>
+        <v>20.33547813284051</v>
       </c>
       <c r="P2" t="n">
-        <v>388.9992241503228</v>
+        <v>389.0359506583501</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33342,28 +33664,28 @@
         <v>0.0369</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5470557160562404</v>
+        <v>-0.5449391321142355</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1483608527600979</v>
+        <v>0.1497062302667211</v>
       </c>
       <c r="M3" t="n">
-        <v>7.422920074346881</v>
+        <v>7.41845978299669</v>
       </c>
       <c r="N3" t="n">
-        <v>94.17612337137882</v>
+        <v>93.82344641436214</v>
       </c>
       <c r="O3" t="n">
-        <v>9.704438333637802</v>
+        <v>9.68625037949991</v>
       </c>
       <c r="P3" t="n">
-        <v>354.2782708181297</v>
+        <v>354.2604791111621</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33419,28 +33741,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2107312085176224</v>
+        <v>-0.2112295887656787</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03108497967537849</v>
+        <v>0.03179145591561283</v>
       </c>
       <c r="M4" t="n">
-        <v>6.576083942296023</v>
+        <v>6.571640538816519</v>
       </c>
       <c r="N4" t="n">
-        <v>76.54024163820864</v>
+        <v>76.21617684837017</v>
       </c>
       <c r="O4" t="n">
-        <v>8.748728001155861</v>
+        <v>8.730187675438035</v>
       </c>
       <c r="P4" t="n">
-        <v>349.7053720581486</v>
+        <v>349.7097083508009</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33496,28 +33818,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06253724587705531</v>
+        <v>-0.06007027556536702</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002285582265170172</v>
+        <v>0.002154703139120029</v>
       </c>
       <c r="M5" t="n">
-        <v>6.990310449193727</v>
+        <v>6.945251708300078</v>
       </c>
       <c r="N5" t="n">
-        <v>95.1695809035313</v>
+        <v>94.45265724640734</v>
       </c>
       <c r="O5" t="n">
-        <v>9.755489782862329</v>
+        <v>9.718675694064872</v>
       </c>
       <c r="P5" t="n">
-        <v>352.7613108961352</v>
+        <v>352.7405138838644</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33573,28 +33895,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0383751899832119</v>
+        <v>-0.040511831166757</v>
       </c>
       <c r="J6" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001020296396477272</v>
+        <v>0.001159765332635843</v>
       </c>
       <c r="M6" t="n">
-        <v>6.558712856686244</v>
+        <v>6.545616450428778</v>
       </c>
       <c r="N6" t="n">
-        <v>78.86046703236092</v>
+        <v>78.42336044538666</v>
       </c>
       <c r="O6" t="n">
-        <v>8.880341605611854</v>
+        <v>8.855696496910149</v>
       </c>
       <c r="P6" t="n">
-        <v>350.3581742711588</v>
+        <v>350.3764532408168</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33650,28 +33972,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1556670941515954</v>
+        <v>-0.1507087179328486</v>
       </c>
       <c r="J7" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01776260123236473</v>
+        <v>0.01699743866230274</v>
       </c>
       <c r="M7" t="n">
-        <v>6.413039303743471</v>
+        <v>6.392049286375294</v>
       </c>
       <c r="N7" t="n">
-        <v>73.76488213641902</v>
+        <v>73.37662838959096</v>
       </c>
       <c r="O7" t="n">
-        <v>8.588648446433176</v>
+        <v>8.566015899447709</v>
       </c>
       <c r="P7" t="n">
-        <v>346.8276952276323</v>
+        <v>346.7860850048755</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33727,28 +34049,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1092385424095996</v>
+        <v>-0.1084332353709973</v>
       </c>
       <c r="J8" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K8" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009278780227932382</v>
+        <v>0.009341425807033232</v>
       </c>
       <c r="M8" t="n">
-        <v>6.256748456747117</v>
+        <v>6.223100427233315</v>
       </c>
       <c r="N8" t="n">
-        <v>69.61016867360755</v>
+        <v>69.09787985586641</v>
       </c>
       <c r="O8" t="n">
-        <v>8.34327086181478</v>
+        <v>8.312513449966046</v>
       </c>
       <c r="P8" t="n">
-        <v>342.755755640611</v>
+        <v>342.7489244008525</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33804,28 +34126,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05161398949030045</v>
+        <v>-0.05112886827054882</v>
       </c>
       <c r="J9" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002459199864763284</v>
+        <v>0.002440209362402967</v>
       </c>
       <c r="M9" t="n">
-        <v>6.011681721031664</v>
+        <v>6.034131578114637</v>
       </c>
       <c r="N9" t="n">
-        <v>58.71443232997675</v>
+        <v>58.87086011475523</v>
       </c>
       <c r="O9" t="n">
-        <v>7.662534328143447</v>
+        <v>7.672734852368824</v>
       </c>
       <c r="P9" t="n">
-        <v>337.0772727456738</v>
+        <v>337.0732596423053</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33881,28 +34203,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04429206938125532</v>
+        <v>-0.04505847845320974</v>
       </c>
       <c r="J10" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001544975974164253</v>
+        <v>0.001625168215775963</v>
       </c>
       <c r="M10" t="n">
-        <v>6.273990492376525</v>
+        <v>6.272292902011285</v>
       </c>
       <c r="N10" t="n">
-        <v>68.57353482522795</v>
+        <v>68.33267085337627</v>
       </c>
       <c r="O10" t="n">
-        <v>8.280913888287207</v>
+        <v>8.266357774339088</v>
       </c>
       <c r="P10" t="n">
-        <v>338.9315837884628</v>
+        <v>338.9384059176733</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33958,28 +34280,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1298828472239545</v>
+        <v>-0.1274220454476177</v>
       </c>
       <c r="J11" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K11" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01568730895195414</v>
+        <v>0.01534009110448697</v>
       </c>
       <c r="M11" t="n">
-        <v>5.904454795222044</v>
+        <v>5.888349057077269</v>
       </c>
       <c r="N11" t="n">
-        <v>55.5922827587607</v>
+        <v>55.30495432095773</v>
       </c>
       <c r="O11" t="n">
-        <v>7.456023253635996</v>
+        <v>7.43673008256705</v>
       </c>
       <c r="P11" t="n">
-        <v>336.0021166222157</v>
+        <v>335.9777804024083</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34035,28 +34357,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1245936743853888</v>
+        <v>-0.1266551187643489</v>
       </c>
       <c r="J12" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K12" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01315871251886713</v>
+        <v>0.01383511423035144</v>
       </c>
       <c r="M12" t="n">
-        <v>6.302134379151516</v>
+        <v>6.275105303252593</v>
       </c>
       <c r="N12" t="n">
-        <v>61.38712653922718</v>
+        <v>61.02685313108174</v>
       </c>
       <c r="O12" t="n">
-        <v>7.834993716604193</v>
+        <v>7.811968582315327</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6170187448934</v>
+        <v>333.6376756881454</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -34112,28 +34434,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1585543619288691</v>
+        <v>-0.1585253692602721</v>
       </c>
       <c r="J13" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K13" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01840316203325709</v>
+        <v>0.01876659807685488</v>
       </c>
       <c r="M13" t="n">
-        <v>6.558437869695388</v>
+        <v>6.516841421415625</v>
       </c>
       <c r="N13" t="n">
-        <v>70.84318606590077</v>
+        <v>70.22836774317494</v>
       </c>
       <c r="O13" t="n">
-        <v>8.41683943448494</v>
+        <v>8.380236735509024</v>
       </c>
       <c r="P13" t="n">
-        <v>334.2427283852676</v>
+        <v>334.2424948763621</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -34189,28 +34511,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1208590781636062</v>
+        <v>-0.1157009559069426</v>
       </c>
       <c r="J14" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K14" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01000519446177817</v>
+        <v>0.009371053858512113</v>
       </c>
       <c r="M14" t="n">
-        <v>6.737312707995252</v>
+        <v>6.692254981283256</v>
       </c>
       <c r="N14" t="n">
-        <v>76.43251603253418</v>
+        <v>75.7014608051647</v>
       </c>
       <c r="O14" t="n">
-        <v>8.742569189462225</v>
+        <v>8.700658642031918</v>
       </c>
       <c r="P14" t="n">
-        <v>335.0564350596109</v>
+        <v>335.0050697958795</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -34266,28 +34588,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03809516258623368</v>
+        <v>0.03825945040094888</v>
       </c>
       <c r="J15" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K15" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007890300715815979</v>
+        <v>0.0008114159386323205</v>
       </c>
       <c r="M15" t="n">
-        <v>7.242175284049926</v>
+        <v>7.203443242547809</v>
       </c>
       <c r="N15" t="n">
-        <v>96.94479491300116</v>
+        <v>96.13739523842906</v>
       </c>
       <c r="O15" t="n">
-        <v>9.846054789254485</v>
+        <v>9.804967885639863</v>
       </c>
       <c r="P15" t="n">
-        <v>333.9371753209186</v>
+        <v>333.9355864196708</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -34343,28 +34665,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1582378072260178</v>
+        <v>0.1567502315571979</v>
       </c>
       <c r="J16" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K16" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01499415721584441</v>
+        <v>0.01500733757878792</v>
       </c>
       <c r="M16" t="n">
-        <v>7.295161414184861</v>
+        <v>7.257494609743717</v>
       </c>
       <c r="N16" t="n">
-        <v>86.99256297258653</v>
+        <v>86.24403479263977</v>
       </c>
       <c r="O16" t="n">
-        <v>9.326980378053046</v>
+        <v>9.286766648981752</v>
       </c>
       <c r="P16" t="n">
-        <v>337.6244833816244</v>
+        <v>337.6395953932233</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34420,28 +34742,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3132248683188755</v>
+        <v>0.3077949689775333</v>
       </c>
       <c r="J17" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K17" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05799363238636623</v>
+        <v>0.0570654530084489</v>
       </c>
       <c r="M17" t="n">
-        <v>7.137261240040723</v>
+        <v>7.111541711406032</v>
       </c>
       <c r="N17" t="n">
-        <v>85.11107909381222</v>
+        <v>84.50681808186337</v>
       </c>
       <c r="O17" t="n">
-        <v>9.225566600150488</v>
+        <v>9.192759002707694</v>
       </c>
       <c r="P17" t="n">
-        <v>338.7618388856983</v>
+        <v>338.8164199733433</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34497,28 +34819,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4861074067555195</v>
+        <v>0.4808485947165451</v>
       </c>
       <c r="J18" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K18" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L18" t="n">
-        <v>0.120419176606758</v>
+        <v>0.1199989901438446</v>
       </c>
       <c r="M18" t="n">
-        <v>7.487227716491144</v>
+        <v>7.469716347239471</v>
       </c>
       <c r="N18" t="n">
-        <v>92.63688812815036</v>
+        <v>92.00086713438048</v>
       </c>
       <c r="O18" t="n">
-        <v>9.624805874829391</v>
+        <v>9.591708249023242</v>
       </c>
       <c r="P18" t="n">
-        <v>342.7738904521764</v>
+        <v>342.8266756574712</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34574,28 +34896,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6105716838257365</v>
+        <v>0.6115311435635271</v>
       </c>
       <c r="J19" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K19" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1423025429307501</v>
+        <v>0.1437905168596297</v>
       </c>
       <c r="M19" t="n">
-        <v>8.816216674665924</v>
+        <v>8.844527250659308</v>
       </c>
       <c r="N19" t="n">
-        <v>119.1791559035905</v>
+        <v>119.4051216697492</v>
       </c>
       <c r="O19" t="n">
-        <v>10.91692062367362</v>
+        <v>10.92726505900489</v>
       </c>
       <c r="P19" t="n">
-        <v>347.9696417044523</v>
+        <v>347.9607419287386</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34632,7 +34954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T511"/>
+  <dimension ref="A1:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73982,6 +74304,400 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-41.329026608329116,174.7969037323558</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-41.329321505281236,174.79608182416587</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-41.3296904783678,174.79531639678837</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>-41.33011390520243,174.79460237866238</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>-41.33053321245361,174.79388614111315</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>-41.33105505819961,174.79329531467616</t>
+        </is>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>-41.33154774882578,174.79267906087844</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>-41.33209544389695,174.79214638126504</t>
+        </is>
+      </c>
+      <c r="S512" t="inlineStr">
+        <is>
+          <t>-41.332724452605326,174.79175200756623</t>
+        </is>
+      </c>
+      <c r="T512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-41.32911137710796,174.80475986900987</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-41.32882788655014,174.80390114257338</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-41.328698857882074,174.8030217257479</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-41.32853283073242,174.802153608888</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-41.32839674138542,174.80128233841765</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-41.32834968278459,174.8003901694915</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-41.32836857924338,174.79948203139753</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-41.328592025274546,174.79862604830063</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-41.32878194957734,174.79775671692886</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-41.329071805438915,174.79693700623025</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-41.32938356619784,174.7961328985754</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-41.32973127342804,174.7953536880711</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-41.33014513266383,174.7946345680857</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>-41.33059950961183,174.79396238899395</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>-41.3310682795174,174.7933121209522</t>
+        </is>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>-41.33157721605323,174.79271992107732</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>-41.33211721468801,174.79217878557333</t>
+        </is>
+      </c>
+      <c r="S513" t="inlineStr">
+        <is>
+          <t>-41.33271181059231,174.791732238002</t>
+        </is>
+      </c>
+      <c r="T513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:07:22+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-41.32870350900836,174.80392773717034</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-41.32859420341896,174.80305647318664</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-41.32850513601789,174.80216228505748</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-41.328312282535286,174.80129284029113</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-41.328274996734336,174.80038394529797</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-41.32833197658198,174.79947070930527</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-41.32844030619326,174.79855968801544</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-41.32868216512528,174.79770045507152</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-41.32896243471377,174.79685648817187</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-41.329251944988336,174.79602457811959</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-41.3296327656761,174.79526364098496</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-41.330079040959404,174.7945664404749</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>-41.33048662522879,174.79383256161412</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>-41.33097757255495,174.7931968190148</t>
+        </is>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>-41.331478231009804,174.79258266548464</t>
+        </is>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>-41.332033327183225,174.79205392505418</t>
+        </is>
+      </c>
+      <c r="S514" t="inlineStr">
+        <is>
+          <t>-41.33255830014872,174.79149217961506</t>
+        </is>
+      </c>
+      <c r="T514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-41.32930359867423,174.7960670875481</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-41.32968917538331,174.79531520571467</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-41.33010198919068,174.79459009558872</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>-41.33054124160259,174.79389537536755</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>-41.331025017621904,174.79325712863817</t>
+        </is>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>-41.33151506508715,174.79263374063046</t>
+        </is>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>-41.33205032440112,174.79207922414784</t>
+        </is>
+      </c>
+      <c r="S515" t="inlineStr">
+        <is>
+          <t>-41.332589934412326,174.79154164886063</t>
+        </is>
+      </c>
+      <c r="T515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-41.32899991525742,174.79688408108254</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-41.329318214751055,174.79607911615426</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-41.329697014476764,174.7953223715246</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-41.330102893304144,174.79459102755237</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>-41.330553943079565,174.7939099832323</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>-41.33102148471037,174.79325263778608</t>
+        </is>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>-41.3315181570734,174.79263802806787</t>
+        </is>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>-41.33202945237597,174.79204815769506</t>
+        </is>
+      </c>
+      <c r="S516" t="inlineStr">
+        <is>
+          <t>-41.33259675063193,174.7915523079861</t>
+        </is>
+      </c>
+      <c r="T516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -33432,7 +33432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33523,35 +33523,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33610,27 +33615,28 @@
       <c r="P2" t="n">
         <v>389.0359506583501</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.80528896046607 -41.32580087110959, 174.80400342602593 -41.333843889728584)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8052889604661</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.32580087110959</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8040034260259</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.33384388972858</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.804646193246</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.32982238041909</v>
       </c>
     </row>
@@ -33687,27 +33693,28 @@
       <c r="P3" t="n">
         <v>354.2604791111621</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.80456378100735 -41.325728729322364, 174.8028535719492 -41.333726810963434)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8045637810073</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.32572872932236</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8028535719492</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.33372681096343</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8037086764783</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.3297277701429</v>
       </c>
     </row>
@@ -33764,27 +33771,28 @@
       <c r="P4" t="n">
         <v>349.7097083508009</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.8040370731165 -41.32564063717393, 174.8014275644907 -41.33349989735082)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8040370731165</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.32564063717393</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8014275644907</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.33349989735082</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8027323188036</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.32957026726238</v>
       </c>
     </row>
@@ -33841,27 +33849,28 @@
       <c r="P5" t="n">
         <v>352.7405138838644</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.80312602568284 -41.32542869140259, 174.80065583925463 -41.33331343502723)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8031260256828</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.32542869140259</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8006558392546</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.33331343502723</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8018909324687</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.32937106321491</v>
       </c>
     </row>
@@ -33918,27 +33927,28 @@
       <c r="P6" t="n">
         <v>350.3764532408168</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.80167574762538 -41.325232711335474, 174.80067279737133 -41.333298508606916)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8016757476254</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.32523271133547</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8006727973713</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.33329850860692</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8011742724984</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.32926560997119</v>
       </c>
     </row>
@@ -33995,27 +34005,28 @@
       <c r="P7" t="n">
         <v>346.7860850048755</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.80012815744132 -41.32520553753506, 174.8008019814845 -41.33329068050559)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8001281574413</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.32520553753506</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8008019814845</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.33329068050559</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8004650694629</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.32924810902033</v>
       </c>
     </row>
@@ -34072,27 +34083,28 @@
       <c r="P8" t="n">
         <v>342.7489244008525</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7985528603529 -41.32536455660662, 174.80099347718746 -41.333254459137606)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7985528603529</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.32536455660662</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8009934771875</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.33325445913761</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7997731687702</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.32930950787211</v>
       </c>
     </row>
@@ -34149,27 +34161,28 @@
       <c r="P9" t="n">
         <v>337.0732596423053</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7973357832919 -41.32564196137035, 174.8007014148842 -41.33333652941661)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7973357832919</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.32564196137035</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8007014148842</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.33333652941661</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7990185990881</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.32948924539348</v>
       </c>
     </row>
@@ -34226,27 +34239,28 @@
       <c r="P10" t="n">
         <v>338.9384059176733</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.79615220165022 -41.32593609082424, 174.80035683431623 -41.33339306824013)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7961522016502</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.32593609082424</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8003568343162</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.33339306824013</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7982545179832</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.32966457953219</v>
       </c>
     </row>
@@ -34303,27 +34317,28 @@
       <c r="P11" t="n">
         <v>335.9777804024083</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.7949593788115 -41.326385393149486, 174.80017583069323 -41.33347086180651)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7949593788115</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.32638539314949</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8001758306932</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.33347086180651</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7975676047524</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.329928127478</v>
       </c>
     </row>
@@ -34380,27 +34395,28 @@
       <c r="P12" t="n">
         <v>333.6376756881454</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.79400171184486 -41.32679382148928, 174.79966917406773 -41.333680170520005)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7940017118449</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.32679382148928</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7996691740677</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.33368017052</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7968354429563</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.33023699600464</v>
       </c>
     </row>
@@ -34457,27 +34473,28 @@
       <c r="P13" t="n">
         <v>334.2424948763621</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.79307588802 -41.327239339272644, 174.79917632440657 -41.33391272974881)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.79307588802</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.32723933927264</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7991763244066</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.33391272974881</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7961261062133</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.33057603451073</v>
       </c>
     </row>
@@ -34534,27 +34551,28 @@
       <c r="P14" t="n">
         <v>335.0050697958795</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.7921465656709 -41.32773136528279, 174.79874383912224 -41.33413127344015)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7921465656709</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.32773136528279</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7987438391222</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.33413127344015</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7954452023966</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.33093131936147</v>
       </c>
     </row>
@@ -34611,27 +34629,28 @@
       <c r="P15" t="n">
         <v>333.9355864196708</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.79127591216965 -41.32826351696451, 174.79831967291702 -41.33438783192688)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.7912759121697</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.32826351696451</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.798319672917</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.33438783192688</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.7947977925433</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.33132567444569</v>
       </c>
     </row>
@@ -34688,27 +34707,28 @@
       <c r="P16" t="n">
         <v>337.6395953932233</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.79044443509787 -41.328812186252314, 174.79788442531841 -41.33466496621764)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7904444350979</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.32881218625231</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7978844253184</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.33466496621764</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.7941644302081</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.33173857623498</v>
       </c>
     </row>
@@ -34765,27 +34785,28 @@
       <c r="P17" t="n">
         <v>338.8164199733433</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.78967869921001 -41.32938385767025, 174.79744948449778 -41.33498776092871)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.78967869921</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.32938385767025</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.7974494844978</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.33498776092871</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.7935640918539</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.33218580929948</v>
       </c>
     </row>
@@ -34842,27 +34863,28 @@
       <c r="P18" t="n">
         <v>342.8266756574712</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.78895487044758 -41.32995111354799, 174.7969835883528 -41.33534504825971)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.7889548704476</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.32995111354799</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.7969835883528</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.33534504825971</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.7929692294002</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.33264808090385</v>
       </c>
     </row>
@@ -34919,27 +34941,28 @@
       <c r="P19" t="n">
         <v>347.9607419287386</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.78829818891512 -41.33051571629299, 174.79649975185941 -41.3357602407736)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.7882981889151</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-41.33051571629299</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.7964997518594</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-41.3357602407736</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.7923989703873</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-41.3331379785333</v>
       </c>
     </row>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T516"/>
+  <dimension ref="A1:T518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28080,6 +28080,120 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>336.83</v>
+      </c>
+      <c r="L517" t="n">
+        <v>333.84</v>
+      </c>
+      <c r="M517" t="n">
+        <v>336.6828571428572</v>
+      </c>
+      <c r="N517" t="n">
+        <v>335.1728571428571</v>
+      </c>
+      <c r="O517" t="n">
+        <v>336.4966666666667</v>
+      </c>
+      <c r="P517" t="n">
+        <v>339.2466666666667</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>341.4966666666667</v>
+      </c>
+      <c r="R517" t="n">
+        <v>350.6266666666667</v>
+      </c>
+      <c r="S517" t="n">
+        <v>360.98</v>
+      </c>
+      <c r="T517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>406.34</v>
+      </c>
+      <c r="C518" t="n">
+        <v>359.15</v>
+      </c>
+      <c r="D518" t="n">
+        <v>359.93</v>
+      </c>
+      <c r="E518" t="n">
+        <v>363.0266666666667</v>
+      </c>
+      <c r="F518" t="n">
+        <v>367.2266666666667</v>
+      </c>
+      <c r="G518" t="n">
+        <v>366.3866666666667</v>
+      </c>
+      <c r="H518" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="I518" t="n">
+        <v>349.64</v>
+      </c>
+      <c r="J518" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="K518" t="n">
+        <v>345.72</v>
+      </c>
+      <c r="L518" t="n">
+        <v>340.82</v>
+      </c>
+      <c r="M518" t="n">
+        <v>337.2014285714285</v>
+      </c>
+      <c r="N518" t="n">
+        <v>341.3414285714285</v>
+      </c>
+      <c r="O518" t="n">
+        <v>340.93</v>
+      </c>
+      <c r="P518" t="n">
+        <v>350.31</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="R518" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="S518" t="n">
+        <v>365.78</v>
+      </c>
+      <c r="T518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28091,7 +28205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33419,6 +33533,26 @@
       </c>
       <c r="B532" t="n">
         <v>-0.04</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -33592,28 +33726,28 @@
         <v>0.0493</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5727630882642472</v>
+        <v>-0.5407296636438673</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04026431121507801</v>
+        <v>0.03614190705835663</v>
       </c>
       <c r="M2" t="n">
-        <v>17.32273759773372</v>
+        <v>17.38191331635167</v>
       </c>
       <c r="N2" t="n">
-        <v>413.5316708912346</v>
+        <v>416.0079389414563</v>
       </c>
       <c r="O2" t="n">
-        <v>20.33547813284051</v>
+        <v>20.39627267275706</v>
       </c>
       <c r="P2" t="n">
-        <v>389.0359506583501</v>
+        <v>388.7567018305552</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33670,28 +33804,28 @@
         <v>0.0369</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5449391321142355</v>
+        <v>-0.5278971557450975</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1497062302667211</v>
+        <v>0.1413943839862244</v>
       </c>
       <c r="M3" t="n">
-        <v>7.41845978299669</v>
+        <v>7.458057696360562</v>
       </c>
       <c r="N3" t="n">
-        <v>93.82344641436214</v>
+        <v>94.8493611357421</v>
       </c>
       <c r="O3" t="n">
-        <v>9.68625037949991</v>
+        <v>9.739063668327777</v>
       </c>
       <c r="P3" t="n">
-        <v>354.2604791111621</v>
+        <v>354.1141947497294</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33748,28 +33882,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2112295887656787</v>
+        <v>-0.1973205175628919</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03179145591561283</v>
+        <v>0.02782376547054755</v>
       </c>
       <c r="M4" t="n">
-        <v>6.571640538816519</v>
+        <v>6.598718206255813</v>
       </c>
       <c r="N4" t="n">
-        <v>76.21617684837017</v>
+        <v>76.87051170901115</v>
       </c>
       <c r="O4" t="n">
-        <v>8.730187675438035</v>
+        <v>8.767583002687294</v>
       </c>
       <c r="P4" t="n">
-        <v>349.7097083508009</v>
+        <v>349.5905028518983</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33826,28 +33960,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06007027556536702</v>
+        <v>-0.04974139417689328</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002154703139120029</v>
+        <v>0.001486381920795865</v>
       </c>
       <c r="M5" t="n">
-        <v>6.945251708300078</v>
+        <v>6.95462116962215</v>
       </c>
       <c r="N5" t="n">
-        <v>94.45265724640734</v>
+        <v>94.62348505291307</v>
       </c>
       <c r="O5" t="n">
-        <v>9.718675694064872</v>
+        <v>9.727460359873643</v>
       </c>
       <c r="P5" t="n">
-        <v>352.7405138838644</v>
+        <v>352.6521280809213</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33904,28 +34038,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.040511831166757</v>
+        <v>-0.02456915657525836</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001159765332635843</v>
+        <v>0.0004250149935052239</v>
       </c>
       <c r="M6" t="n">
-        <v>6.545616450428778</v>
+        <v>6.578126773149707</v>
       </c>
       <c r="N6" t="n">
-        <v>78.42336044538666</v>
+        <v>79.35563303549614</v>
       </c>
       <c r="O6" t="n">
-        <v>8.855696496910149</v>
+        <v>8.908177874037774</v>
       </c>
       <c r="P6" t="n">
-        <v>350.3764532408168</v>
+        <v>350.2389916588848</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33982,28 +34116,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1507087179328486</v>
+        <v>-0.1296718322020964</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01699743866230274</v>
+        <v>0.0124243043536818</v>
       </c>
       <c r="M7" t="n">
-        <v>6.392049286375294</v>
+        <v>6.450498307736755</v>
       </c>
       <c r="N7" t="n">
-        <v>73.37662838959096</v>
+        <v>75.23080198090841</v>
       </c>
       <c r="O7" t="n">
-        <v>8.566015899447709</v>
+        <v>8.673569160438419</v>
       </c>
       <c r="P7" t="n">
-        <v>346.7860850048755</v>
+        <v>346.6068727854956</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34060,28 +34194,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1084332353709973</v>
+        <v>-0.08878622426568034</v>
       </c>
       <c r="J8" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K8" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009341425807033232</v>
+        <v>0.0061839608846187</v>
       </c>
       <c r="M8" t="n">
-        <v>6.223100427233315</v>
+        <v>6.267735958839209</v>
       </c>
       <c r="N8" t="n">
-        <v>69.09787985586641</v>
+        <v>70.72302498759812</v>
       </c>
       <c r="O8" t="n">
-        <v>8.312513449966046</v>
+        <v>8.409698269712067</v>
       </c>
       <c r="P8" t="n">
-        <v>342.7489244008525</v>
+        <v>342.5790446940433</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34138,28 +34272,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05112886827054882</v>
+        <v>-0.03896139245371089</v>
       </c>
       <c r="J9" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002440209362402967</v>
+        <v>0.001416372710481228</v>
       </c>
       <c r="M9" t="n">
-        <v>6.034131578114637</v>
+        <v>6.067612601707397</v>
       </c>
       <c r="N9" t="n">
-        <v>58.87086011475523</v>
+        <v>59.38032443532261</v>
       </c>
       <c r="O9" t="n">
-        <v>7.672734852368824</v>
+        <v>7.705862990951929</v>
       </c>
       <c r="P9" t="n">
-        <v>337.0732596423053</v>
+        <v>336.9667520661309</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34216,28 +34350,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04505847845320974</v>
+        <v>-0.03253245038593049</v>
       </c>
       <c r="J10" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001625168215775963</v>
+        <v>0.0008464976430402338</v>
       </c>
       <c r="M10" t="n">
-        <v>6.272292902011285</v>
+        <v>6.301563936322244</v>
       </c>
       <c r="N10" t="n">
-        <v>68.33267085337627</v>
+        <v>68.90203639631328</v>
       </c>
       <c r="O10" t="n">
-        <v>8.266357774339088</v>
+        <v>8.30072505244652</v>
       </c>
       <c r="P10" t="n">
-        <v>338.9384059176733</v>
+        <v>338.8273792439676</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34294,28 +34428,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1274220454476177</v>
+        <v>-0.1189511216509286</v>
       </c>
       <c r="J11" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K11" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01534009110448697</v>
+        <v>0.01342236234968774</v>
       </c>
       <c r="M11" t="n">
-        <v>5.888349057077269</v>
+        <v>5.901737840262062</v>
       </c>
       <c r="N11" t="n">
-        <v>55.30495432095773</v>
+        <v>55.48968696854522</v>
       </c>
       <c r="O11" t="n">
-        <v>7.43673008256705</v>
+        <v>7.449140015367225</v>
       </c>
       <c r="P11" t="n">
-        <v>335.9777804024083</v>
+        <v>335.8922044243095</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34372,28 +34506,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1266551187643489</v>
+        <v>-0.1202470418251951</v>
       </c>
       <c r="J12" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K12" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01383511423035144</v>
+        <v>0.01255104915070149</v>
       </c>
       <c r="M12" t="n">
-        <v>6.275105303252593</v>
+        <v>6.279823812095678</v>
       </c>
       <c r="N12" t="n">
-        <v>61.02685313108174</v>
+        <v>61.02068622295308</v>
       </c>
       <c r="O12" t="n">
-        <v>7.811968582315327</v>
+        <v>7.811573863374338</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6376756881454</v>
+        <v>333.5731081671145</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34450,28 +34584,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1585253692602721</v>
+        <v>-0.1524182969081608</v>
       </c>
       <c r="J13" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K13" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01876659807685488</v>
+        <v>0.01748410792124488</v>
       </c>
       <c r="M13" t="n">
-        <v>6.516841421415625</v>
+        <v>6.516926832903863</v>
       </c>
       <c r="N13" t="n">
-        <v>70.22836774317494</v>
+        <v>70.11217793249571</v>
       </c>
       <c r="O13" t="n">
-        <v>8.380236735509024</v>
+        <v>8.373301495377778</v>
       </c>
       <c r="P13" t="n">
-        <v>334.2424948763621</v>
+        <v>334.1808166128602</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34528,28 +34662,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1157009559069426</v>
+        <v>-0.1100637128654214</v>
       </c>
       <c r="J14" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K14" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009371053858512113</v>
+        <v>0.00854282432520681</v>
       </c>
       <c r="M14" t="n">
-        <v>6.692254981283256</v>
+        <v>6.688117696976214</v>
       </c>
       <c r="N14" t="n">
-        <v>75.7014608051647</v>
+        <v>75.57029837351921</v>
       </c>
       <c r="O14" t="n">
-        <v>8.700658642031918</v>
+        <v>8.693117874130042</v>
       </c>
       <c r="P14" t="n">
-        <v>335.0050697958795</v>
+        <v>334.9480503323281</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34606,28 +34740,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03825945040094888</v>
+        <v>0.04167680316534703</v>
       </c>
       <c r="J15" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K15" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008114159386323205</v>
+        <v>0.000970788772660991</v>
       </c>
       <c r="M15" t="n">
-        <v>7.203443242547809</v>
+        <v>7.186693994651984</v>
       </c>
       <c r="N15" t="n">
-        <v>96.13739523842906</v>
+        <v>95.77579042749876</v>
       </c>
       <c r="O15" t="n">
-        <v>9.804967885639863</v>
+        <v>9.786510635946746</v>
       </c>
       <c r="P15" t="n">
-        <v>333.9355864196708</v>
+        <v>333.9007518451235</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34684,28 +34818,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1567502315571979</v>
+        <v>0.159573813536064</v>
       </c>
       <c r="J16" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K16" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01500733757878792</v>
+        <v>0.01565464265411809</v>
       </c>
       <c r="M16" t="n">
-        <v>7.257494609743717</v>
+        <v>7.249005150264529</v>
       </c>
       <c r="N16" t="n">
-        <v>86.24403479263977</v>
+        <v>86.02650968700925</v>
       </c>
       <c r="O16" t="n">
-        <v>9.286766648981752</v>
+        <v>9.275047691899447</v>
       </c>
       <c r="P16" t="n">
-        <v>337.6395953932233</v>
+        <v>337.6108546685011</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34762,28 +34896,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3077949689775333</v>
+        <v>0.30799774811886</v>
       </c>
       <c r="J17" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K17" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0570654530084489</v>
+        <v>0.05754649610680107</v>
       </c>
       <c r="M17" t="n">
-        <v>7.111541711406032</v>
+        <v>7.103576465383386</v>
       </c>
       <c r="N17" t="n">
-        <v>84.50681808186337</v>
+        <v>84.24566624317528</v>
       </c>
       <c r="O17" t="n">
-        <v>9.192759002707694</v>
+        <v>9.178543797529937</v>
       </c>
       <c r="P17" t="n">
-        <v>338.8164199733433</v>
+        <v>338.8143118356556</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34840,28 +34974,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4808485947165451</v>
+        <v>0.4799058924659193</v>
       </c>
       <c r="J18" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K18" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1199989901438446</v>
+        <v>0.1204999392033631</v>
       </c>
       <c r="M18" t="n">
-        <v>7.469716347239471</v>
+        <v>7.450761725562989</v>
       </c>
       <c r="N18" t="n">
-        <v>92.00086713438048</v>
+        <v>91.62390155556807</v>
       </c>
       <c r="O18" t="n">
-        <v>9.591708249023242</v>
+        <v>9.572037481934975</v>
       </c>
       <c r="P18" t="n">
-        <v>342.8266756574712</v>
+        <v>342.8361571550234</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34918,28 +35052,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6115311435635271</v>
+        <v>0.6112831488206055</v>
       </c>
       <c r="J19" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K19" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1437905168596297</v>
+        <v>0.1448125147660375</v>
       </c>
       <c r="M19" t="n">
-        <v>8.844527250659308</v>
+        <v>8.81383599387166</v>
       </c>
       <c r="N19" t="n">
-        <v>119.4051216697492</v>
+        <v>118.8653206741912</v>
       </c>
       <c r="O19" t="n">
-        <v>10.92726505900489</v>
+        <v>10.90253735027728</v>
       </c>
       <c r="P19" t="n">
-        <v>347.9607419287386</v>
+        <v>347.9632426250699</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34977,7 +35111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T516"/>
+  <dimension ref="A1:T518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74721,6 +74855,174 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-41.32903763201544,174.7969118479306</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-41.32934851823572,174.796104055062</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-41.32973598747595,174.795357997246</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-41.33011480931581,174.79460331062637</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>-41.33055319459973,174.79390912241155</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>-41.33101810351878,174.7932483397931</t>
+        </is>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>-41.331509877190406,174.7926265469445</t>
+        </is>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>-41.33205210201816,174.79208186999978</t>
+        </is>
+      </c>
+      <c r="S517" t="inlineStr">
+        <is>
+          <t>-41.332618772257405,174.79158674517578</t>
+        </is>
+      </c>
+      <c r="T517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-41.32943377308882,174.80470834048745</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-41.328921740173286,174.8038810745851</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-41.328784905158486,174.802993156197</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-41.32861031555444,174.80212933449084</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-41.32852523280124,174.8012663613544</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-41.32849843574222,174.80040256633214</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-41.328540343050804,174.79953516230034</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-41.328632221415376,174.79864362971495</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-41.328859605727146,174.79780050223377</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-41.32910763240844,174.7969633818957</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-41.32940193193897,174.79614801309273</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-41.3297398328677,174.79536151237113</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-41.33015867404205,174.79464852661883</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>-41.330583360599846,174.79394381611232</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>-41.331090040500314,174.79333978244435</t>
+        </is>
+      </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>-41.331577568829815,174.79272041024893</t>
+        </is>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>-41.33209394590638,174.79214415161158</t>
+        </is>
+      </c>
+      <c r="S518" t="inlineStr">
+        <is>
+          <t>-41.33264673621063,174.79163047497374</t>
+        </is>
+      </c>
+      <c r="T518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T518"/>
+  <dimension ref="A1:T521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28194,6 +28194,162 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="n">
+        <v>354.46</v>
+      </c>
+      <c r="M519" t="n">
+        <v>321.9885714285714</v>
+      </c>
+      <c r="N519" t="n">
+        <v>330.6985714285714</v>
+      </c>
+      <c r="O519" t="n">
+        <v>323.1366666666667</v>
+      </c>
+      <c r="P519" t="n">
+        <v>331.4266666666667</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>343.3066666666667</v>
+      </c>
+      <c r="R519" t="n">
+        <v>352.6866666666667</v>
+      </c>
+      <c r="S519" t="n">
+        <v>356.07</v>
+      </c>
+      <c r="T519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="M520" t="n">
+        <v>323.5714285714286</v>
+      </c>
+      <c r="N520" t="n">
+        <v>327.2714285714285</v>
+      </c>
+      <c r="O520" t="n">
+        <v>332.3333333333333</v>
+      </c>
+      <c r="P520" t="n">
+        <v>340.6433333333333</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>351.2133333333333</v>
+      </c>
+      <c r="R520" t="n">
+        <v>383.2033333333333</v>
+      </c>
+      <c r="S520" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="T520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="D521" t="n">
+        <v>340.1</v>
+      </c>
+      <c r="E521" t="n">
+        <v>348.7533333333333</v>
+      </c>
+      <c r="F521" t="n">
+        <v>345.0333333333333</v>
+      </c>
+      <c r="G521" t="n">
+        <v>342.7233333333333</v>
+      </c>
+      <c r="H521" t="n">
+        <v>338.620909090909</v>
+      </c>
+      <c r="I521" t="n">
+        <v>329.94</v>
+      </c>
+      <c r="J521" t="n">
+        <v>340.54</v>
+      </c>
+      <c r="K521" t="n">
+        <v>328.87</v>
+      </c>
+      <c r="L521" t="n">
+        <v>333.68</v>
+      </c>
+      <c r="M521" t="n">
+        <v>331.4542857142857</v>
+      </c>
+      <c r="N521" t="n">
+        <v>333.9342857142857</v>
+      </c>
+      <c r="O521" t="n">
+        <v>335.93</v>
+      </c>
+      <c r="P521" t="n">
+        <v>346.29</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>349.66</v>
+      </c>
+      <c r="R521" t="n">
+        <v>356.56</v>
+      </c>
+      <c r="S521" t="n">
+        <v>359.64</v>
+      </c>
+      <c r="T521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28205,7 +28361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33553,6 +33709,36 @@
       </c>
       <c r="B534" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -33729,7 +33915,7 @@
         <v>-0.5407296636438673</v>
       </c>
       <c r="J2" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
         <v>240</v>
@@ -33804,28 +33990,28 @@
         <v>0.0369</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5278971557450975</v>
+        <v>-0.5219782459104826</v>
       </c>
       <c r="J3" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1413943839862244</v>
+        <v>0.1398453086271689</v>
       </c>
       <c r="M3" t="n">
-        <v>7.458057696360562</v>
+        <v>7.45314883256767</v>
       </c>
       <c r="N3" t="n">
-        <v>94.8493611357421</v>
+        <v>94.64349875300692</v>
       </c>
       <c r="O3" t="n">
-        <v>9.739063668327777</v>
+        <v>9.728489027233721</v>
       </c>
       <c r="P3" t="n">
-        <v>354.1141947497294</v>
+        <v>354.0631645966078</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33882,28 +34068,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1973205175628919</v>
+        <v>-0.2012051180173544</v>
       </c>
       <c r="J4" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02782376547054755</v>
+        <v>0.02919007868220536</v>
       </c>
       <c r="M4" t="n">
-        <v>6.598718206255813</v>
+        <v>6.592228158605582</v>
       </c>
       <c r="N4" t="n">
-        <v>76.87051170901115</v>
+        <v>76.64201300703955</v>
       </c>
       <c r="O4" t="n">
-        <v>8.767583002687294</v>
+        <v>8.754542421339881</v>
       </c>
       <c r="P4" t="n">
-        <v>349.5905028518983</v>
+        <v>349.6239439594031</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33960,28 +34146,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04974139417689328</v>
+        <v>-0.05201044165571954</v>
       </c>
       <c r="J5" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001486381920795865</v>
+        <v>0.001642521673108188</v>
       </c>
       <c r="M5" t="n">
-        <v>6.95462116962215</v>
+        <v>6.939598634733279</v>
       </c>
       <c r="N5" t="n">
-        <v>94.62348505291307</v>
+        <v>94.2788367548122</v>
       </c>
       <c r="O5" t="n">
-        <v>9.727460359873643</v>
+        <v>9.709728974323239</v>
       </c>
       <c r="P5" t="n">
-        <v>352.6521280809213</v>
+        <v>352.671632643233</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34038,28 +34224,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02456915657525836</v>
+        <v>-0.02861593866908446</v>
       </c>
       <c r="J6" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004250149935052239</v>
+        <v>0.0005824540710346326</v>
       </c>
       <c r="M6" t="n">
-        <v>6.578126773149707</v>
+        <v>6.572934563570469</v>
       </c>
       <c r="N6" t="n">
-        <v>79.35563303549614</v>
+        <v>79.12515467432787</v>
       </c>
       <c r="O6" t="n">
-        <v>8.908177874037774</v>
+        <v>8.89523213155946</v>
       </c>
       <c r="P6" t="n">
-        <v>350.2389916588848</v>
+        <v>350.2740374268392</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34116,28 +34302,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1296718322020964</v>
+        <v>-0.1301505097881439</v>
       </c>
       <c r="J7" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0124243043536818</v>
+        <v>0.0126580748433518</v>
       </c>
       <c r="M7" t="n">
-        <v>6.450498307736755</v>
+        <v>6.427347809844693</v>
       </c>
       <c r="N7" t="n">
-        <v>75.23080198090841</v>
+        <v>74.93573898514649</v>
       </c>
       <c r="O7" t="n">
-        <v>8.673569160438419</v>
+        <v>8.656543131362916</v>
       </c>
       <c r="P7" t="n">
-        <v>346.6068727854956</v>
+        <v>346.6109685771896</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34194,28 +34380,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08878622426568034</v>
+        <v>-0.09025500881267827</v>
       </c>
       <c r="J8" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0061839608846187</v>
+        <v>0.006459967223317875</v>
       </c>
       <c r="M8" t="n">
-        <v>6.267735958839209</v>
+        <v>6.250854314812226</v>
       </c>
       <c r="N8" t="n">
-        <v>70.72302498759812</v>
+        <v>70.45745859712315</v>
       </c>
       <c r="O8" t="n">
-        <v>8.409698269712067</v>
+        <v>8.393894125918145</v>
       </c>
       <c r="P8" t="n">
-        <v>342.5790446940433</v>
+        <v>342.5918005478158</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34272,28 +34458,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03896139245371089</v>
+        <v>-0.04420715972463391</v>
       </c>
       <c r="J9" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001416372710481228</v>
+        <v>0.001838619393696117</v>
       </c>
       <c r="M9" t="n">
-        <v>6.067612601707397</v>
+        <v>6.065774289157537</v>
       </c>
       <c r="N9" t="n">
-        <v>59.38032443532261</v>
+        <v>59.28862182547172</v>
       </c>
       <c r="O9" t="n">
-        <v>7.705862990951929</v>
+        <v>7.699910507627457</v>
       </c>
       <c r="P9" t="n">
-        <v>336.9667520661309</v>
+        <v>337.0128729426174</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34350,28 +34536,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03253245038593049</v>
+        <v>-0.03040836457313755</v>
       </c>
       <c r="J10" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008464976430402338</v>
+        <v>0.0007471448381225487</v>
       </c>
       <c r="M10" t="n">
-        <v>6.301563936322244</v>
+        <v>6.287010287155015</v>
       </c>
       <c r="N10" t="n">
-        <v>68.90203639631328</v>
+        <v>68.66976539520738</v>
       </c>
       <c r="O10" t="n">
-        <v>8.30072505244652</v>
+        <v>8.286722234708208</v>
       </c>
       <c r="P10" t="n">
-        <v>338.8273792439676</v>
+        <v>338.8084689086191</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34428,28 +34614,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1189511216509286</v>
+        <v>-0.1209120856962934</v>
       </c>
       <c r="J11" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01342236234968774</v>
+        <v>0.01392509924523322</v>
       </c>
       <c r="M11" t="n">
-        <v>5.901737840262062</v>
+        <v>5.896719966305407</v>
       </c>
       <c r="N11" t="n">
-        <v>55.48968696854522</v>
+        <v>55.38947631708482</v>
       </c>
       <c r="O11" t="n">
-        <v>7.449140015367225</v>
+        <v>7.442410652274223</v>
       </c>
       <c r="P11" t="n">
-        <v>335.8922044243095</v>
+        <v>335.9121268015728</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34506,28 +34692,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1202470418251951</v>
+        <v>-0.1118496509820942</v>
       </c>
       <c r="J12" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01255104915070149</v>
+        <v>0.01076470706932953</v>
       </c>
       <c r="M12" t="n">
-        <v>6.279823812095678</v>
+        <v>6.321464247835497</v>
       </c>
       <c r="N12" t="n">
-        <v>61.02068622295308</v>
+        <v>62.1334421628558</v>
       </c>
       <c r="O12" t="n">
-        <v>7.811573863374338</v>
+        <v>7.882476905316995</v>
       </c>
       <c r="P12" t="n">
-        <v>333.5731081671145</v>
+        <v>333.4883176551803</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34584,28 +34770,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1524182969081608</v>
+        <v>-0.1585343473446165</v>
       </c>
       <c r="J13" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01748410792124488</v>
+        <v>0.01908251300302111</v>
       </c>
       <c r="M13" t="n">
-        <v>6.516926832903863</v>
+        <v>6.509935798732702</v>
       </c>
       <c r="N13" t="n">
-        <v>70.11217793249571</v>
+        <v>69.8877355501435</v>
       </c>
       <c r="O13" t="n">
-        <v>8.373301495377778</v>
+        <v>8.359888489097418</v>
       </c>
       <c r="P13" t="n">
-        <v>334.1808166128602</v>
+        <v>334.2428217351796</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34662,28 +34848,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1100637128654214</v>
+        <v>-0.1120425735005472</v>
       </c>
       <c r="J14" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00854282432520681</v>
+        <v>0.008967358515010848</v>
       </c>
       <c r="M14" t="n">
-        <v>6.688117696976214</v>
+        <v>6.660840510693378</v>
       </c>
       <c r="N14" t="n">
-        <v>75.57029837351921</v>
+        <v>75.10962961140173</v>
       </c>
       <c r="O14" t="n">
-        <v>8.693117874130042</v>
+        <v>8.666581195108122</v>
       </c>
       <c r="P14" t="n">
-        <v>334.9480503323281</v>
+        <v>334.9681389355966</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34740,28 +34926,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04167680316534703</v>
+        <v>0.0356820059621539</v>
       </c>
       <c r="J15" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000970788772660991</v>
+        <v>0.0007191693591889203</v>
       </c>
       <c r="M15" t="n">
-        <v>7.186693994651984</v>
+        <v>7.173493851151181</v>
       </c>
       <c r="N15" t="n">
-        <v>95.77579042749876</v>
+        <v>95.44807590823279</v>
       </c>
       <c r="O15" t="n">
-        <v>9.786510635946746</v>
+        <v>9.769753113985676</v>
       </c>
       <c r="P15" t="n">
-        <v>333.9007518451235</v>
+        <v>333.9620276265987</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34818,28 +35004,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.159573813536064</v>
+        <v>0.1565541423755981</v>
       </c>
       <c r="J16" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01565464265411809</v>
+        <v>0.01523373612363355</v>
       </c>
       <c r="M16" t="n">
-        <v>7.249005150264529</v>
+        <v>7.23564000548421</v>
       </c>
       <c r="N16" t="n">
-        <v>86.02650968700925</v>
+        <v>85.72085365696867</v>
       </c>
       <c r="O16" t="n">
-        <v>9.275047691899447</v>
+        <v>9.258555700376203</v>
       </c>
       <c r="P16" t="n">
-        <v>337.6108546685011</v>
+        <v>337.6415750098819</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34896,28 +35082,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.30799774811886</v>
+        <v>0.3097469456716174</v>
       </c>
       <c r="J17" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05754649610680107</v>
+        <v>0.05886364234237307</v>
       </c>
       <c r="M17" t="n">
-        <v>7.103576465383386</v>
+        <v>7.078882422047633</v>
       </c>
       <c r="N17" t="n">
-        <v>84.24566624317528</v>
+        <v>83.74386328779389</v>
       </c>
       <c r="O17" t="n">
-        <v>9.178543797529937</v>
+        <v>9.151167318314855</v>
       </c>
       <c r="P17" t="n">
-        <v>338.8143118356556</v>
+        <v>338.7964271770169</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34974,28 +35160,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4799058924659193</v>
+        <v>0.4918832091165215</v>
       </c>
       <c r="J18" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1204999392033631</v>
+        <v>0.1251250055497873</v>
       </c>
       <c r="M18" t="n">
-        <v>7.450761725562989</v>
+        <v>7.472375787334331</v>
       </c>
       <c r="N18" t="n">
-        <v>91.62390155556807</v>
+        <v>92.83980696694917</v>
       </c>
       <c r="O18" t="n">
-        <v>9.572037481934975</v>
+        <v>9.635341559433645</v>
       </c>
       <c r="P18" t="n">
-        <v>342.8361571550234</v>
+        <v>342.7145736636518</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35052,28 +35238,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6112831488206055</v>
+        <v>0.6038551273720985</v>
       </c>
       <c r="J19" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1448125147660375</v>
+        <v>0.1432747599086054</v>
       </c>
       <c r="M19" t="n">
-        <v>8.81383599387166</v>
+        <v>8.789497419538106</v>
       </c>
       <c r="N19" t="n">
-        <v>118.8653206741912</v>
+        <v>118.254037728507</v>
       </c>
       <c r="O19" t="n">
-        <v>10.90253735027728</v>
+        <v>10.87446723883552</v>
       </c>
       <c r="P19" t="n">
-        <v>347.9632426250699</v>
+        <v>348.0391796356293</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35111,7 +35297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T518"/>
+  <dimension ref="A1:T521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75023,6 +75209,228 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-41.329506310525645,174.79623391409646</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>-41.329627024066916,174.7952583925236</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>-41.33008299264724,174.79457051388638</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>-41.330462288269615,174.79380457196476</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>-41.330967255578415,174.79318370464512</t>
+        </is>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>-41.331521145301544,174.7926421716319</t>
+        </is>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>-41.33206444546956,174.79210024232376</t>
+        </is>
+      </c>
+      <c r="S519" t="inlineStr">
+        <is>
+          <t>-41.33259016744548,174.79154201327515</t>
+        </is>
+      </c>
+      <c r="T519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>-41.329256383379814,174.79602823077892</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>-41.32963876152599,174.79526912185148</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>-41.330058622210025,174.79454539277813</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>-41.33052486576681,174.79387654166464</t>
+        </is>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>-41.331027185052214,174.79325988376237</t>
+        </is>
+      </c>
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>-41.331570368036964,174.792710425394</t>
+        </is>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>-41.33224729995695,174.79237240919605</t>
+        </is>
+      </c>
+      <c r="S520" t="inlineStr">
+        <is>
+          <t>-41.33260595543966,174.79156670236415</t>
+        </is>
+      </c>
+      <c r="T520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-41.32881461012952,174.8039039813625</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-41.32861167494939,174.80305067228602</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-41.328485221920744,174.80216852371936</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-41.32832624942709,174.80129110360642</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-41.32828576175144,174.80038484243298</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-41.32833425677396,174.79947141462367</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-41.328463739696,174.79856993755388</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>-41.32875841238395,174.79774344584365</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>-41.32897495447603,174.79686570512794</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>-41.32934729385262,174.7961030474289</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>-41.32969721575078,174.79532255551163</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>-41.330106001829066,174.79459423183212</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>-41.33054933879439,174.79390468788066</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>-41.33106390131081,174.79330655559446</t>
+        </is>
+      </c>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>-41.33156069780651,174.79269701634158</t>
+        </is>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>-41.33208765434552,174.79213478706822</t>
+        </is>
+      </c>
+      <c r="S521" t="inlineStr">
+        <is>
+          <t>-41.33261096565067,174.7915745372805</t>
+        </is>
+      </c>
+      <c r="T521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T521"/>
+  <dimension ref="A1:T523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28292,7 +28292,9 @@
           <t>2025-05-22 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="n">
+        <v>344.05</v>
+      </c>
       <c r="C521" t="n">
         <v>347.1</v>
       </c>
@@ -28345,6 +28347,118 @@
         <v>359.64</v>
       </c>
       <c r="T521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>329.55</v>
+      </c>
+      <c r="L522" t="n">
+        <v>330.43</v>
+      </c>
+      <c r="M522" t="n">
+        <v>329.6328571428572</v>
+      </c>
+      <c r="N522" t="n">
+        <v>325.8928571428572</v>
+      </c>
+      <c r="O522" t="n">
+        <v>325.7033333333333</v>
+      </c>
+      <c r="P522" t="n">
+        <v>337.2733333333333</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>340.5433333333333</v>
+      </c>
+      <c r="R522" t="n">
+        <v>347.4033333333333</v>
+      </c>
+      <c r="S522" t="n">
+        <v>354.91</v>
+      </c>
+      <c r="T522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>323.8</v>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="n">
+        <v>311.76</v>
+      </c>
+      <c r="E523" t="n">
+        <v>321.4444444444445</v>
+      </c>
+      <c r="F523" t="n">
+        <v>321.7944444444445</v>
+      </c>
+      <c r="G523" t="n">
+        <v>320.7144444444444</v>
+      </c>
+      <c r="H523" t="n">
+        <v>318.7145454545454</v>
+      </c>
+      <c r="I523" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="J523" t="n">
+        <v>309.27</v>
+      </c>
+      <c r="K523" t="n">
+        <v>312.1</v>
+      </c>
+      <c r="L523" t="n">
+        <v>310.35</v>
+      </c>
+      <c r="M523" t="n">
+        <v>310.6671428571428</v>
+      </c>
+      <c r="N523" t="n">
+        <v>310.1671428571428</v>
+      </c>
+      <c r="O523" t="n">
+        <v>313.7866666666667</v>
+      </c>
+      <c r="P523" t="n">
+        <v>320.6966666666667</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>326.0066666666667</v>
+      </c>
+      <c r="R523" t="n">
+        <v>327.1766666666667</v>
+      </c>
+      <c r="S523" t="n">
+        <v>334.64</v>
+      </c>
+      <c r="T523" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28361,7 +28475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33739,6 +33853,26 @@
       </c>
       <c r="B537" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -33912,28 +34046,28 @@
         <v>0.0493</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5407296636438673</v>
+        <v>-0.6206198906576363</v>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03614190705835663</v>
+        <v>0.0467041804234184</v>
       </c>
       <c r="M2" t="n">
-        <v>17.38191331635167</v>
+        <v>17.57508036307766</v>
       </c>
       <c r="N2" t="n">
-        <v>416.0079389414563</v>
+        <v>426.7579799440825</v>
       </c>
       <c r="O2" t="n">
-        <v>20.39627267275706</v>
+        <v>20.65812140404065</v>
       </c>
       <c r="P2" t="n">
-        <v>388.7567018305552</v>
+        <v>389.4566600069171</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33993,7 +34127,7 @@
         <v>-0.5219782459104826</v>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
         <v>252</v>
@@ -34068,28 +34202,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2012051180173544</v>
+        <v>-0.2297114780225002</v>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02919007868220536</v>
+        <v>0.03623286551209803</v>
       </c>
       <c r="M4" t="n">
-        <v>6.592228158605582</v>
+        <v>6.709483599590716</v>
       </c>
       <c r="N4" t="n">
-        <v>76.64201300703955</v>
+        <v>80.47761298653775</v>
       </c>
       <c r="O4" t="n">
-        <v>8.754542421339881</v>
+        <v>8.970931556228582</v>
       </c>
       <c r="P4" t="n">
-        <v>349.6239439594031</v>
+        <v>349.8697828634662</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34146,28 +34280,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05201044165571954</v>
+        <v>-0.07764112295436711</v>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001642521673108188</v>
+        <v>0.003563163528411128</v>
       </c>
       <c r="M5" t="n">
-        <v>6.939598634733279</v>
+        <v>7.051105492171894</v>
       </c>
       <c r="N5" t="n">
-        <v>94.2788367548122</v>
+        <v>97.3472462932576</v>
       </c>
       <c r="O5" t="n">
-        <v>9.709728974323239</v>
+        <v>9.866470812466716</v>
       </c>
       <c r="P5" t="n">
-        <v>352.671632643233</v>
+        <v>352.8923507563162</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34224,28 +34358,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02861593866908446</v>
+        <v>-0.05288516347533403</v>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005824540710346326</v>
+        <v>0.001936345416727714</v>
       </c>
       <c r="M6" t="n">
-        <v>6.572934563570469</v>
+        <v>6.671377178754599</v>
       </c>
       <c r="N6" t="n">
-        <v>79.12515467432787</v>
+        <v>81.77680873406376</v>
       </c>
       <c r="O6" t="n">
-        <v>8.89523213155946</v>
+        <v>9.043053064870501</v>
       </c>
       <c r="P6" t="n">
-        <v>350.2740374268392</v>
+        <v>350.4845819892028</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34302,28 +34436,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1301505097881439</v>
+        <v>-0.1499685218571958</v>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K7" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0126580748433518</v>
+        <v>0.01649924071284758</v>
       </c>
       <c r="M7" t="n">
-        <v>6.427347809844693</v>
+        <v>6.496149806162383</v>
       </c>
       <c r="N7" t="n">
-        <v>74.93573898514649</v>
+        <v>76.60270024318785</v>
       </c>
       <c r="O7" t="n">
-        <v>8.656543131362916</v>
+        <v>8.75229685529392</v>
       </c>
       <c r="P7" t="n">
-        <v>346.6109685771896</v>
+        <v>346.7808393374287</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34380,28 +34514,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09025500881267827</v>
+        <v>-0.1090154331642849</v>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006459967223317875</v>
+        <v>0.009268338072005888</v>
       </c>
       <c r="M8" t="n">
-        <v>6.250854314812226</v>
+        <v>6.324845298439849</v>
       </c>
       <c r="N8" t="n">
-        <v>70.45745859712315</v>
+        <v>71.96244618296811</v>
       </c>
       <c r="O8" t="n">
-        <v>8.393894125918145</v>
+        <v>8.483068205724159</v>
       </c>
       <c r="P8" t="n">
-        <v>342.5918005478158</v>
+        <v>342.7550142784548</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34458,28 +34592,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04420715972463391</v>
+        <v>-0.06123697487641127</v>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001838619393696117</v>
+        <v>0.003473473189940068</v>
       </c>
       <c r="M9" t="n">
-        <v>6.065774289157537</v>
+        <v>6.112584884351342</v>
       </c>
       <c r="N9" t="n">
-        <v>59.28862182547172</v>
+        <v>60.54669422734784</v>
       </c>
       <c r="O9" t="n">
-        <v>7.699910507627457</v>
+        <v>7.781175632727219</v>
       </c>
       <c r="P9" t="n">
-        <v>337.0128729426174</v>
+        <v>337.1628627020187</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34536,28 +34670,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03040836457313755</v>
+        <v>-0.05408920351499256</v>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007471448381225487</v>
+        <v>0.00228403245728992</v>
       </c>
       <c r="M10" t="n">
-        <v>6.287010287155015</v>
+        <v>6.378786438668108</v>
       </c>
       <c r="N10" t="n">
-        <v>68.66976539520738</v>
+        <v>71.43463375922448</v>
       </c>
       <c r="O10" t="n">
-        <v>8.286722234708208</v>
+        <v>8.451901191993697</v>
       </c>
       <c r="P10" t="n">
-        <v>338.8084689086191</v>
+        <v>339.019666319916</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34614,28 +34748,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1209120856962934</v>
+        <v>-0.1326442153858022</v>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K11" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01392509924523322</v>
+        <v>0.01656414727423494</v>
       </c>
       <c r="M11" t="n">
-        <v>5.896719966305407</v>
+        <v>5.926156482298627</v>
       </c>
       <c r="N11" t="n">
-        <v>55.38947631708482</v>
+        <v>56.19565332324375</v>
       </c>
       <c r="O11" t="n">
-        <v>7.442410652274223</v>
+        <v>7.496376012663969</v>
       </c>
       <c r="P11" t="n">
-        <v>335.9121268015728</v>
+        <v>336.0315475630707</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34692,28 +34826,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1118496509820942</v>
+        <v>-0.1210806996944702</v>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K12" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01076470706932953</v>
+        <v>0.01252177973104052</v>
       </c>
       <c r="M12" t="n">
-        <v>6.321464247835497</v>
+        <v>6.336961783610227</v>
       </c>
       <c r="N12" t="n">
-        <v>62.1334421628558</v>
+        <v>62.79257327868429</v>
       </c>
       <c r="O12" t="n">
-        <v>7.882476905316995</v>
+        <v>7.924176504765923</v>
       </c>
       <c r="P12" t="n">
-        <v>333.4883176551803</v>
+        <v>333.582060099571</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34770,28 +34904,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1585343473446165</v>
+        <v>-0.1673874777663288</v>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K13" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01908251300302111</v>
+        <v>0.0211637361204603</v>
       </c>
       <c r="M13" t="n">
-        <v>6.509935798732702</v>
+        <v>6.526739886723933</v>
       </c>
       <c r="N13" t="n">
-        <v>69.8877355501435</v>
+        <v>70.43284654459174</v>
       </c>
       <c r="O13" t="n">
-        <v>8.359888489097418</v>
+        <v>8.392427929067471</v>
       </c>
       <c r="P13" t="n">
-        <v>334.2428217351796</v>
+        <v>334.3329844128779</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34848,28 +34982,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1120425735005472</v>
+        <v>-0.1245144447090251</v>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K14" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008967358515010848</v>
+        <v>0.01098178642222192</v>
       </c>
       <c r="M14" t="n">
-        <v>6.660840510693378</v>
+        <v>6.698393449060178</v>
       </c>
       <c r="N14" t="n">
-        <v>75.10962961140173</v>
+        <v>75.94841406131627</v>
       </c>
       <c r="O14" t="n">
-        <v>8.666581195108122</v>
+        <v>8.714838728359595</v>
       </c>
       <c r="P14" t="n">
-        <v>334.9681389355966</v>
+        <v>335.0952687868261</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34926,28 +35060,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0356820059621539</v>
+        <v>0.02231798597795863</v>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K15" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007191693591889203</v>
+        <v>0.0002804830158333882</v>
       </c>
       <c r="M15" t="n">
-        <v>7.173493851151181</v>
+        <v>7.213091155273792</v>
       </c>
       <c r="N15" t="n">
-        <v>95.44807590823279</v>
+        <v>96.21881208204189</v>
       </c>
       <c r="O15" t="n">
-        <v>9.769753113985676</v>
+        <v>9.809118822913804</v>
       </c>
       <c r="P15" t="n">
-        <v>333.9620276265987</v>
+        <v>334.0992996415399</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35004,28 +35138,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1565541423755981</v>
+        <v>0.145291705300432</v>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K16" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01523373612363355</v>
+        <v>0.0131079746013123</v>
       </c>
       <c r="M16" t="n">
-        <v>7.23564000548421</v>
+        <v>7.261312184186282</v>
       </c>
       <c r="N16" t="n">
-        <v>85.72085365696867</v>
+        <v>86.38327738815138</v>
       </c>
       <c r="O16" t="n">
-        <v>9.258555700376203</v>
+        <v>9.29426045407333</v>
       </c>
       <c r="P16" t="n">
-        <v>337.6415750098819</v>
+        <v>337.7569706129207</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35082,28 +35216,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3097469456716174</v>
+        <v>0.2978474969145516</v>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K17" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05886364234237307</v>
+        <v>0.05446726000241886</v>
       </c>
       <c r="M17" t="n">
-        <v>7.078882422047633</v>
+        <v>7.108197615122013</v>
       </c>
       <c r="N17" t="n">
-        <v>83.74386328779389</v>
+        <v>84.44577821545383</v>
       </c>
       <c r="O17" t="n">
-        <v>9.151167318314855</v>
+        <v>9.189438405879535</v>
       </c>
       <c r="P17" t="n">
-        <v>338.7964271770169</v>
+        <v>338.9181308336094</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35160,28 +35294,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4918832091165215</v>
+        <v>0.4758362869730922</v>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K18" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1251250055497873</v>
+        <v>0.1167585376857236</v>
       </c>
       <c r="M18" t="n">
-        <v>7.472375787334331</v>
+        <v>7.523211639204406</v>
       </c>
       <c r="N18" t="n">
-        <v>92.83980696694917</v>
+        <v>94.41788570761177</v>
       </c>
       <c r="O18" t="n">
-        <v>9.635341559433645</v>
+        <v>9.716886626261097</v>
       </c>
       <c r="P18" t="n">
-        <v>342.7145736636518</v>
+        <v>342.8779278087627</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35238,28 +35372,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6038551273720985</v>
+        <v>0.5871456761463585</v>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K19" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1432747599086054</v>
+        <v>0.1354932872113016</v>
       </c>
       <c r="M19" t="n">
-        <v>8.789497419538106</v>
+        <v>8.833158161544681</v>
       </c>
       <c r="N19" t="n">
-        <v>118.254037728507</v>
+        <v>119.8294035645629</v>
       </c>
       <c r="O19" t="n">
-        <v>10.87446723883552</v>
+        <v>10.9466617543689</v>
       </c>
       <c r="P19" t="n">
-        <v>348.0391796356293</v>
+        <v>348.2106465015707</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35297,7 +35431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T521"/>
+  <dimension ref="A1:T523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75339,7 +75473,11 @@
           <t>2025-05-22 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-41.328876866646034,174.80479735051014</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr">
         <is>
           <t>-41.32881461012952,174.8039039813625</t>
@@ -75426,6 +75564,170 @@
         </is>
       </c>
       <c r="T521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-41.328980308839505,174.79686964697189</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-41.329322423568726,174.79608257989008</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-41.32968370920435,174.7953102090158</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>-41.3300488191771,174.79453528779408</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>-41.33047975281703,174.79382465773153</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>-41.33100527232861,174.79323202946495</t>
+        </is>
+      </c>
+      <c r="Q522" t="inlineStr">
+        <is>
+          <t>-41.33150394223591,174.79261831736912</t>
+        </is>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>-41.33203278790595,174.79205312238045</t>
+        </is>
+      </c>
+      <c r="S522" t="inlineStr">
+        <is>
+          <t>-41.33258340948317,174.79153144525546</t>
+        </is>
+      </c>
+      <c r="T522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-41.328695820624745,174.80482628669338</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-41.32836410333703,174.80313287077314</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-41.32824588268744,174.80224350330658</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-41.32811789168908,174.80131701135826</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-41.32808795705362,174.80036835784264</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-41.32815967856105,174.7994174135287</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-41.328345374838214,174.79851816624063</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>-41.32849925450422,174.79759732436705</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>-41.3288429063753,174.79676849250777</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>-41.329168763386264,174.79595612233857</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>-41.32954307154089,174.79518165082897</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>-41.32993699342354,174.7944200178915</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>-41.33039866738643,174.7937314024769</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>-41.33089748589892,174.79309501745112</t>
+        </is>
+      </c>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>-41.33141344447849,174.79249283091696</t>
+        </is>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>-41.331911590180574,174.79187272922627</t>
+        </is>
+      </c>
+      <c r="S523" t="inlineStr">
+        <is>
+          <t>-41.33246531975249,174.79134677857263</t>
+        </is>
+      </c>
+      <c r="T523" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T523"/>
+  <dimension ref="A1:T525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28409,7 +28409,9 @@
       <c r="B523" t="n">
         <v>323.8</v>
       </c>
-      <c r="C523" t="inlineStr"/>
+      <c r="C523" t="n">
+        <v>306.8866666666667</v>
+      </c>
       <c r="D523" t="n">
         <v>311.76</v>
       </c>
@@ -28459,6 +28461,120 @@
         <v>334.64</v>
       </c>
       <c r="T523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:52+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>334.82</v>
+      </c>
+      <c r="C524" t="n">
+        <v>318.4633333333333</v>
+      </c>
+      <c r="D524" t="n">
+        <v>328.12</v>
+      </c>
+      <c r="E524" t="n">
+        <v>332.2522222222222</v>
+      </c>
+      <c r="F524" t="n">
+        <v>332.1822222222222</v>
+      </c>
+      <c r="G524" t="n">
+        <v>327.7122222222222</v>
+      </c>
+      <c r="H524" t="n">
+        <v>325.1245454545455</v>
+      </c>
+      <c r="I524" t="n">
+        <v>322.24</v>
+      </c>
+      <c r="J524" t="n">
+        <v>319.37</v>
+      </c>
+      <c r="K524" t="n">
+        <v>318.65</v>
+      </c>
+      <c r="L524" t="n">
+        <v>313.71</v>
+      </c>
+      <c r="M524" t="n">
+        <v>314.8685714285714</v>
+      </c>
+      <c r="N524" t="n">
+        <v>315.0885714285715</v>
+      </c>
+      <c r="O524" t="n">
+        <v>321.3833333333333</v>
+      </c>
+      <c r="P524" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>335.9733333333333</v>
+      </c>
+      <c r="R524" t="n">
+        <v>344.7333333333333</v>
+      </c>
+      <c r="S524" t="n">
+        <v>350.56</v>
+      </c>
+      <c r="T524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>327.31</v>
+      </c>
+      <c r="L525" t="n">
+        <v>325.49</v>
+      </c>
+      <c r="M525" t="n">
+        <v>330.6514285714285</v>
+      </c>
+      <c r="N525" t="n">
+        <v>329.6714285714286</v>
+      </c>
+      <c r="O525" t="n">
+        <v>331.82</v>
+      </c>
+      <c r="P525" t="n">
+        <v>342.52</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="R525" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="S525" t="n">
+        <v>362.84</v>
+      </c>
+      <c r="T525" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28475,7 +28591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33873,6 +33989,26 @@
       </c>
       <c r="B539" t="n">
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -34046,28 +34182,28 @@
         <v>0.0493</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6206198906576363</v>
+        <v>-0.6578207256107029</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0467041804234184</v>
+        <v>0.05209194864250233</v>
       </c>
       <c r="M2" t="n">
-        <v>17.57508036307766</v>
+        <v>17.66681653759444</v>
       </c>
       <c r="N2" t="n">
-        <v>426.7579799440825</v>
+        <v>431.0269189450063</v>
       </c>
       <c r="O2" t="n">
-        <v>20.65812140404065</v>
+        <v>20.76118780188182</v>
       </c>
       <c r="P2" t="n">
-        <v>389.4566600069171</v>
+        <v>389.7830638914846</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34124,28 +34260,28 @@
         <v>0.0369</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5219782459104826</v>
+        <v>-0.5706546799739541</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1398453086271689</v>
+        <v>0.1571415160624265</v>
       </c>
       <c r="M3" t="n">
-        <v>7.45314883256767</v>
+        <v>7.631152924546435</v>
       </c>
       <c r="N3" t="n">
-        <v>94.64349875300692</v>
+        <v>100.10417824142</v>
       </c>
       <c r="O3" t="n">
-        <v>9.728489027233721</v>
+        <v>10.00520755613895</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0631645966078</v>
+        <v>354.4837132682542</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34202,28 +34338,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2297114780225002</v>
+        <v>-0.243325917015954</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K4" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03623286551209803</v>
+        <v>0.04043932366002234</v>
       </c>
       <c r="M4" t="n">
-        <v>6.709483599590716</v>
+        <v>6.752565999057795</v>
       </c>
       <c r="N4" t="n">
-        <v>80.47761298653775</v>
+        <v>81.12741376684779</v>
       </c>
       <c r="O4" t="n">
-        <v>8.970931556228582</v>
+        <v>9.00707576113623</v>
       </c>
       <c r="P4" t="n">
-        <v>349.8697828634662</v>
+        <v>349.98729946732</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34280,28 +34416,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07764112295436711</v>
+        <v>-0.09341547485533744</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K5" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003563163528411128</v>
+        <v>0.005135452274422136</v>
       </c>
       <c r="M5" t="n">
-        <v>7.051105492171894</v>
+        <v>7.110976433133784</v>
       </c>
       <c r="N5" t="n">
-        <v>97.3472462932576</v>
+        <v>98.29948888643162</v>
       </c>
       <c r="O5" t="n">
-        <v>9.866470812466716</v>
+        <v>9.914609870611734</v>
       </c>
       <c r="P5" t="n">
-        <v>352.8923507563162</v>
+        <v>353.0283151668</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34358,28 +34494,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05288516347533403</v>
+        <v>-0.06750608307678645</v>
       </c>
       <c r="J6" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K6" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001936345416727714</v>
+        <v>0.003143779979477235</v>
       </c>
       <c r="M6" t="n">
-        <v>6.671377178754599</v>
+        <v>6.72100210329732</v>
       </c>
       <c r="N6" t="n">
-        <v>81.77680873406376</v>
+        <v>82.55790320328641</v>
       </c>
       <c r="O6" t="n">
-        <v>9.043053064870501</v>
+        <v>9.086137969637399</v>
       </c>
       <c r="P6" t="n">
-        <v>350.4845819892028</v>
+        <v>350.611536257954</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34436,28 +34572,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1499685218571958</v>
+        <v>-0.1631499316917058</v>
       </c>
       <c r="J7" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01649924071284758</v>
+        <v>0.01946118912149108</v>
       </c>
       <c r="M7" t="n">
-        <v>6.496149806162383</v>
+        <v>6.53669344112512</v>
       </c>
       <c r="N7" t="n">
-        <v>76.60270024318785</v>
+        <v>77.19118564602667</v>
       </c>
       <c r="O7" t="n">
-        <v>8.75229685529392</v>
+        <v>8.785851446844903</v>
       </c>
       <c r="P7" t="n">
-        <v>346.7808393374287</v>
+        <v>346.8939245173536</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34514,28 +34650,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1090154331642849</v>
+        <v>-0.121743805858662</v>
       </c>
       <c r="J8" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009268338072005888</v>
+        <v>0.0115252237918444</v>
       </c>
       <c r="M8" t="n">
-        <v>6.324845298439849</v>
+        <v>6.367927057246844</v>
       </c>
       <c r="N8" t="n">
-        <v>71.96244618296811</v>
+        <v>72.52118616930737</v>
       </c>
       <c r="O8" t="n">
-        <v>8.483068205724159</v>
+        <v>8.515937186787333</v>
       </c>
       <c r="P8" t="n">
-        <v>342.7550142784548</v>
+        <v>342.8658478909249</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34592,28 +34728,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06123697487641127</v>
+        <v>-0.07257995877251967</v>
       </c>
       <c r="J9" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003473473189940068</v>
+        <v>0.004870812392416823</v>
       </c>
       <c r="M9" t="n">
-        <v>6.112584884351342</v>
+        <v>6.136125219059937</v>
       </c>
       <c r="N9" t="n">
-        <v>60.54669422734784</v>
+        <v>60.98822411706407</v>
       </c>
       <c r="O9" t="n">
-        <v>7.781175632727219</v>
+        <v>7.809495765865045</v>
       </c>
       <c r="P9" t="n">
-        <v>337.1628627020187</v>
+        <v>337.2628543480099</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34670,28 +34806,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05408920351499256</v>
+        <v>-0.06893941103450835</v>
       </c>
       <c r="J10" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K10" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00228403245728992</v>
+        <v>0.003680410633171816</v>
       </c>
       <c r="M10" t="n">
-        <v>6.378786438668108</v>
+        <v>6.43290231490316</v>
       </c>
       <c r="N10" t="n">
-        <v>71.43463375922448</v>
+        <v>72.3831792109727</v>
       </c>
       <c r="O10" t="n">
-        <v>8.451901191993697</v>
+        <v>8.5078304644</v>
       </c>
       <c r="P10" t="n">
-        <v>339.019666319916</v>
+        <v>339.1522252681104</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34748,28 +34884,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1326442153858022</v>
+        <v>-0.141957748125664</v>
       </c>
       <c r="J11" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K11" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01656414727423494</v>
+        <v>0.01893771127781396</v>
       </c>
       <c r="M11" t="n">
-        <v>5.926156482298627</v>
+        <v>5.944134811438023</v>
       </c>
       <c r="N11" t="n">
-        <v>56.19565332324375</v>
+        <v>56.46214974368693</v>
       </c>
       <c r="O11" t="n">
-        <v>7.496376012663969</v>
+        <v>7.514130005774915</v>
       </c>
       <c r="P11" t="n">
-        <v>336.0315475630707</v>
+        <v>336.1264639624752</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34826,28 +34962,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1210806996944702</v>
+        <v>-0.1307746724806889</v>
       </c>
       <c r="J12" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K12" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01252177973104052</v>
+        <v>0.01455296489163393</v>
       </c>
       <c r="M12" t="n">
-        <v>6.336961783610227</v>
+        <v>6.355453988300198</v>
       </c>
       <c r="N12" t="n">
-        <v>62.79257327868429</v>
+        <v>63.20078567781331</v>
       </c>
       <c r="O12" t="n">
-        <v>7.924176504765923</v>
+        <v>7.94989218026341</v>
       </c>
       <c r="P12" t="n">
-        <v>333.582060099571</v>
+        <v>333.6806110662803</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34904,28 +35040,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1673874777663288</v>
+        <v>-0.1737270216034263</v>
       </c>
       <c r="J13" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K13" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0211637361204603</v>
+        <v>0.02280034720488777</v>
       </c>
       <c r="M13" t="n">
-        <v>6.526739886723933</v>
+        <v>6.533579069547476</v>
       </c>
       <c r="N13" t="n">
-        <v>70.43284654459174</v>
+        <v>70.63232264418134</v>
       </c>
       <c r="O13" t="n">
-        <v>8.392427929067471</v>
+        <v>8.404303816746593</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3329844128779</v>
+        <v>334.3976180850019</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34982,28 +35118,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1245144447090251</v>
+        <v>-0.1328517072679845</v>
       </c>
       <c r="J14" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K14" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01098178642222192</v>
+        <v>0.0124901853502809</v>
       </c>
       <c r="M14" t="n">
-        <v>6.698393449060178</v>
+        <v>6.713573985361582</v>
       </c>
       <c r="N14" t="n">
-        <v>75.94841406131627</v>
+        <v>76.25311574809267</v>
       </c>
       <c r="O14" t="n">
-        <v>8.714838728359595</v>
+        <v>8.732303003680796</v>
       </c>
       <c r="P14" t="n">
-        <v>335.0952687868261</v>
+        <v>335.1803655100497</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35060,28 +35196,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02231798597795863</v>
+        <v>0.01526690298116766</v>
       </c>
       <c r="J15" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K15" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002804830158333882</v>
+        <v>0.0001318831112201435</v>
       </c>
       <c r="M15" t="n">
-        <v>7.213091155273792</v>
+        <v>7.218878400272289</v>
       </c>
       <c r="N15" t="n">
-        <v>96.21881208204189</v>
+        <v>96.19724083154989</v>
       </c>
       <c r="O15" t="n">
-        <v>9.809118822913804</v>
+        <v>9.808019210398697</v>
       </c>
       <c r="P15" t="n">
-        <v>334.0992996415399</v>
+        <v>334.1718306964367</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35138,28 +35274,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.145291705300432</v>
+        <v>0.142145274557719</v>
       </c>
       <c r="J16" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K16" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0131079746013123</v>
+        <v>0.01264435278976606</v>
       </c>
       <c r="M16" t="n">
-        <v>7.261312184186282</v>
+        <v>7.248981843106664</v>
       </c>
       <c r="N16" t="n">
-        <v>86.38327738815138</v>
+        <v>86.13927186357752</v>
       </c>
       <c r="O16" t="n">
-        <v>9.29426045407333</v>
+        <v>9.281124493485557</v>
       </c>
       <c r="P16" t="n">
-        <v>337.7569706129207</v>
+        <v>337.7892495135655</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35216,28 +35352,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2978474969145516</v>
+        <v>0.2936868081732679</v>
       </c>
       <c r="J17" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K17" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05446726000241886</v>
+        <v>0.05333070387440142</v>
       </c>
       <c r="M17" t="n">
-        <v>7.108197615122013</v>
+        <v>7.102583247433273</v>
       </c>
       <c r="N17" t="n">
-        <v>84.44577821545383</v>
+        <v>84.31744783295609</v>
       </c>
       <c r="O17" t="n">
-        <v>9.189438405879535</v>
+        <v>9.182453257869385</v>
       </c>
       <c r="P17" t="n">
-        <v>338.9181308336094</v>
+        <v>338.9607423714908</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35294,28 +35430,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4758362869730922</v>
+        <v>0.4706943741984351</v>
       </c>
       <c r="J18" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K18" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1167585376857236</v>
+        <v>0.1151814220793217</v>
       </c>
       <c r="M18" t="n">
-        <v>7.523211639204406</v>
+        <v>7.515609793757642</v>
       </c>
       <c r="N18" t="n">
-        <v>94.41788570761177</v>
+        <v>94.23240303005855</v>
       </c>
       <c r="O18" t="n">
-        <v>9.716886626261097</v>
+        <v>9.707337587106908</v>
       </c>
       <c r="P18" t="n">
-        <v>342.8779278087627</v>
+        <v>342.9303431283083</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35372,28 +35508,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5871456761463585</v>
+        <v>0.5812773230076688</v>
       </c>
       <c r="J19" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K19" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1354932872113016</v>
+        <v>0.133835610042311</v>
       </c>
       <c r="M19" t="n">
-        <v>8.833158161544681</v>
+        <v>8.822020785054418</v>
       </c>
       <c r="N19" t="n">
-        <v>119.8294035645629</v>
+        <v>119.6524298265075</v>
       </c>
       <c r="O19" t="n">
-        <v>10.9466617543689</v>
+        <v>10.93857531063838</v>
       </c>
       <c r="P19" t="n">
-        <v>348.2106465015707</v>
+        <v>348.2709472870771</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35431,7 +35567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T523"/>
+  <dimension ref="A1:T525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75646,7 +75782,11 @@
           <t>-41.328695820624745,174.80482628669338</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr"/>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-41.32845709505973,174.80398042550047</t>
+        </is>
+      </c>
       <c r="D523" t="inlineStr">
         <is>
           <t>-41.32836410333703,174.80313287077314</t>
@@ -75728,6 +75868,174 @@
         </is>
       </c>
       <c r="T523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:52+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-41.328794345423674,174.80481053971158</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-41.32856001696834,174.8039584187414</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-41.328507020477915,174.80308541963677</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-41.32834060369245,174.80221382941457</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-41.32821102754935,174.80130543061685</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-41.328150849521826,174.80037359914363</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-41.328215894073026,174.79943480225742</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-41.32839788641893,174.79854113412586</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>-41.328582960783024,174.7976445204927</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>-41.328894481524095,174.79680646161123</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>-41.32919447545946,174.79597728252435</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>-41.329574226674154,174.79521012996332</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>-41.32997198977799,174.7944560920507</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>-41.330450357940265,174.79379085104455</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>-41.33097965328953,174.79319946393022</t>
+        </is>
+      </c>
+      <c r="Q524" t="inlineStr">
+        <is>
+          <t>-41.3314754917986,174.79257886722257</t>
+        </is>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>-41.33201678934396,174.79202930973238</t>
+        </is>
+      </c>
+      <c r="S524" t="inlineStr">
+        <is>
+          <t>-41.332558067115386,174.79149181520094</t>
+        </is>
+      </c>
+      <c r="T524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>-41.328962670935695,174.79685666207666</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>-41.32928462072944,174.79605146926124</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>-41.329691262277166,174.79531711336932</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>-41.3300756886277,174.794562984882</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>-41.33052137285957,174.79387252450485</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>-41.33103938768349,174.79327539511516</t>
+        </is>
+      </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>-41.331548558137165,174.7926801830947</t>
+        </is>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>-41.332071655801386,174.7921109743803</t>
+        </is>
+      </c>
+      <c r="S525" t="inlineStr">
+        <is>
+          <t>-41.332629608291356,174.79160369046807</t>
+        </is>
+      </c>
+      <c r="T525" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T525"/>
+  <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28580,6 +28580,52 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>336.46</v>
+      </c>
+      <c r="M526" t="n">
+        <v>333.15</v>
+      </c>
+      <c r="N526" t="n">
+        <v>336.78</v>
+      </c>
+      <c r="O526" t="n">
+        <v>337.0933333333333</v>
+      </c>
+      <c r="P526" t="n">
+        <v>345.0533333333333</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>344.4933333333333</v>
+      </c>
+      <c r="R526" t="n">
+        <v>352.3433333333333</v>
+      </c>
+      <c r="S526" t="n">
+        <v>358.56</v>
+      </c>
+      <c r="T526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28591,7 +28637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34009,6 +34055,16 @@
       </c>
       <c r="B541" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -34185,7 +34241,7 @@
         <v>-0.6578207256107029</v>
       </c>
       <c r="J2" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
         <v>243</v>
@@ -34263,7 +34319,7 @@
         <v>-0.5706546799739541</v>
       </c>
       <c r="J3" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
         <v>254</v>
@@ -34341,7 +34397,7 @@
         <v>-0.243325917015954</v>
       </c>
       <c r="J4" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
         <v>255</v>
@@ -34419,7 +34475,7 @@
         <v>-0.09341547485533744</v>
       </c>
       <c r="J5" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K5" t="n">
         <v>257</v>
@@ -34497,7 +34553,7 @@
         <v>-0.06750608307678645</v>
       </c>
       <c r="J6" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K6" t="n">
         <v>257</v>
@@ -34575,7 +34631,7 @@
         <v>-0.1631499316917058</v>
       </c>
       <c r="J7" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K7" t="n">
         <v>256</v>
@@ -34653,7 +34709,7 @@
         <v>-0.121743805858662</v>
       </c>
       <c r="J8" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K8" t="n">
         <v>258</v>
@@ -34731,7 +34787,7 @@
         <v>-0.07257995877251967</v>
       </c>
       <c r="J9" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K9" t="n">
         <v>260</v>
@@ -34809,7 +34865,7 @@
         <v>-0.06893941103450835</v>
       </c>
       <c r="J10" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K10" t="n">
         <v>271</v>
@@ -34887,7 +34943,7 @@
         <v>-0.141957748125664</v>
       </c>
       <c r="J11" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K11" t="n">
         <v>403</v>
@@ -34962,28 +35018,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1307746724806889</v>
+        <v>-0.1280065328838879</v>
       </c>
       <c r="J12" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K12" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01455296489163393</v>
+        <v>0.01399847224708506</v>
       </c>
       <c r="M12" t="n">
-        <v>6.355453988300198</v>
+        <v>6.35544760255905</v>
       </c>
       <c r="N12" t="n">
-        <v>63.20078567781331</v>
+        <v>63.1421717868733</v>
       </c>
       <c r="O12" t="n">
-        <v>7.94989218026341</v>
+        <v>7.946204866908057</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6806110662803</v>
+        <v>333.652322125115</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35040,28 +35096,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1737270216034263</v>
+        <v>-0.1722929988651953</v>
       </c>
       <c r="J13" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K13" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02280034720488777</v>
+        <v>0.02252844657788944</v>
       </c>
       <c r="M13" t="n">
-        <v>6.533579069547476</v>
+        <v>6.525936010719005</v>
       </c>
       <c r="N13" t="n">
-        <v>70.63232264418134</v>
+        <v>70.49523551802247</v>
       </c>
       <c r="O13" t="n">
-        <v>8.404303816746593</v>
+        <v>8.39614408630667</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3976180850019</v>
+        <v>334.3829198622932</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35118,28 +35174,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1328517072679845</v>
+        <v>-0.1306263695173627</v>
       </c>
       <c r="J14" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K14" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0124901853502809</v>
+        <v>0.01212668038189146</v>
       </c>
       <c r="M14" t="n">
-        <v>6.713573985361582</v>
+        <v>6.709063234561838</v>
       </c>
       <c r="N14" t="n">
-        <v>76.25311574809267</v>
+        <v>76.13605756766411</v>
       </c>
       <c r="O14" t="n">
-        <v>8.732303003680796</v>
+        <v>8.725597834398748</v>
       </c>
       <c r="P14" t="n">
-        <v>335.1803655100497</v>
+        <v>335.1575307522879</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35196,28 +35252,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01526690298116766</v>
+        <v>0.01637333179892651</v>
       </c>
       <c r="J15" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K15" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001318831112201435</v>
+        <v>0.0001523597894751427</v>
       </c>
       <c r="M15" t="n">
-        <v>7.218878400272289</v>
+        <v>7.207717311560414</v>
       </c>
       <c r="N15" t="n">
-        <v>96.19724083154989</v>
+        <v>95.99017699373782</v>
       </c>
       <c r="O15" t="n">
-        <v>9.808019210398697</v>
+        <v>9.797457680119768</v>
       </c>
       <c r="P15" t="n">
-        <v>334.1718306964367</v>
+        <v>334.1603880489308</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35274,28 +35330,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.142145274557719</v>
+        <v>0.1437167353156598</v>
       </c>
       <c r="J16" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K16" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01264435278976606</v>
+        <v>0.01297624095086325</v>
       </c>
       <c r="M16" t="n">
-        <v>7.248981843106664</v>
+        <v>7.240392516406327</v>
       </c>
       <c r="N16" t="n">
-        <v>86.13927186357752</v>
+        <v>85.96920069169954</v>
       </c>
       <c r="O16" t="n">
-        <v>9.281124493485557</v>
+        <v>9.27195775937852</v>
       </c>
       <c r="P16" t="n">
-        <v>337.7892495135655</v>
+        <v>337.7730403848824</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35352,28 +35408,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2936868081732679</v>
+        <v>0.2927712060007897</v>
       </c>
       <c r="J17" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K17" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05333070387440142</v>
+        <v>0.0532384562679572</v>
       </c>
       <c r="M17" t="n">
-        <v>7.102583247433273</v>
+        <v>7.090965934829967</v>
       </c>
       <c r="N17" t="n">
-        <v>84.31744783295609</v>
+        <v>84.13107832807934</v>
       </c>
       <c r="O17" t="n">
-        <v>9.182453257869385</v>
+        <v>9.172299511468175</v>
       </c>
       <c r="P17" t="n">
-        <v>338.9607423714908</v>
+        <v>338.9701715722111</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35430,28 +35486,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4706943741984351</v>
+        <v>0.4694585255912648</v>
       </c>
       <c r="J18" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K18" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1151814220793217</v>
+        <v>0.1150923630521976</v>
       </c>
       <c r="M18" t="n">
-        <v>7.515609793757642</v>
+        <v>7.504562157534973</v>
       </c>
       <c r="N18" t="n">
-        <v>94.23240303005855</v>
+        <v>94.02966151850808</v>
       </c>
       <c r="O18" t="n">
-        <v>9.707337587106908</v>
+        <v>9.696889270199391</v>
       </c>
       <c r="P18" t="n">
-        <v>342.9303431283083</v>
+        <v>342.9430107932087</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35508,28 +35564,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5812773230076688</v>
+        <v>0.5791625157110789</v>
       </c>
       <c r="J19" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K19" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L19" t="n">
-        <v>0.133835610042311</v>
+        <v>0.1334684792955609</v>
       </c>
       <c r="M19" t="n">
-        <v>8.822020785054418</v>
+        <v>8.812177786412599</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6524298265075</v>
+        <v>119.4270931619352</v>
       </c>
       <c r="O19" t="n">
-        <v>10.93857531063838</v>
+        <v>10.92827036460643</v>
       </c>
       <c r="P19" t="n">
-        <v>348.2709472870771</v>
+        <v>348.2927972330247</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35567,7 +35623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T525"/>
+  <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76041,6 +76097,68 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>-41.32936856750762,174.79612055505928</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>-41.329709790079356,174.7953340498618</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>-41.33012623771438,174.79461509107244</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>-41.33055725453574,174.79391379171224</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>-41.33105586014848,174.79329633407303</t>
+        </is>
+      </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>-41.33152853286492,174.79265241544462</t>
+        </is>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>-41.332062388227875,174.79209718026928</t>
+        </is>
+      </c>
+      <c r="S526" t="inlineStr">
+        <is>
+          <t>-41.33260467375769,174.79156469808342</t>
+        </is>
+      </c>
+      <c r="T526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T526"/>
+  <dimension ref="A1:T527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28626,6 +28626,54 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>336.42</v>
+      </c>
+      <c r="L527" t="n">
+        <v>327.37</v>
+      </c>
+      <c r="M527" t="n">
+        <v>328.09</v>
+      </c>
+      <c r="N527" t="n">
+        <v>331.93</v>
+      </c>
+      <c r="O527" t="n">
+        <v>338.4566666666667</v>
+      </c>
+      <c r="P527" t="n">
+        <v>340.9766666666667</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>342.8666666666667</v>
+      </c>
+      <c r="R527" t="n">
+        <v>351.4866666666667</v>
+      </c>
+      <c r="S527" t="n">
+        <v>358.56</v>
+      </c>
+      <c r="T527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28637,7 +28685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34065,6 +34113,16 @@
       </c>
       <c r="B542" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -34241,7 +34299,7 @@
         <v>-0.6578207256107029</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K2" t="n">
         <v>243</v>
@@ -34319,7 +34377,7 @@
         <v>-0.5706546799739541</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K3" t="n">
         <v>254</v>
@@ -34397,7 +34455,7 @@
         <v>-0.243325917015954</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K4" t="n">
         <v>255</v>
@@ -34475,7 +34533,7 @@
         <v>-0.09341547485533744</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K5" t="n">
         <v>257</v>
@@ -34553,7 +34611,7 @@
         <v>-0.06750608307678645</v>
       </c>
       <c r="J6" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K6" t="n">
         <v>257</v>
@@ -34631,7 +34689,7 @@
         <v>-0.1631499316917058</v>
       </c>
       <c r="J7" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K7" t="n">
         <v>256</v>
@@ -34709,7 +34767,7 @@
         <v>-0.121743805858662</v>
       </c>
       <c r="J8" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K8" t="n">
         <v>258</v>
@@ -34787,7 +34845,7 @@
         <v>-0.07257995877251967</v>
       </c>
       <c r="J9" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K9" t="n">
         <v>260</v>
@@ -34865,7 +34923,7 @@
         <v>-0.06893941103450835</v>
       </c>
       <c r="J10" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K10" t="n">
         <v>271</v>
@@ -34940,28 +34998,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.141957748125664</v>
+        <v>-0.1400038425906159</v>
       </c>
       <c r="J11" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K11" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01893771127781396</v>
+        <v>0.01851249764613139</v>
       </c>
       <c r="M11" t="n">
-        <v>5.944134811438023</v>
+        <v>5.939195568258761</v>
       </c>
       <c r="N11" t="n">
-        <v>56.46214974368693</v>
+        <v>56.3615639306217</v>
       </c>
       <c r="O11" t="n">
-        <v>7.514130005774915</v>
+        <v>7.507433911172425</v>
       </c>
       <c r="P11" t="n">
-        <v>336.1264639624752</v>
+        <v>336.1063682329647</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35018,28 +35076,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1280065328838879</v>
+        <v>-0.1293282972693814</v>
       </c>
       <c r="J12" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01399847224708506</v>
+        <v>0.01434822890096654</v>
       </c>
       <c r="M12" t="n">
-        <v>6.35544760255905</v>
+        <v>6.347329033346683</v>
       </c>
       <c r="N12" t="n">
-        <v>63.1421717868733</v>
+        <v>63.01624735214045</v>
       </c>
       <c r="O12" t="n">
-        <v>7.946204866908057</v>
+        <v>7.938277354195963</v>
       </c>
       <c r="P12" t="n">
-        <v>333.652322125115</v>
+        <v>333.6658858707423</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35096,28 +35154,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1722929988651953</v>
+        <v>-0.1730855439828625</v>
       </c>
       <c r="J13" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K13" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02252844657788944</v>
+        <v>0.02283331743670669</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525936010719005</v>
+        <v>6.515245359162883</v>
       </c>
       <c r="N13" t="n">
-        <v>70.49523551802247</v>
+        <v>70.34200139928662</v>
       </c>
       <c r="O13" t="n">
-        <v>8.39614408630667</v>
+        <v>8.387013854721275</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3829198622932</v>
+        <v>334.3910771696127</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35174,28 +35232,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1306263695173627</v>
+        <v>-0.1305482087979074</v>
       </c>
       <c r="J14" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K14" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01212668038189146</v>
+        <v>0.01216847833600221</v>
       </c>
       <c r="M14" t="n">
-        <v>6.709063234561838</v>
+        <v>6.694054984327236</v>
       </c>
       <c r="N14" t="n">
-        <v>76.13605756766411</v>
+        <v>75.96150506679366</v>
       </c>
       <c r="O14" t="n">
-        <v>8.725597834398748</v>
+        <v>8.715589771598573</v>
       </c>
       <c r="P14" t="n">
-        <v>335.1575307522879</v>
+        <v>335.1567253500224</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35252,28 +35310,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01637333179892651</v>
+        <v>0.01807152040070861</v>
       </c>
       <c r="J15" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K15" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001523597894751427</v>
+        <v>0.0001863866833790029</v>
       </c>
       <c r="M15" t="n">
-        <v>7.207717311560414</v>
+        <v>7.199500775077253</v>
       </c>
       <c r="N15" t="n">
-        <v>95.99017699373782</v>
+        <v>95.80369416979191</v>
       </c>
       <c r="O15" t="n">
-        <v>9.797457680119768</v>
+        <v>9.787936154766841</v>
       </c>
       <c r="P15" t="n">
-        <v>334.1603880489308</v>
+        <v>334.1427506820753</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35330,28 +35388,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1437167353156598</v>
+        <v>0.1434778057243328</v>
       </c>
       <c r="J16" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K16" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01297624095086325</v>
+        <v>0.0129928575377285</v>
       </c>
       <c r="M16" t="n">
-        <v>7.240392516406327</v>
+        <v>7.224925697897444</v>
       </c>
       <c r="N16" t="n">
-        <v>85.96920069169954</v>
+        <v>85.77133188220498</v>
       </c>
       <c r="O16" t="n">
-        <v>9.27195775937852</v>
+        <v>9.261281330475009</v>
       </c>
       <c r="P16" t="n">
-        <v>337.7730403848824</v>
+        <v>337.7755153693254</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35408,28 +35466,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2927712060007897</v>
+        <v>0.2911377281367925</v>
       </c>
       <c r="J17" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K17" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0532384562679572</v>
+        <v>0.05288665274073823</v>
       </c>
       <c r="M17" t="n">
-        <v>7.090965934829967</v>
+        <v>7.0832373687648</v>
       </c>
       <c r="N17" t="n">
-        <v>84.13107832807934</v>
+        <v>83.96763347487143</v>
       </c>
       <c r="O17" t="n">
-        <v>9.172299511468175</v>
+        <v>9.163385481080201</v>
       </c>
       <c r="P17" t="n">
-        <v>338.9701715722111</v>
+        <v>338.9870669567563</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35486,28 +35544,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4694585255912648</v>
+        <v>0.4678345907949119</v>
       </c>
       <c r="J18" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K18" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1150923630521976</v>
+        <v>0.1148223951819884</v>
       </c>
       <c r="M18" t="n">
-        <v>7.504562157534973</v>
+        <v>7.495557778488021</v>
       </c>
       <c r="N18" t="n">
-        <v>94.02966151850808</v>
+        <v>93.84116062448723</v>
       </c>
       <c r="O18" t="n">
-        <v>9.696889270199391</v>
+        <v>9.687164736107631</v>
       </c>
       <c r="P18" t="n">
-        <v>342.9430107932087</v>
+        <v>342.9597290522747</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35564,28 +35622,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5791625157110789</v>
+        <v>0.5770367512551156</v>
       </c>
       <c r="J19" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K19" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1334684792955609</v>
+        <v>0.1330984195534131</v>
       </c>
       <c r="M19" t="n">
-        <v>8.812177786412599</v>
+        <v>8.802344830000424</v>
       </c>
       <c r="N19" t="n">
-        <v>119.4270931619352</v>
+        <v>119.2031960263711</v>
       </c>
       <c r="O19" t="n">
-        <v>10.92827036460643</v>
+        <v>10.91802161686681</v>
       </c>
       <c r="P19" t="n">
-        <v>348.2927972330247</v>
+        <v>348.3148550681044</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35623,7 +35681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T526"/>
+  <dimension ref="A1:T527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76159,6 +76217,72 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>-41.329034403650226,174.79690947122626</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>-41.329299007236195,174.79606330892946</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>-41.32967226836388,174.79529975081158</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>-41.33009174934311,174.79457954031673</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>-41.33056653114854,174.7939244606753</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>-41.33102935248245,174.79326263888677</t>
+        </is>
+      </c>
+      <c r="Q527" t="inlineStr">
+        <is>
+          <t>-41.331518406092414,174.79263837336484</t>
+        </is>
+      </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>-41.332057255109895,174.79208953999827</t>
+        </is>
+      </c>
+      <c r="S527" t="inlineStr">
+        <is>
+          <t>-41.33260467375769,174.79156469808342</t>
+        </is>
+      </c>
+      <c r="T527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T527"/>
+  <dimension ref="A1:T528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28674,6 +28674,70 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="n">
+        <v>338.22</v>
+      </c>
+      <c r="D528" t="n">
+        <v>354.88</v>
+      </c>
+      <c r="E528" t="n">
+        <v>356.1266666666667</v>
+      </c>
+      <c r="F528" t="n">
+        <v>350.6566666666667</v>
+      </c>
+      <c r="G528" t="n">
+        <v>343.5866666666667</v>
+      </c>
+      <c r="H528" t="n">
+        <v>339.97</v>
+      </c>
+      <c r="I528" t="n">
+        <v>326.44</v>
+      </c>
+      <c r="J528" t="n">
+        <v>331.79</v>
+      </c>
+      <c r="K528" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="L528" t="n">
+        <v>324.62</v>
+      </c>
+      <c r="M528" t="n">
+        <v>315.7814285714285</v>
+      </c>
+      <c r="N528" t="n">
+        <v>325.4414285714286</v>
+      </c>
+      <c r="O528" t="n">
+        <v>328.08</v>
+      </c>
+      <c r="P528" t="n">
+        <v>330.34</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>332.2</v>
+      </c>
+      <c r="R528" t="n">
+        <v>339.76</v>
+      </c>
+      <c r="S528" t="n">
+        <v>347.93</v>
+      </c>
+      <c r="T528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28685,7 +28749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34123,6 +34187,16 @@
       </c>
       <c r="B543" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -35681,7 +35755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T527"/>
+  <dimension ref="A1:T528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76283,6 +76357,104 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-41.32873566284098,174.8039208619975</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-41.328740789550615,174.80300780353912</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-41.32854984292136,174.80214827932477</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-41.32837666771454,174.80128483444184</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-41.32829352095206,174.80038548906944</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-41.328346088259515,174.79947507438825</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-41.32843380638936,174.79855684507913</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>-41.328685894611205,174.79770255787864</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>-41.328979915136316,174.7968693571304</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>-41.32927796314342,174.79604599026766</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>-41.32958099584354,174.79521631771493</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>-41.33004560906457,174.79453197880514</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>-41.33049592453092,174.79384325663946</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>-41.33096018974902,174.7931747229573</t>
+        </is>
+      </c>
+      <c r="Q528" t="inlineStr">
+        <is>
+          <t>-41.33145200098175,174.79254629426094</t>
+        </is>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>-41.33198698926205,174.7919849546187</t>
+        </is>
+      </c>
+      <c r="S528" t="inlineStr">
+        <is>
+          <t>-41.3325427451711,174.7914678549759</t>
+        </is>
+      </c>
+      <c r="T528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -34373,7 +34373,7 @@
         <v>-0.6578207256107029</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K2" t="n">
         <v>243</v>
@@ -34448,28 +34448,28 @@
         <v>0.0369</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5706546799739541</v>
+        <v>-0.5718420808526891</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K3" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1571415160624265</v>
+        <v>0.1592115740920115</v>
       </c>
       <c r="M3" t="n">
-        <v>7.631152924546435</v>
+        <v>7.607040689137566</v>
       </c>
       <c r="N3" t="n">
-        <v>100.10417824142</v>
+        <v>99.71867662300102</v>
       </c>
       <c r="O3" t="n">
-        <v>10.00520755613895</v>
+        <v>9.985923924354772</v>
       </c>
       <c r="P3" t="n">
-        <v>354.4837132682542</v>
+        <v>354.4940859821825</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34526,28 +34526,28 @@
         <v>0.0442</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.243325917015954</v>
+        <v>-0.233584403231953</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04043932366002234</v>
+        <v>0.03757467404986159</v>
       </c>
       <c r="M4" t="n">
-        <v>6.752565999057795</v>
+        <v>6.764170296767423</v>
       </c>
       <c r="N4" t="n">
-        <v>81.12741376684779</v>
+        <v>81.29751463200911</v>
       </c>
       <c r="O4" t="n">
-        <v>9.00707576113623</v>
+        <v>9.016513441015276</v>
       </c>
       <c r="P4" t="n">
-        <v>349.98729946732</v>
+        <v>349.9023124199118</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34604,28 +34604,28 @@
         <v>0.0514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09341547485533744</v>
+        <v>-0.08869925879008964</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K5" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005135452274422136</v>
+        <v>0.004678031887264567</v>
       </c>
       <c r="M5" t="n">
-        <v>7.110976433133784</v>
+        <v>7.100020227496458</v>
       </c>
       <c r="N5" t="n">
-        <v>98.29948888643162</v>
+        <v>98.03564921778498</v>
       </c>
       <c r="O5" t="n">
-        <v>9.914609870611734</v>
+        <v>9.901295330298202</v>
       </c>
       <c r="P5" t="n">
-        <v>353.0283151668</v>
+        <v>352.9872234056469</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34682,28 +34682,28 @@
         <v>0.0497</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06750608307678645</v>
+        <v>-0.06593579227643467</v>
       </c>
       <c r="J6" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K6" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003143779979477235</v>
+        <v>0.003033169784209866</v>
       </c>
       <c r="M6" t="n">
-        <v>6.72100210329732</v>
+        <v>6.700836214339893</v>
       </c>
       <c r="N6" t="n">
-        <v>82.55790320328641</v>
+        <v>82.25040521738744</v>
       </c>
       <c r="O6" t="n">
-        <v>9.086137969637399</v>
+        <v>9.069200913938749</v>
       </c>
       <c r="P6" t="n">
-        <v>350.611536257954</v>
+        <v>350.5977575939721</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34760,28 +34760,28 @@
         <v>0.0531</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1631499316917058</v>
+        <v>-0.1623162734479931</v>
       </c>
       <c r="J7" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K7" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01946118912149108</v>
+        <v>0.01948324756432995</v>
       </c>
       <c r="M7" t="n">
-        <v>6.53669344112512</v>
+        <v>6.514396369216077</v>
       </c>
       <c r="N7" t="n">
-        <v>77.19118564602667</v>
+        <v>76.89433181300564</v>
       </c>
       <c r="O7" t="n">
-        <v>8.785851446844903</v>
+        <v>8.768941316544753</v>
       </c>
       <c r="P7" t="n">
-        <v>346.8939245173536</v>
+        <v>346.8866968650044</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34838,28 +34838,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.121743805858662</v>
+        <v>-0.1214972486422257</v>
       </c>
       <c r="J8" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0115252237918444</v>
+        <v>0.011607101484995</v>
       </c>
       <c r="M8" t="n">
-        <v>6.367927057246844</v>
+        <v>6.344231572258757</v>
       </c>
       <c r="N8" t="n">
-        <v>72.52118616930737</v>
+        <v>72.24149120480905</v>
       </c>
       <c r="O8" t="n">
-        <v>8.515937186787333</v>
+        <v>8.499499467898627</v>
       </c>
       <c r="P8" t="n">
-        <v>342.8658478909249</v>
+        <v>342.8636783342253</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34916,28 +34916,28 @@
         <v>0.0488</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07257995877251967</v>
+        <v>-0.08021574094467859</v>
       </c>
       <c r="J9" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K9" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004870812392416823</v>
+        <v>0.005979113701220062</v>
       </c>
       <c r="M9" t="n">
-        <v>6.136125219059937</v>
+        <v>6.143580109955974</v>
       </c>
       <c r="N9" t="n">
-        <v>60.98822411706407</v>
+        <v>61.05534069811473</v>
       </c>
       <c r="O9" t="n">
-        <v>7.809495765865045</v>
+        <v>7.813791697896402</v>
       </c>
       <c r="P9" t="n">
-        <v>337.2628543480099</v>
+        <v>337.3308755580972</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34994,28 +34994,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06893941103450835</v>
+        <v>-0.07349528038362264</v>
       </c>
       <c r="J10" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K10" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003680410633171816</v>
+        <v>0.004217958696636659</v>
       </c>
       <c r="M10" t="n">
-        <v>6.43290231490316</v>
+        <v>6.432776283823942</v>
       </c>
       <c r="N10" t="n">
-        <v>72.3831792109727</v>
+        <v>72.22915806152233</v>
       </c>
       <c r="O10" t="n">
-        <v>8.5078304644</v>
+        <v>8.498773915190492</v>
       </c>
       <c r="P10" t="n">
-        <v>339.1522252681104</v>
+        <v>339.193321439145</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35072,28 +35072,28 @@
         <v>0.0426</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1400038425906159</v>
+        <v>-0.1414438497705877</v>
       </c>
       <c r="J11" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K11" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01851249764613139</v>
+        <v>0.01897913426414888</v>
       </c>
       <c r="M11" t="n">
-        <v>5.939195568258761</v>
+        <v>5.931834633700551</v>
       </c>
       <c r="N11" t="n">
-        <v>56.3615639306217</v>
+        <v>56.24369322690514</v>
       </c>
       <c r="O11" t="n">
-        <v>7.507433911172425</v>
+        <v>7.499579536674382</v>
       </c>
       <c r="P11" t="n">
-        <v>336.1063682329647</v>
+        <v>336.1212229490267</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35150,28 +35150,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1293282972693814</v>
+        <v>-0.131868258089816</v>
       </c>
       <c r="J12" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K12" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01434822890096654</v>
+        <v>0.01496255813634984</v>
       </c>
       <c r="M12" t="n">
-        <v>6.347329033346683</v>
+        <v>6.345196794451758</v>
       </c>
       <c r="N12" t="n">
-        <v>63.01624735214045</v>
+        <v>62.94450863323898</v>
       </c>
       <c r="O12" t="n">
-        <v>7.938277354195963</v>
+        <v>7.93375753557159</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6658858707423</v>
+        <v>333.6920306933347</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35228,28 +35228,28 @@
         <v>0.0399</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1730855439828625</v>
+        <v>-0.1792755629401154</v>
       </c>
       <c r="J13" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K13" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02283331743670669</v>
+        <v>0.02441529173012869</v>
       </c>
       <c r="M13" t="n">
-        <v>6.515245359162883</v>
+        <v>6.532762819890159</v>
       </c>
       <c r="N13" t="n">
-        <v>70.34200139928662</v>
+        <v>70.63000357193231</v>
       </c>
       <c r="O13" t="n">
-        <v>8.387013854721275</v>
+        <v>8.404165846289107</v>
       </c>
       <c r="P13" t="n">
-        <v>334.3910771696127</v>
+        <v>334.4549859099128</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35306,28 +35306,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1305482087979074</v>
+        <v>-0.1333273120724106</v>
       </c>
       <c r="J14" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K14" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01216847833600221</v>
+        <v>0.01272940750701301</v>
       </c>
       <c r="M14" t="n">
-        <v>6.694054984327236</v>
+        <v>6.694010258628913</v>
       </c>
       <c r="N14" t="n">
-        <v>75.96150506679366</v>
+        <v>75.87798800705713</v>
       </c>
       <c r="O14" t="n">
-        <v>8.715589771598573</v>
+        <v>8.710797208468184</v>
       </c>
       <c r="P14" t="n">
-        <v>335.1567253500224</v>
+        <v>335.1854517781395</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35384,28 +35384,28 @@
         <v>0.0307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01807152040070861</v>
+        <v>0.01520540413147867</v>
       </c>
       <c r="J15" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K15" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001863866833790029</v>
+        <v>0.0001324368467296999</v>
       </c>
       <c r="M15" t="n">
-        <v>7.199500775077253</v>
+        <v>7.198813419037345</v>
       </c>
       <c r="N15" t="n">
-        <v>95.80369416979191</v>
+        <v>95.68123486022516</v>
       </c>
       <c r="O15" t="n">
-        <v>9.787936154766841</v>
+        <v>9.781678529793604</v>
       </c>
       <c r="P15" t="n">
-        <v>334.1427506820753</v>
+        <v>334.1726120317884</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35462,28 +35462,28 @@
         <v>0.0323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1434778057243328</v>
+        <v>0.1385530496893761</v>
       </c>
       <c r="J16" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K16" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0129928575377285</v>
+        <v>0.01214253674945531</v>
       </c>
       <c r="M16" t="n">
-        <v>7.224925697897444</v>
+        <v>7.233910758354412</v>
       </c>
       <c r="N16" t="n">
-        <v>85.77133188220498</v>
+        <v>85.85994242338622</v>
       </c>
       <c r="O16" t="n">
-        <v>9.261281330475009</v>
+        <v>9.266064020034948</v>
       </c>
       <c r="P16" t="n">
-        <v>337.7755153693254</v>
+        <v>337.8266901927436</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35540,28 +35540,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2911377281367925</v>
+        <v>0.2848452302139902</v>
       </c>
       <c r="J17" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K17" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05288665274073823</v>
+        <v>0.05068723537317821</v>
       </c>
       <c r="M17" t="n">
-        <v>7.0832373687648</v>
+        <v>7.100463519227744</v>
       </c>
       <c r="N17" t="n">
-        <v>83.96763347487143</v>
+        <v>84.25024917614192</v>
       </c>
       <c r="O17" t="n">
-        <v>9.163385481080201</v>
+        <v>9.178793448822232</v>
       </c>
       <c r="P17" t="n">
-        <v>338.9870669567563</v>
+        <v>339.052361462668</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35618,28 +35618,28 @@
         <v>0.0343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4678345907949119</v>
+        <v>0.4610557839649165</v>
       </c>
       <c r="J18" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K18" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1148223951819884</v>
+        <v>0.1117645711674737</v>
       </c>
       <c r="M18" t="n">
-        <v>7.495557778488021</v>
+        <v>7.513881239283293</v>
       </c>
       <c r="N18" t="n">
-        <v>93.84116062448723</v>
+        <v>94.17390527787724</v>
       </c>
       <c r="O18" t="n">
-        <v>9.687164736107631</v>
+        <v>9.704324050539391</v>
       </c>
       <c r="P18" t="n">
-        <v>342.9597290522747</v>
+        <v>343.0297419206091</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35696,28 +35696,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5770367512551156</v>
+        <v>0.5702332697439273</v>
       </c>
       <c r="J19" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K19" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1330984195534131</v>
+        <v>0.1303847453186523</v>
       </c>
       <c r="M19" t="n">
-        <v>8.802344830000424</v>
+        <v>8.815842482106385</v>
       </c>
       <c r="N19" t="n">
-        <v>119.2031960263711</v>
+        <v>119.4775413024554</v>
       </c>
       <c r="O19" t="n">
-        <v>10.91802161686681</v>
+        <v>10.93057826935316</v>
       </c>
       <c r="P19" t="n">
-        <v>348.3148550681044</v>
+        <v>348.3856763859858</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -34361,13 +34361,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0376</v>
+        <v>0.0558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0493</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.6578207256107029</v>
@@ -34439,13 +34439,13 @@
         <v>0.05889112310293512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0288</v>
+        <v>0.0327</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0369</v>
+        <v>0.0419</v>
       </c>
       <c r="I3" t="n">
         <v>-0.5718592204263784</v>
@@ -34517,13 +34517,13 @@
         <v>0.117675465617406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.034</v>
+        <v>0.043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0442</v>
+        <v>0.0638</v>
       </c>
       <c r="I4" t="n">
         <v>-0.233584403231953</v>
@@ -34595,13 +34595,13 @@
         <v>0.1765519819020273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0388</v>
+        <v>0.0536</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0514</v>
+        <v>0.1006</v>
       </c>
       <c r="I5" t="n">
         <v>-0.08870559794803749</v>
@@ -34673,13 +34673,13 @@
         <v>0.2352461092669538</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.042</v>
+        <v>0.058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0497</v>
+        <v>0.1241</v>
       </c>
       <c r="I6" t="n">
         <v>-0.06594002838300184</v>
@@ -34751,13 +34751,13 @@
         <v>0.2939696808910303</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0397</v>
+        <v>0.0436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0531</v>
+        <v>0.0721</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1623190689932949</v>
@@ -34829,13 +34829,13 @@
         <v>0.352638650216312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0487</v>
+        <v>0.0549</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.1308</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1215069067954546</v>
@@ -34907,13 +34907,13 @@
         <v>0.4115286357199062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0381</v>
+        <v>0.039</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0488</v>
+        <v>0.0882</v>
       </c>
       <c r="I9" t="n">
         <v>-0.08021574094467859</v>
@@ -34985,13 +34985,13 @@
         <v>0.470419758822033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0383</v>
+        <v>0.0453</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0425</v>
+        <v>0.109</v>
       </c>
       <c r="I10" t="n">
         <v>-0.07349528038362264</v>
@@ -35063,13 +35063,13 @@
         <v>0.5291894769577413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0386</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0426</v>
+        <v>0.1956</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1414438497705877</v>
@@ -35141,13 +35141,13 @@
         <v>0.588051800930917</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0382</v>
+        <v>0.0491</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0425</v>
+        <v>0.0701</v>
       </c>
       <c r="I12" t="n">
         <v>-0.131868258089816</v>
@@ -35219,13 +35219,13 @@
         <v>0.6469429240323948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0342</v>
+        <v>0.0382</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0399</v>
+        <v>0.0451</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1792763914364812</v>
@@ -35297,13 +35297,13 @@
         <v>0.705783299016795</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0298</v>
+        <v>0.0387</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0357</v>
+        <v>0.0426</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1333270000362179</v>
@@ -35375,13 +35375,13 @@
         <v>0.7646425149463659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0292</v>
+        <v>0.0347</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0307</v>
+        <v>0.0408</v>
       </c>
       <c r="I15" t="n">
         <v>0.01517842371087229</v>
@@ -35453,13 +35453,13 @@
         <v>0.8235336380493533</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0295</v>
+        <v>0.0339</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0323</v>
+        <v>0.0406</v>
       </c>
       <c r="I16" t="n">
         <v>0.1385248738216068</v>
@@ -35531,13 +35531,13 @@
         <v>0.8823829223151812</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0283</v>
+        <v>0.0349</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0308</v>
+        <v>0.0486</v>
       </c>
       <c r="I17" t="n">
         <v>0.2848225523179503</v>
@@ -35609,13 +35609,13 @@
         <v>0.9412740454174161</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0294</v>
+        <v>0.0391</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0343</v>
+        <v>0.0435</v>
       </c>
       <c r="I18" t="n">
         <v>0.4610362894789274</v>
@@ -35687,13 +35687,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0247</v>
+        <v>0.0347</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0264</v>
+        <v>0.0413</v>
       </c>
       <c r="I19" t="n">
         <v>0.5702332697439274</v>

--- a/data/nzd0350/nzd0350.xlsx
+++ b/data/nzd0350/nzd0350.xlsx
@@ -557,7 +557,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>332.75</v>
+        <v>333.48</v>
       </c>
       <c r="M2" t="n">
         <v>331.56</v>
@@ -623,7 +623,7 @@
         <v>341.44</v>
       </c>
       <c r="L3" t="n">
-        <v>338.26</v>
+        <v>338.07</v>
       </c>
       <c r="M3" t="n">
         <v>338.29</v>
@@ -689,7 +689,7 @@
         <v>339.72</v>
       </c>
       <c r="L4" t="n">
-        <v>341.83</v>
+        <v>342.57</v>
       </c>
       <c r="M4" t="n">
         <v>342.72</v>
@@ -755,7 +755,7 @@
         <v>326.37</v>
       </c>
       <c r="L5" t="n">
-        <v>333.13</v>
+        <v>333.99</v>
       </c>
       <c r="M5" t="n">
         <v>338.23</v>
@@ -821,7 +821,7 @@
         <v>339.65</v>
       </c>
       <c r="L6" t="n">
-        <v>337.85</v>
+        <v>338.2</v>
       </c>
       <c r="M6" t="n">
         <v>344.15</v>
@@ -887,7 +887,7 @@
         <v>334.67</v>
       </c>
       <c r="L7" t="n">
-        <v>333</v>
+        <v>333.19</v>
       </c>
       <c r="M7" t="n">
         <v>328.32</v>
@@ -943,7 +943,7 @@
         <v>343.21</v>
       </c>
       <c r="L8" t="n">
-        <v>343.84</v>
+        <v>343.65</v>
       </c>
       <c r="M8" t="n">
         <v>346.63</v>
@@ -1009,7 +1009,7 @@
         <v>342.4</v>
       </c>
       <c r="L9" t="n">
-        <v>344.95</v>
+        <v>344.28</v>
       </c>
       <c r="M9" t="n">
         <v>340.74</v>
@@ -1075,7 +1075,7 @@
         <v>347.24</v>
       </c>
       <c r="L10" t="n">
-        <v>341.82</v>
+        <v>341.23</v>
       </c>
       <c r="M10" t="n">
         <v>340.41</v>
@@ -1141,7 +1141,7 @@
         <v>340.06</v>
       </c>
       <c r="L11" t="n">
-        <v>339.63</v>
+        <v>339.03</v>
       </c>
       <c r="M11" t="n">
         <v>337.3</v>
@@ -1207,7 +1207,7 @@
         <v>335.06</v>
       </c>
       <c r="L12" t="n">
-        <v>336.95</v>
+        <v>336.85</v>
       </c>
       <c r="M12" t="n">
         <v>332.44</v>
@@ -1273,7 +1273,7 @@
         <v>339.02</v>
       </c>
       <c r="L13" t="n">
-        <v>340.15</v>
+        <v>340.41</v>
       </c>
       <c r="M13" t="n">
         <v>337.49</v>
@@ -1339,7 +1339,7 @@
         <v>332.75</v>
       </c>
       <c r="L14" t="n">
-        <v>337.98</v>
+        <v>338.79</v>
       </c>
       <c r="M14" t="n">
         <v>336.65</v>
@@ -1403,7 +1403,7 @@
         <v>314.37</v>
       </c>
       <c r="L15" t="n">
-        <v>314.19</v>
+        <v>315.09</v>
       </c>
       <c r="M15" t="n">
         <v>313.07</v>
@@ -1469,7 +1469,7 @@
         <v>340.19</v>
       </c>
       <c r="L16" t="n">
-        <v>339.1</v>
+        <v>338.52</v>
       </c>
       <c r="M16" t="n">
         <v>337.31</v>
@@ -1535,7 +1535,7 @@
         <v>340.35</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9</v>
+        <v>345.37</v>
       </c>
       <c r="M17" t="n">
         <v>344.77</v>
@@ -1601,7 +1601,7 @@
         <v>341.82</v>
       </c>
       <c r="L18" t="n">
-        <v>345.19</v>
+        <v>345.09</v>
       </c>
       <c r="M18" t="n">
         <v>343.78</v>
@@ -1667,7 +1667,7 @@
         <v>355.3</v>
       </c>
       <c r="L19" t="n">
-        <v>349.62</v>
+        <v>349.52</v>
       </c>
       <c r="M19" t="n">
         <v>351.58</v>
@@ -1733,7 +1733,7 @@
         <v>346.31</v>
       </c>
       <c r="L20" t="n">
-        <v>342.59</v>
+        <v>341.69</v>
       </c>
       <c r="M20" t="n">
         <v>338.15</v>
@@ -1799,7 +1799,7 @@
         <v>355.68</v>
       </c>
       <c r="L21" t="n">
-        <v>351.92</v>
+        <v>351.57</v>
       </c>
       <c r="M21" t="n">
         <v>344.52</v>
@@ -1865,7 +1865,7 @@
         <v>351.25</v>
       </c>
       <c r="L22" t="n">
-        <v>350.17</v>
+        <v>350.43</v>
       </c>
       <c r="M22" t="n">
         <v>352.43</v>
@@ -1929,7 +1929,7 @@
         <v>339.12</v>
       </c>
       <c r="L23" t="n">
-        <v>336.43</v>
+        <v>336.96</v>
       </c>
       <c r="M23" t="n">
         <v>331.13</v>
@@ -2047,7 +2047,7 @@
         <v>349.18</v>
       </c>
       <c r="L25" t="n">
-        <v>345.09</v>
+        <v>344.54</v>
       </c>
       <c r="M25" t="n">
         <v>341.28</v>
@@ -2113,7 +2113,7 @@
         <v>329.48</v>
       </c>
       <c r="L26" t="n">
-        <v>332.49</v>
+        <v>333.37</v>
       </c>
       <c r="M26" t="n">
         <v>335.93</v>
@@ -2179,7 +2179,7 @@
         <v>339.54</v>
       </c>
       <c r="L27" t="n">
-        <v>338.9</v>
+        <v>338.48</v>
       </c>
       <c r="M27" t="n">
         <v>335.51</v>
@@ -2245,7 +2245,7 @@
         <v>346.41</v>
       </c>
       <c r="L28" t="n">
-        <v>343.12</v>
+        <v>342.71</v>
       </c>
       <c r="M28" t="n">
         <v>342.43</v>
@@ -2291,7 +2291,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>331.26</v>
+        <v>331.93</v>
       </c>
       <c r="M29" t="n">
         <v>334.02</v>
@@ -2357,7 +2357,7 @@
         <v>334.5</v>
       </c>
       <c r="L30" t="n">
-        <v>325.97</v>
+        <v>325.39</v>
       </c>
       <c r="M30" t="n">
         <v>322.99</v>
@@ -2423,7 +2423,7 @@
         <v>325.5</v>
       </c>
       <c r="L31" t="n">
-        <v>328.85</v>
+        <v>328.52</v>
       </c>
       <c r="M31" t="n">
         <v>320.99</v>
@@ -2489,7 +2489,7 @@
         <v>332.77</v>
       </c>
       <c r="L32" t="n">
-        <v>328.7</v>
+        <v>328.02</v>
       </c>
       <c r="M32" t="n">
         <v>317.41</v>
@@ -2555,7 +2555,7 @@
         <v>323.1</v>
       </c>
       <c r="L33" t="n">
-        <v>324.29</v>
+        <v>323.76</v>
       </c>
       <c r="M33" t="n">
         <v>311.6</v>
@@ -2619,7 +2619,7 @@
         <v>328.25</v>
       </c>
       <c r="L34" t="n">
-        <v>329.55</v>
+        <v>328.96</v>
       </c>
       <c r="M34" t="n">
         <v>328.44</v>
@@ -2685,7 +2685,7 @@
         <v>329.79</v>
       </c>
       <c r="L35" t="n">
-        <v>337.42</v>
+        <v>338.36</v>
       </c>
       <c r="M35" t="n">
         <v>342.16</v>
@@ -2751,7 +2751,7 @@
         <v>327.57</v>
       </c>
       <c r="L36" t="n">
-        <v>331.54</v>
+        <v>332.05</v>
       </c>
       <c r="M36" t="n">
         <v>336.15</v>
@@ -2817,7 +2817,7 @@
         <v>338.46</v>
       </c>
       <c r="L37" t="n">
-        <v>337.92</v>
+        <v>337.39</v>
       </c>
       <c r="M37" t="n">
         <v>335.9</v>
@@ -2883,7 +2883,7 @@
         <v>329.78</v>
       </c>
       <c r="L38" t="n">
-        <v>331.07</v>
+        <v>331.89</v>
       </c>
       <c r="M38" t="n">
         <v>336.38</v>
@@ -2949,7 +2949,7 @@
         <v>339.72</v>
       </c>
       <c r="L39" t="n">
-        <v>333.81</v>
+        <v>333.12</v>
       </c>
       <c r="M39" t="n">
         <v>332.69</v>
@@ -3015,7 +3015,7 @@
         <v>330.79</v>
       </c>
       <c r="L40" t="n">
-        <v>326.61</v>
+        <v>326.47</v>
       </c>
       <c r="M40" t="n">
         <v>334.54</v>
@@ -3081,7 +3081,7 @@
         <v>336.6</v>
       </c>
       <c r="L41" t="n">
-        <v>335.69</v>
+        <v>335.97</v>
       </c>
       <c r="M41" t="n">
         <v>342.38</v>
@@ -3147,7 +3147,7 @@
         <v>324.66</v>
       </c>
       <c r="L42" t="n">
-        <v>323.94</v>
+        <v>324.36</v>
       </c>
       <c r="M42" t="n">
         <v>322.75</v>
@@ -3205,7 +3205,7 @@
         <v>335.9</v>
       </c>
       <c r="L43" t="n">
-        <v>338.72</v>
+        <v>339.03</v>
       </c>
       <c r="M43" t="n">
         <v>338.52</v>
@@ -3305,7 +3305,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>330.06</v>
+        <v>330.21</v>
       </c>
       <c r="M45" t="n">
         <v>335.16</v>
@@ -3353,7 +3353,7 @@
         <v>344.41</v>
       </c>
       <c r="L46" t="n">
-        <v>344.55</v>
+        <v>345.22</v>
       </c>
       <c r="M46" t="n">
         <v>344.61</v>
@@ -3413,7 +3413,7 @@
         <v>339.15</v>
       </c>
       <c r="L47" t="n">
-        <v>338.43</v>
+        <v>338.98</v>
       </c>
       <c r="M47" t="n">
         <v>343.46</v>
@@ -3479,7 +3479,7 @@
         <v>338.94</v>
       </c>
       <c r="L48" t="n">
-        <v>332.82</v>
+        <v>332.41</v>
       </c>
       <c r="M48" t="n">
         <v>328.77</v>
@@ -3555,7 +3555,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>323.61</v>
+        <v>323.1</v>
       </c>
       <c r="M50" t="n">
         <v>315.75</v>
@@ -3615,7 +3615,7 @@
         <v>340.59</v>
       </c>
       <c r="L51" t="n">
-        <v>332.48</v>
+        <v>331.65</v>
       </c>
       <c r="M51" t="n">
         <v>328.76</v>
@@ -3681,7 +3681,7 @@
         <v>329.55</v>
       </c>
       <c r="L52" t="n">
-        <v>331.77</v>
+        <v>332.28</v>
       </c>
       <c r="M52" t="n">
         <v>335.36</v>
@@ -3731,7 +3731,7 @@
         <v>330.76</v>
       </c>
       <c r="L53" t="n">
-        <v>329.83</v>
+        <v>329.06</v>
       </c>
       <c r="M53" t="n">
         <v>333.79</v>
@@ -3797,7 +3797,7 @@
         <v>335.04</v>
       </c>
       <c r="L54" t="n">
-        <v>331.96</v>
+        <v>331.38</v>
       </c>
       <c r="M54" t="n">
         <v>333.59</v>
@@ -3965,7 +3965,7 @@
         <v>320.87</v>
       </c>
       <c r="L57" t="n">
-        <v>313.25</v>
+        <v>312.65</v>
       </c>
       <c r="M57" t="n">
         <v>306.91</v>
@@ -4057,7 +4057,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>342.4</v>
+        <v>342.3</v>
       </c>
       <c r="M59" t="n">
         <v>339.5</v>
@@ -4103,7 +4103,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>322.63</v>
+        <v>321.86</v>
       </c>
       <c r="M60" t="n">
         <v>317.4</v>
@@ -4155,7 +4155,7 @@
         <v>336.77</v>
       </c>
       <c r="L61" t="n">
-        <v>334.08</v>
+        <v>334.72</v>
       </c>
       <c r="M61" t="n">
         <v>339.48</v>
@@ -4205,7 +4205,7 @@
         <v>354.89</v>
       </c>
       <c r="L62" t="n">
-        <v>344.38</v>
+        <v>343.6</v>
       </c>
       <c r="M62" t="n">
         <v>342.3</v>
@@ -4271,7 +4271,7 @@
         <v>313.71</v>
       </c>
       <c r="L63" t="n">
-        <v>312.93</v>
+        <v>313.4</v>
       </c>
       <c r="M63" t="n">
         <v>316.86</v>
@@ -4323,7 +4323,7 @@
         <v>320.21</v>
       </c>
       <c r="L64" t="n">
-        <v>319.62</v>
+        <v>319.76</v>
       </c>
       <c r="M64" t="n">
         <v>323.24</v>
@@ -4389,7 +4389,7 @@
         <v>335.04</v>
       </c>
       <c r="L65" t="n">
-        <v>337.13</v>
+        <v>337.19</v>
       </c>
       <c r="M65" t="n">
         <v>332.53</v>
@@ -4449,7 +4449,7 @@
         <v>329.84</v>
       </c>
       <c r="L66" t="n">
-        <v>329.21</v>
+        <v>329.77</v>
       </c>
       <c r="M66" t="n">
         <v>330.72</v>
@@ -4515,7 +4515,7 @@
         <v>328.98</v>
       </c>
       <c r="L67" t="n">
-        <v>331.8</v>
+        <v>331.35</v>
       </c>
       <c r="M67" t="n">
         <v>333.2</v>
@@ -4577,7 +4577,7 @@
         <v>335.67</v>
       </c>
       <c r="L68" t="n">
-        <v>334.17</v>
+        <v>333.79</v>
       </c>
       <c r="M68" t="n">
         <v>335.6</v>
@@ -4643,7 +4643,7 @@
         <v>338.28</v>
       </c>
       <c r="L69" t="n">
-        <v>336.12</v>
+        <v>336.61</v>
       </c>
       <c r="M69" t="n">
         <v>343.28</v>
@@ -4707,7 +4707,7 @@
         <v>332.59</v>
       </c>
       <c r="L70" t="n">
-        <v>330.07</v>
+        <v>330.34</v>
       </c>
       <c r="M70" t="n">
         <v>331.82</v>
@@ -4771,7 +4771,7 @@
         <v>334.32</v>
       </c>
       <c r="L71" t="n">
-        <v>339.1</v>
+        <v>340.04</v>
       </c>
       <c r="M71" t="n">
         <v>350.42</v>
@@ -4837,7 +4837,7 @@
         <v>338.51</v>
       </c>
       <c r="L72" t="n">
-        <v>338.38</v>
+        <v>337.57</v>
       </c>
       <c r="M72" t="n">
         <v>329.04</v>
@@ -4987,7 +4987,7 @@
         <v>335.78</v>
       </c>
       <c r="L75" t="n">
-        <v>333.76</v>
+        <v>333.45</v>
       </c>
       <c r="M75" t="n">
         <v>337.09</v>
@@ -5047,7 +5047,7 @@
         <v>335.99</v>
       </c>
       <c r="L76" t="n">
-        <v>331.91</v>
+        <v>332.03</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -5103,7 +5103,7 @@
         <v>339.07</v>
       </c>
       <c r="L77" t="n">
-        <v>340.25</v>
+        <v>340.74</v>
       </c>
       <c r="M77" t="n">
         <v>346.02</v>
@@ -5169,7 +5169,7 @@
         <v>338.74</v>
       </c>
       <c r="L78" t="n">
-        <v>337.37</v>
+        <v>336.75</v>
       </c>
       <c r="M78" t="n">
         <v>337.54</v>
@@ -5235,7 +5235,7 @@
         <v>344.69</v>
       </c>
       <c r="L79" t="n">
-        <v>344.14</v>
+        <v>343.59</v>
       </c>
       <c r="M79" t="n">
         <v>343.54</v>
@@ -5287,7 +5287,7 @@
         <v>344.41</v>
       </c>
       <c r="L80" t="n">
-        <v>339.86</v>
+        <v>339.28</v>
       </c>
       <c r="M80" t="n">
         <v>340.44</v>
@@ -5337,7 +5337,7 @@
         <v>315.5</v>
       </c>
       <c r="L81" t="n">
-        <v>305</v>
+        <v>304.55</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
@@ -5401,7 +5401,7 @@
         <v>338.32</v>
       </c>
       <c r="L82" t="n">
-        <v>329.22</v>
+        <v>328.64</v>
       </c>
       <c r="M82" t="n">
         <v>335.77</v>
@@ -5447,7 +5447,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>324.45</v>
+        <v>324.35</v>
       </c>
       <c r="M83" t="n">
         <v>323.25</v>
@@ -5527,7 +5527,7 @@
         <v>350.59</v>
       </c>
       <c r="L85" t="n">
-        <v>345.27</v>
+        <v>344.76</v>
       </c>
       <c r="M85" t="n">
         <v>342.04</v>
@@ -5611,7 +5611,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>340.66</v>
+        <v>340.84</v>
       </c>
       <c r="M87" t="n">
         <v>341.65</v>
@@ -5667,7 +5667,7 @@
         <v>338.21</v>
       </c>
       <c r="L88" t="n">
-        <v>337.2</v>
+        <v>337.17</v>
       </c>
       <c r="M88" t="n">
         <v>335.87</v>
@@ -5759,7 +5759,7 @@
         <v>334.67</v>
       </c>
       <c r="L90" t="n">
-        <v>336.51</v>
+        <v>337.45</v>
       </c>
       <c r="M90" t="n">
         <v>339.06</v>
@@ -5825,7 +5825,7 @@
         <v>341.13</v>
       </c>
       <c r="L91" t="n">
-        <v>331</v>
+        <v>330.33</v>
       </c>
       <c r="M91" t="n">
         <v>327.2</v>
@@ -5967,7 +5967,7 @@
         <v>339.96</v>
       </c>
       <c r="L94" t="n">
-        <v>345.46</v>
+        <v>346.06</v>
       </c>
       <c r="M94" t="n">
         <v>351.42</v>
@@ -6059,7 +6059,7 @@
         <v>349.37</v>
       </c>
       <c r="L96" t="n">
-        <v>347.85</v>
+        <v>347.09</v>
       </c>
       <c r="M96" t="n">
         <v>348.73</v>
@@ -6171,7 +6171,7 @@
         <v>340.53</v>
       </c>
       <c r="L98" t="n">
-        <v>336.83</v>
+        <v>336.01</v>
       </c>
       <c r="M98" t="n">
         <v>332.62</v>
@@ -6233,7 +6233,7 @@
         <v>334.42</v>
       </c>
       <c r="L99" t="n">
-        <v>331.4</v>
+        <v>331.68</v>
       </c>
       <c r="M99" t="n">
         <v>329.43</v>
@@ -6281,7 +6281,7 @@
         <v>342.3</v>
       </c>
       <c r="L100" t="n">
-        <v>339.13</v>
+        <v>338.87</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         <v>324.38</v>
       </c>
       <c r="L102" t="n">
-        <v>320.51</v>
+        <v>320.39</v>
       </c>
       <c r="M102" t="n">
         <v>319.01</v>
@@ -6403,7 +6403,7 @@
         <v>331.91</v>
       </c>
       <c r="L103" t="n">
-        <v>324.85</v>
+        <v>324.32</v>
       </c>
       <c r="M103" t="n">
         <v>315.56</v>
@@ -6463,7 +6463,7 @@
         <v>328.61</v>
       </c>
       <c r="L104" t="n">
-        <v>327.46</v>
+        <v>328.02</v>
       </c>
       <c r="M104" t="n">
         <v>316.95</v>
@@ -6525,7 +6525,7 @@
         <v>338.76</v>
       </c>
       <c r="L105" t="n">
-        <v>338.25</v>
+        <v>338.8</v>
       </c>
       <c r="M105" t="n">
         <v>336.76</v>
@@ -6629,7 +6629,7 @@
         <v>327.2</v>
       </c>
       <c r="L107" t="n">
-        <v>328.16</v>
+        <v>328.44</v>
       </c>
       <c r="M107" t="n">
         <v>326.02</v>
@@ -6687,7 +6687,7 @@
         <v>324.15</v>
       </c>
       <c r="L108" t="n">
-        <v>327.44</v>
+        <v>328.32</v>
       </c>
       <c r="M108" t="n">
         <v>329.39</v>
@@ -6753,7 +6753,7 @@
         <v>327.09</v>
       </c>
       <c r="L109" t="n">
-        <v>324.93</v>
+        <v>325.78</v>
       </c>
       <c r="M109" t="n">
         <v>326.19</v>
@@ -6811,7 +6811,7 @@
         <v>339.56</v>
       </c>
       <c r="L110" t="n">
-        <v>330.07</v>
+        <v>329.6</v>
       </c>
       <c r="M110" t="n">
         <v>329.37</v>
@@ -6865,7 +6865,7 @@
         <v>327.51</v>
       </c>
       <c r="L111" t="n">
-        <v>322.03</v>
+        <v>322.43</v>
       </c>
       <c r="M111" t="n">
         <v>324.58</v>
@@ -6929,7 +6929,7 @@
         <v>322.78</v>
       </c>
       <c r="L112" t="n">
-        <v>315.73</v>
+        <v>315.85</v>
       </c>
       <c r="M112" t="n">
         <v>317.05</v>
@@ -6975,7 +6975,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>316.82</v>
+        <v>316.99</v>
       </c>
       <c r="M113" t="n">
         <v>321.56</v>
@@ -7067,7 +7067,7 @@
         <v>345.41</v>
       </c>
       <c r="L115" t="n">
-        <v>338.1</v>
+        <v>337.42</v>
       </c>
       <c r="M115" t="n">
         <v>334.56</v>
@@ -7133,7 +7133,7 @@
         <v>338.34</v>
       </c>
       <c r="L116" t="n">
-        <v>336.69</v>
+        <v>337.2</v>
       </c>
       <c r="M116" t="n">
         <v>338.77</v>
@@ -7199,7 +7199,7 @@
         <v>339.86</v>
       </c>
       <c r="L117" t="n">
-        <v>334.7</v>
+        <v>335.3</v>
       </c>
       <c r="M117" t="n">
         <v>342.23</v>
@@ -7237,7 +7237,7 @@
         <v>340.03</v>
       </c>
       <c r="L118" t="n">
-        <v>331.1</v>
+        <v>330.33</v>
       </c>
       <c r="M118" t="n">
         <v>331.37</v>
@@ -7275,7 +7275,7 @@
         <v>333.02</v>
       </c>
       <c r="L119" t="n">
-        <v>332.57</v>
+        <v>333.21</v>
       </c>
       <c r="M119" t="n">
         <v>334.8</v>
@@ -7313,7 +7313,7 @@
         <v>329.53</v>
       </c>
       <c r="L120" t="n">
-        <v>329.32</v>
+        <v>329.82</v>
       </c>
       <c r="M120" t="n">
         <v>326.22</v>
@@ -7379,7 +7379,7 @@
         <v>338.27</v>
       </c>
       <c r="L121" t="n">
-        <v>328.8</v>
+        <v>328.22</v>
       </c>
       <c r="M121" t="n">
         <v>326.55</v>
@@ -7469,7 +7469,7 @@
         <v>326.09</v>
       </c>
       <c r="L123" t="n">
-        <v>338.02</v>
+        <v>337.85</v>
       </c>
       <c r="M123" t="n">
         <v>337.52</v>
@@ -7513,7 +7513,7 @@
         <v>334.16</v>
       </c>
       <c r="L124" t="n">
-        <v>340.74</v>
+        <v>341.27</v>
       </c>
       <c r="M124" t="n">
         <v>346.2</v>
@@ -7561,7 +7561,7 @@
         <v>312.02</v>
       </c>
       <c r="L125" t="n">
-        <v>305.66</v>
+        <v>306.35</v>
       </c>
       <c r="M125" t="n">
         <v>314.68</v>
@@ -7635,7 +7635,7 @@
         <v>326.47</v>
       </c>
       <c r="L127" t="n">
-        <v>325.13</v>
+        <v>325.49</v>
       </c>
       <c r="M127" t="n">
         <v>331.21</v>
@@ -7757,7 +7757,7 @@
         <v>335.78</v>
       </c>
       <c r="L129" t="n">
-        <v>332.11</v>
+        <v>331.97</v>
       </c>
       <c r="M129" t="n">
         <v>329.96</v>
@@ -7813,7 +7813,7 @@
         <v>325.64</v>
       </c>
       <c r="L130" t="n">
-        <v>322.13</v>
+        <v>323.1</v>
       </c>
       <c r="M130" t="n">
         <v>324.93</v>
@@ -7873,7 +7873,7 @@
         <v>344.65</v>
       </c>
       <c r="L131" t="n">
-        <v>337.66</v>
+        <v>337.08</v>
       </c>
       <c r="M131" t="n">
         <v>332.73</v>
@@ -7939,7 +7939,7 @@
         <v>346.2</v>
       </c>
       <c r="L132" t="n">
-        <v>342.19</v>
+        <v>341.72</v>
       </c>
       <c r="M132" t="n">
         <v>339.96</v>
@@ -8075,7 +8075,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>337.67</v>
+        <v>337.53</v>
       </c>
       <c r="M135" t="n">
         <v>340.36</v>
@@ -8115,7 +8115,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>324.03</v>
+        <v>324.43</v>
       </c>
       <c r="M136" t="n">
         <v>340.75</v>
@@ -8271,7 +8271,7 @@
         <v>325.03</v>
       </c>
       <c r="L139" t="n">
-        <v>325.89</v>
+        <v>326.16</v>
       </c>
       <c r="M139" t="n">
         <v>327.31</v>
@@ -8375,7 +8375,7 @@
         <v>324.18</v>
       </c>
       <c r="L141" t="n">
-        <v>323.58</v>
+        <v>324.07</v>
       </c>
       <c r="M141" t="n">
         <v>320.92</v>
@@ -8479,7 +8479,7 @@
         <v>342.22</v>
       </c>
       <c r="L143" t="n">
-        <v>334.9</v>
+        <v>334.26</v>
       </c>
       <c r="M143" t="n">
         <v>329.88</v>
@@ -8545,7 +8545,7 @@
         <v>347.96</v>
       </c>
       <c r="L144" t="n">
-        <v>341.4</v>
+        <v>340.54</v>
       </c>
       <c r="M144" t="n">
         <v>339.82</v>
@@ -8611,7 +8611,7 @@
         <v>338.86</v>
       </c>
       <c r="L145" t="n">
-        <v>340.99</v>
+        <v>341.43</v>
       </c>
       <c r="M145" t="n">
         <v>344.31</v>
@@ -8745,7 +8745,7 @@
         <v>342.01</v>
       </c>
       <c r="L148" t="n">
-        <v>337.74</v>
+        <v>337.33</v>
       </c>
       <c r="M148" t="n">
         <v>337.34</v>
@@ -8795,7 +8795,7 @@
         <v>333.99</v>
       </c>
       <c r="L149" t="n">
-        <v>325.71</v>
+        <v>326.26</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
@@ -8829,7 +8829,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>323.32</v>
+        <v>322.64</v>
       </c>
       <c r="M150" t="n">
         <v>323.83</v>
@@ -8873,7 +8873,7 @@
         <v>328.6</v>
       </c>
       <c r="L151" t="n">
-        <v>330.32</v>
+        <v>330.92</v>
       </c>
       <c r="M151" t="n">
         <v>335.41</v>
@@ -8921,7 +8921,7 @@
         <v>330.38</v>
       </c>
       <c r="L152" t="n">
-        <v>330.84</v>
+        <v>331.43</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
@@ -8977,7 +8977,7 @@
         <v>335.36</v>
       </c>
       <c r="L153" t="n">
-        <v>331.19</v>
+        <v>331.13</v>
       </c>
       <c r="M153" t="n">
         <v>329.97</v>
@@ -9043,7 +9043,7 @@
         <v>345.27</v>
       </c>
       <c r="L154" t="n">
-        <v>341.03</v>
+        <v>340.84</v>
       </c>
       <c r="M154" t="n">
         <v>342.92</v>
@@ -9099,7 +9099,7 @@
         <v>333.26</v>
       </c>
       <c r="L155" t="n">
-        <v>331.74</v>
+        <v>332.6</v>
       </c>
       <c r="M155" t="n">
         <v>333.79</v>
@@ -9145,7 +9145,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>339.44</v>
+        <v>338.77</v>
       </c>
       <c r="M156" t="n">
         <v>335.77</v>
@@ -9211,7 +9211,7 @@
         <v>334.94</v>
       </c>
       <c r="L157" t="n">
-        <v>333.32</v>
+        <v>333.99</v>
       </c>
       <c r="M157" t="n">
         <v>333.32</v>
@@ -9257,7 +9257,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>331.03</v>
+        <v>331.91</v>
       </c>
       <c r="M158" t="n">
         <v>332.09</v>
@@ -9405,7 +9405,7 @@
         <v>334.92</v>
       </c>
       <c r="L161" t="n">
-        <v>329.44</v>
+        <v>328.88</v>
       </c>
       <c r="M161" t="n">
         <v>332.21</v>
@@ -9453,7 +9453,7 @@
         <v>337.18</v>
       </c>
       <c r="L162" t="n">
-        <v>332.64</v>
+        <v>331.79</v>
       </c>
       <c r="M162" t="n">
         <v>330.67</v>
@@ -9509,7 +9509,7 @@
         <v>339.14</v>
       </c>
       <c r="L163" t="n">
-        <v>332.9</v>
+        <v>332.43</v>
       </c>
       <c r="M163" t="n">
         <v>332.86</v>
@@ -9571,7 +9571,7 @@
         <v>330.95</v>
       </c>
       <c r="L164" t="n">
-        <v>331.89</v>
+        <v>332.34</v>
       </c>
       <c r="M164" t="n">
         <v>334.55</v>
@@ -9667,7 +9667,7 @@
         <v>333.53</v>
       </c>
       <c r="L166" t="n">
-        <v>321.22</v>
+        <v>320.57</v>
       </c>
       <c r="M166" t="n">
         <v>326.19</v>
@@ -9721,7 +9721,7 @@
         <v>329.74</v>
       </c>
       <c r="L167" t="n">
-        <v>321.04</v>
+        <v>320.78</v>
       </c>
       <c r="M167" t="n">
         <v>323.91</v>
@@ -9787,7 +9787,7 @@
         <v>340.56</v>
       </c>
       <c r="L168" t="n">
-        <v>339.08</v>
+        <v>339.86</v>
       </c>
       <c r="M168" t="n">
         <v>340.2</v>
@@ -9825,7 +9825,7 @@
         <v>331.11</v>
       </c>
       <c r="L169" t="n">
-        <v>325.57</v>
+        <v>324.67</v>
       </c>
       <c r="M169" t="n">
         <v>322.17</v>
@@ -9891,7 +9891,7 @@
         <v>348.03</v>
       </c>
       <c r="L170" t="n">
-        <v>341.85</v>
+        <v>341.17</v>
       </c>
       <c r="M170" t="n">
         <v>337.8</v>
@@ -9947,7 +9947,7 @@
         <v>333.31</v>
       </c>
       <c r="L171" t="n">
-        <v>331.28</v>
+        <v>331.87</v>
       </c>
       <c r="M171" t="n">
         <v>332.29</v>
@@ -10081,7 +10081,7 @@
         <v>334.43</v>
       </c>
       <c r="L174" t="n">
-        <v>341.14</v>
+        <v>340.82</v>
       </c>
       <c r="M174" t="n">
         <v>343.73</v>
@@ -10199,7 +10199,7 @@
         <v>307.26</v>
       </c>
       <c r="L176" t="n">
-        <v>300.89</v>
+        <v>301.25</v>
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
@@ -10257,7 +10257,7 @@
         <v>333.1</v>
       </c>
       <c r="L177" t="n">
-        <v>336.9</v>
+        <v>337.66</v>
       </c>
       <c r="M177" t="n">
         <v>364.67</v>
@@ -10313,7 +10313,7 @@
         <v>323.1</v>
       </c>
       <c r="L178" t="n">
-        <v>323.13</v>
+        <v>323.87</v>
       </c>
       <c r="M178" t="n">
         <v>333.03</v>
@@ -10371,7 +10371,7 @@
         <v>330.53</v>
       </c>
       <c r="L179" t="n">
-        <v>324.12</v>
+        <v>323.21</v>
       </c>
       <c r="M179" t="n">
         <v>322.9</v>
@@ -10427,7 +10427,7 @@
         <v>337.99</v>
       </c>
       <c r="L180" t="n">
-        <v>339.22</v>
+        <v>339.55</v>
       </c>
       <c r="M180" t="n">
         <v>341.94</v>
@@ -10471,7 +10471,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>335.55</v>
+        <v>335.64</v>
       </c>
       <c r="M181" t="n">
         <v>336.07</v>
@@ -10581,7 +10581,7 @@
         <v>337.55</v>
       </c>
       <c r="L183" t="n">
-        <v>338.62</v>
+        <v>339.27</v>
       </c>
       <c r="M183" t="n">
         <v>342.31</v>
@@ -10639,7 +10639,7 @@
         <v>330.94</v>
       </c>
       <c r="L184" t="n">
-        <v>330.07</v>
+        <v>330.33</v>
       </c>
       <c r="M184" t="n">
         <v>332.19</v>
@@ -10745,7 +10745,7 @@
         <v>322.9</v>
       </c>
       <c r="L186" t="n">
-        <v>320.55</v>
+        <v>321.27</v>
       </c>
       <c r="M186" t="n">
         <v>321.64</v>
@@ -10811,7 +10811,7 @@
         <v>334.06</v>
       </c>
       <c r="L187" t="n">
-        <v>331.45</v>
+        <v>330.85</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
@@ -10867,7 +10867,7 @@
         <v>331.67</v>
       </c>
       <c r="L188" t="n">
-        <v>332.15</v>
+        <v>332.75</v>
       </c>
       <c r="M188" t="n">
         <v>335.14</v>
@@ -10915,7 +10915,7 @@
         <v>318.8</v>
       </c>
       <c r="L189" t="n">
-        <v>320.81</v>
+        <v>320.41</v>
       </c>
       <c r="M189" t="n">
         <v>319.77</v>
@@ -10981,7 +10981,7 @@
         <v>326.65</v>
       </c>
       <c r="L190" t="n">
-        <v>324.97</v>
+        <v>325.57</v>
       </c>
       <c r="M190" t="n">
         <v>326.86</v>
@@ -11027,7 +11027,7 @@
         <v>322.57</v>
       </c>
       <c r="L191" t="n">
-        <v>323.95</v>
+        <v>324.35</v>
       </c>
       <c r="M191" t="n">
         <v>332.73</v>
@@ -11075,7 +11075,7 @@
         <v>327.87</v>
       </c>
       <c r="L192" t="n">
-        <v>322.11</v>
+        <v>321.88</v>
       </c>
       <c r="M192" t="n">
         <v>321.87</v>
@@ -11113,7 +11113,7 @@
         <v>338.32</v>
       </c>
       <c r="L193" t="n">
-        <v>331.3</v>
+        <v>331.35</v>
       </c>
       <c r="M193" t="n">
         <v>327.84</v>
@@ -11163,7 +11163,7 @@
         <v>336.66</v>
       </c>
       <c r="L194" t="n">
-        <v>326.45</v>
+        <v>325.9</v>
       </c>
       <c r="M194" t="n">
         <v>326.1</v>
@@ -11249,7 +11249,7 @@
         <v>325.9</v>
       </c>
       <c r="L196" t="n">
-        <v>324.2</v>
+        <v>324.98</v>
       </c>
       <c r="M196" t="n">
         <v>325.16</v>
@@ -11315,7 +11315,7 @@
         <v>335.74</v>
       </c>
       <c r="L197" t="n">
-        <v>332.99</v>
+        <v>332.48</v>
       </c>
       <c r="M197" t="n">
         <v>329.36</v>
@@ -11381,7 +11381,7 @@
         <v>337.03</v>
       </c>
       <c r="L198" t="n">
-        <v>333.63</v>
+        <v>334.27</v>
       </c>
       <c r="M198" t="n">
         <v>335.99</v>
@@ -11441,7 +11441,7 @@
         <v>338.7</v>
       </c>
       <c r="L199" t="n">
-        <v>335.95</v>
+        <v>335.42</v>
       </c>
       <c r="M199" t="n">
         <v>334.27</v>
@@ -11595,7 +11595,7 @@
         <v>335.33</v>
       </c>
       <c r="L202" t="n">
-        <v>321.58</v>
+        <v>321.44</v>
       </c>
       <c r="M202" t="n">
         <v>314.09</v>
@@ -11661,7 +11661,7 @@
         <v>330.46</v>
       </c>
       <c r="L203" t="n">
-        <v>330.43</v>
+        <v>330.96</v>
       </c>
       <c r="M203" t="n">
         <v>330.94</v>
@@ -11727,7 +11727,7 @@
         <v>336.08</v>
       </c>
       <c r="L204" t="n">
-        <v>332.98</v>
+        <v>333.3</v>
       </c>
       <c r="M204" t="n">
         <v>333.9</v>
@@ -11793,7 +11793,7 @@
         <v>332.81</v>
       </c>
       <c r="L205" t="n">
-        <v>328.36</v>
+        <v>328.12</v>
       </c>
       <c r="M205" t="n">
         <v>327.31</v>
@@ -11859,7 +11859,7 @@
         <v>335.52</v>
       </c>
       <c r="L206" t="n">
-        <v>335.66</v>
+        <v>335.13</v>
       </c>
       <c r="M206" t="n">
         <v>333.74</v>
@@ -11925,7 +11925,7 @@
         <v>330.86</v>
       </c>
       <c r="L207" t="n">
-        <v>331.96</v>
+        <v>332.63</v>
       </c>
       <c r="M207" t="n">
         <v>335.28</v>
@@ -11991,7 +11991,7 @@
         <v>335.02</v>
       </c>
       <c r="L208" t="n">
-        <v>328.28</v>
+        <v>328.33</v>
       </c>
       <c r="M208" t="n">
         <v>330.41</v>
@@ -12057,7 +12057,7 @@
         <v>333.66</v>
       </c>
       <c r="L209" t="n">
-        <v>326.54</v>
+        <v>326.32</v>
       </c>
       <c r="M209" t="n">
         <v>327.75</v>
@@ -12123,7 +12123,7 @@
         <v>328.36</v>
       </c>
       <c r="L210" t="n">
-        <v>328.32</v>
+        <v>328</v>
       </c>
       <c r="M210" t="n">
         <v>320.64</v>
@@ -12161,7 +12161,7 @@
         <v>329.31</v>
       </c>
       <c r="L211" t="n">
-        <v>323.11</v>
+        <v>322.53</v>
       </c>
       <c r="M211" t="n">
         <v>321.15</v>
@@ -12209,7 +12209,7 @@
         <v>315.58</v>
       </c>
       <c r="L212" t="n">
-        <v>313.03</v>
+        <v>313.53</v>
       </c>
       <c r="M212" t="n">
         <v>315.66</v>
@@ -12275,7 +12275,7 @@
         <v>326.01</v>
       </c>
       <c r="L213" t="n">
-        <v>322.95</v>
+        <v>323.46</v>
       </c>
       <c r="M213" t="n">
         <v>316.03</v>
@@ -12321,7 +12321,7 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>323.25</v>
+        <v>322.89</v>
       </c>
       <c r="M214" t="n">
         <v>318.48</v>
@@ -12383,7 +12383,7 @@
         <v>328.73</v>
       </c>
       <c r="L215" t="n">
-        <v>328.49</v>
+        <v>329.05</v>
       </c>
       <c r="M215" t="n">
         <v>332.4</v>
@@ -12473,7 +12473,7 @@
         <v>326.75</v>
       </c>
       <c r="L217" t="n">
-        <v>324.04</v>
+        <v>324.28</v>
       </c>
       <c r="M217" t="n">
         <v>320.15</v>
@@ -12539,7 +12539,7 @@
         <v>325.83</v>
       </c>
       <c r="L218" t="n">
-        <v>326.85</v>
+        <v>327</v>
       </c>
       <c r="M218" t="n">
         <v>322.31</v>
@@ -12597,7 +12597,7 @@
         <v>331.88</v>
       </c>
       <c r="L219" t="n">
-        <v>331.37</v>
+        <v>331.7</v>
       </c>
       <c r="M219" t="n">
         <v>328.43</v>
@@ -12699,7 +12699,7 @@
         <v>326.09</v>
       </c>
       <c r="L221" t="n">
-        <v>322.69</v>
+        <v>323.34</v>
       </c>
       <c r="M221" t="n">
         <v>330.29</v>
@@ -12765,7 +12765,7 @@
         <v>335.7</v>
       </c>
       <c r="L222" t="n">
-        <v>331.03</v>
+        <v>331.85</v>
       </c>
       <c r="M222" t="n">
         <v>338.79</v>
@@ -12831,7 +12831,7 @@
         <v>335.65</v>
       </c>
       <c r="L223" t="n">
-        <v>330.05</v>
+        <v>329.28</v>
       </c>
       <c r="M223" t="n">
         <v>328.85</v>
@@ -12893,7 +12893,7 @@
         <v>334.86</v>
       </c>
       <c r="L224" t="n">
-        <v>328.27</v>
+        <v>327.91</v>
       </c>
       <c r="M224" t="n">
         <v>323.76</v>
@@ -12951,7 +12951,7 @@
         <v>330.09</v>
       </c>
       <c r="L225" t="n">
-        <v>321.92</v>
+        <v>322.75</v>
       </c>
       <c r="M225" t="n">
         <v>325.16</v>
@@ -13009,7 +13009,7 @@
         <v>333.93</v>
       </c>
       <c r="L226" t="n">
-        <v>329.22</v>
+        <v>328.96</v>
       </c>
       <c r="M226" t="n">
         <v>327.31</v>
@@ -13075,7 +13075,7 @@
         <v>336.01</v>
       </c>
       <c r="L227" t="n">
-        <v>329.95</v>
+        <v>330.13</v>
       </c>
       <c r="M227" t="n">
         <v>330.42</v>
@@ -13135,7 +13135,7 @@
         <v>334.66</v>
       </c>
       <c r="L228" t="n">
-        <v>326.4</v>
+        <v>326.39</v>
       </c>
       <c r="M228" t="n">
         <v>321.99</v>
@@ -13191,7 +13191,7 @@
         <v>339.49</v>
       </c>
       <c r="L229" t="n">
-        <v>332.52</v>
+        <v>331.8</v>
       </c>
       <c r="M229" t="n">
         <v>330.79</v>
@@ -13257,7 +13257,7 @@
         <v>347.12</v>
       </c>
       <c r="L230" t="n">
-        <v>340.4</v>
+        <v>339.57</v>
       </c>
       <c r="M230" t="n">
         <v>340.18</v>
@@ -13321,7 +13321,7 @@
         <v>343.35</v>
       </c>
       <c r="L231" t="n">
-        <v>338.26</v>
+        <v>337.53</v>
       </c>
       <c r="M231" t="n">
         <v>335.05</v>
@@ -13383,7 +13383,7 @@
         <v>341.32</v>
       </c>
       <c r="L232" t="n">
-        <v>344.2</v>
+        <v>344.87</v>
       </c>
       <c r="M232" t="n">
         <v>350.1</v>
@@ -13449,7 +13449,7 @@
         <v>337.99</v>
       </c>
       <c r="L233" t="n">
-        <v>336.2</v>
+        <v>335.82</v>
       </c>
       <c r="M233" t="n">
         <v>332.84</v>
@@ -13499,7 +13499,7 @@
         <v>343.63</v>
       </c>
       <c r="L234" t="n">
-        <v>342.9</v>
+        <v>342.71</v>
       </c>
       <c r="M234" t="n">
         <v>337.99</v>
@@ -13565,7 +13565,7 @@
         <v>334.87</v>
       </c>
       <c r="L235" t="n">
-        <v>335.13</v>
+        <v>335.51</v>
       </c>
       <c r="M235" t="n">
         <v>334.18</v>
@@ -13631,7 +13631,7 @@
         <v>329.62</v>
       </c>
       <c r="L236" t="n">
-        <v>321.63</v>
+        <v>321.01</v>
       </c>
       <c r="M236" t="n">
         <v>315.23</v>
@@ -13677,7 +13677,7 @@
         <v>345.9</v>
       </c>
       <c r="L237" t="n">
-        <v>344.7</v>
+        <v>344.12</v>
       </c>
       <c r="M237" t="n">
         <v>333.97</v>
@@ -13855,7 +13855,7 @@
         <v>320.75</v>
       </c>
       <c r="L241" t="n">
-        <v>321.51</v>
+        <v>321.33</v>
       </c>
       <c r="M241" t="n">
         <v>319.14</v>
@@ -13901,7 +13901,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>313.57</v>
+        <v>313.38</v>
       </c>
       <c r="M242" t="n">
         <v>310.77</v>
@@ -13957,7 +13957,7 @@
         <v>324.09</v>
       </c>
       <c r="L243" t="n">
-        <v>323.09</v>
+        <v>323.5</v>
       </c>
       <c r="M243" t="n">
         <v>326.04</v>
@@ -14053,7 +14053,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>319.44</v>
+        <v>319.16</v>
       </c>
       <c r="M245" t="n">
         <v>321.19</v>
@@ -14101,7 +14101,7 @@
         <v>323.38</v>
       </c>
       <c r="L246" t="n">
-        <v>312.41</v>
+        <v>311.91</v>
       </c>
       <c r="M246" t="n">
         <v>309.68</v>
@@ -14149,7 +14149,7 @@
         <v>327.89</v>
       </c>
       <c r="L247" t="n">
-        <v>321.94</v>
+        <v>322.44</v>
       </c>
       <c r="M247" t="n">
         <v>317.88</v>
@@ -14233,7 +14233,7 @@
         <v>332.8</v>
       </c>
       <c r="L249" t="n">
-        <v>327.39</v>
+        <v>327.3</v>
       </c>
       <c r="M249" t="n">
         <v>326.34</v>
@@ -14299,7 +14299,7 @@
         <v>333.88</v>
       </c>
       <c r="L250" t="n">
-        <v>327.12</v>
+        <v>327.11</v>
       </c>
       <c r="M250" t="n">
         <v>327.71</v>
@@ -14427,7 +14427,7 @@
         <v>327.98</v>
       </c>
       <c r="L253" t="n">
-        <v>325.67</v>
+        <v>325.18</v>
       </c>
       <c r="M253" t="n">
         <v>326.89</v>
@@ -14475,7 +14475,7 @@
         <v>328.99</v>
       </c>
       <c r="L254" t="n">
-        <v>324.19</v>
+        <v>323.66</v>
       </c>
       <c r="M254" t="n">
         <v>328.79</v>
@@ -14533,7 +14533,7 @@
         <v>324.51</v>
       </c>
       <c r="L255" t="n">
-        <v>327.35</v>
+        <v>327.99</v>
       </c>
       <c r="M255" t="n">
         <v>328.68</v>
@@ -14591,7 +14591,7 @@
         <v>323.06</v>
       </c>
       <c r="L256" t="n">
-        <v>325.4</v>
+        <v>326.16</v>
       </c>
       <c r="M256" t="n">
         <v>331.88</v>
@@ -14657,7 +14657,7 @@
         <v>323.37</v>
       </c>
       <c r="L257" t="n">
-        <v>321.13</v>
+        <v>320.86</v>
       </c>
       <c r="M257" t="n">
         <v>320.65</v>
@@ -14711,7 +14711,7 @@
         <v>333</v>
       </c>
       <c r="L258" t="n">
-        <v>328.2</v>
+        <v>328.44</v>
       </c>
       <c r="M258" t="n">
         <v>331.6</v>
@@ -14775,7 +14775,7 @@
         <v>332.66</v>
       </c>
       <c r="L259" t="n">
-        <v>327.62</v>
+        <v>327.48</v>
       </c>
       <c r="M259" t="n">
         <v>330.91</v>
@@ -14841,7 +14841,7 @@
         <v>328.43</v>
       </c>
       <c r="L260" t="n">
-        <v>324.8</v>
+        <v>324.75</v>
       </c>
       <c r="M260" t="n">
         <v>327.04</v>
@@ -14949,7 +14949,7 @@
         <v>338.18</v>
       </c>
       <c r="L262" t="n">
-        <v>332.03</v>
+        <v>331.44</v>
       </c>
       <c r="M262" t="n">
         <v>331.28</v>
@@ -15015,7 +15015,7 @@
         <v>331.13</v>
       </c>
       <c r="L263" t="n">
-        <v>331.84</v>
+        <v>332.43</v>
       </c>
       <c r="M263" t="n">
         <v>332.59</v>
@@ -15177,7 +15177,7 @@
         <v>330.06</v>
       </c>
       <c r="L266" t="n">
-        <v>329.99</v>
+        <v>330.64</v>
       </c>
       <c r="M266" t="n">
         <v>335.95</v>
@@ -15243,7 +15243,7 @@
         <v>332.57</v>
       </c>
       <c r="L267" t="n">
-        <v>334.17</v>
+        <v>334.68</v>
       </c>
       <c r="M267" t="n">
         <v>333.58</v>
@@ -15305,7 +15305,7 @@
         <v>335.93</v>
       </c>
       <c r="L268" t="n">
-        <v>330.79</v>
+        <v>331.11</v>
       </c>
       <c r="M268" t="n">
         <v>328.03</v>
@@ -15371,7 +15371,7 @@
         <v>338.12</v>
       </c>
       <c r="L269" t="n">
-        <v>332.22</v>
+        <v>331.98</v>
       </c>
       <c r="M269" t="n">
         <v>337.14</v>
@@ -15459,7 +15459,7 @@
         <v>342.29</v>
       </c>
       <c r="L271" t="n">
-        <v>336.45</v>
+        <v>335.83</v>
       </c>
       <c r="M271" t="n">
         <v>335.05</v>
@@ -15515,7 +15515,7 @@
         <v>341.88</v>
       </c>
       <c r="L272" t="n">
-        <v>338.03</v>
+        <v>338.61</v>
       </c>
       <c r="M272" t="n">
         <v>346.42</v>
@@ -15577,7 +15577,7 @@
         <v>341.31</v>
       </c>
       <c r="L273" t="n">
-        <v>338.9</v>
+        <v>338.55</v>
       </c>
       <c r="M273" t="n">
         <v>338.75</v>
@@ -15627,7 +15627,7 @@
         <v>338.41</v>
       </c>
       <c r="L274" t="n">
-        <v>334.37</v>
+        <v>334.38</v>
       </c>
       <c r="M274" t="n">
         <v>333.78</v>
@@ -15733,7 +15733,7 @@
         <v>340.12</v>
       </c>
       <c r="L276" t="n">
-        <v>337.71</v>
+        <v>338.3</v>
       </c>
       <c r="M276" t="n">
         <v>335.08</v>
@@ -15899,7 +15899,7 @@
         <v>346.51</v>
       </c>
       <c r="L279" t="n">
-        <v>340.06</v>
+        <v>339.46</v>
       </c>
       <c r="M279" t="n">
         <v>336.24</v>
@@ -15947,7 +15947,7 @@
         <v>334.49</v>
       </c>
       <c r="L280" t="n">
-        <v>335.52</v>
+        <v>335.94</v>
       </c>
       <c r="M280" t="n">
         <v>340.24</v>
@@ -16013,7 +16013,7 @@
         <v>327.55</v>
       </c>
       <c r="L281" t="n">
-        <v>325.26</v>
+        <v>325.57</v>
       </c>
       <c r="M281" t="n">
         <v>330.99</v>
@@ -16069,7 +16069,7 @@
         <v>339.89</v>
       </c>
       <c r="L282" t="n">
-        <v>340.48</v>
+        <v>340.43</v>
       </c>
       <c r="M282" t="n">
         <v>337.86</v>
@@ -16135,7 +16135,7 @@
         <v>327.81</v>
       </c>
       <c r="L283" t="n">
-        <v>328.13</v>
+        <v>329.18</v>
       </c>
       <c r="M283" t="n">
         <v>334.85</v>
@@ -16221,7 +16221,7 @@
         <v>333.92</v>
       </c>
       <c r="L285" t="n">
-        <v>331.68</v>
+        <v>332.15</v>
       </c>
       <c r="M285" t="n">
         <v>336.14</v>
@@ -16287,7 +16287,7 @@
         <v>337.43</v>
       </c>
       <c r="L286" t="n">
-        <v>331.88</v>
+        <v>331.6</v>
       </c>
       <c r="M286" t="n">
         <v>329.03</v>
@@ -16335,7 +16335,7 @@
         <v>338.71</v>
       </c>
       <c r="L287" t="n">
-        <v>333.11</v>
+        <v>333.38</v>
       </c>
       <c r="M287" t="n">
         <v>336.98</v>
@@ -16375,7 +16375,7 @@
         <v>325.91</v>
       </c>
       <c r="L288" t="n">
-        <v>324.83</v>
+        <v>324.89</v>
       </c>
       <c r="M288" t="n">
         <v>318.84</v>
@@ -16433,7 +16433,7 @@
         <v>341.77</v>
       </c>
       <c r="L289" t="n">
-        <v>338.81</v>
+        <v>339.48</v>
       </c>
       <c r="M289" t="n">
         <v>342.12</v>
@@ -16499,7 +16499,7 @@
         <v>335.62</v>
       </c>
       <c r="L290" t="n">
-        <v>329.18</v>
+        <v>328.6</v>
       </c>
       <c r="M290" t="n">
         <v>324.25</v>
@@ -16565,7 +16565,7 @@
         <v>340.07</v>
       </c>
       <c r="L291" t="n">
-        <v>337.18</v>
+        <v>338</v>
       </c>
       <c r="M291" t="n">
         <v>343.14</v>
@@ -16629,7 +16629,7 @@
         <v>340.28</v>
       </c>
       <c r="L292" t="n">
-        <v>337.55</v>
+        <v>336.81</v>
       </c>
       <c r="M292" t="n">
         <v>332.63</v>
@@ -16749,7 +16749,7 @@
         <v>342.16</v>
       </c>
       <c r="L294" t="n">
-        <v>340.74</v>
+        <v>340.19</v>
       </c>
       <c r="M294" t="n">
         <v>337.2</v>
@@ -16797,7 +16797,7 @@
         <v>321.45</v>
       </c>
       <c r="L295" t="n">
-        <v>324.64</v>
+        <v>325.31</v>
       </c>
       <c r="M295" t="n">
         <v>328.63</v>
@@ -16845,7 +16845,7 @@
         <v>326.49</v>
       </c>
       <c r="L296" t="n">
-        <v>320.05</v>
+        <v>319.79</v>
       </c>
       <c r="M296" t="n">
         <v>315.39</v>
@@ -16893,7 +16893,7 @@
         <v>336.4</v>
       </c>
       <c r="L297" t="n">
-        <v>334.59</v>
+        <v>335.06</v>
       </c>
       <c r="M297" t="n">
         <v>339.61</v>
@@ -16959,7 +16959,7 @@
         <v>335.78</v>
       </c>
       <c r="L298" t="n">
-        <v>328.25</v>
+        <v>327.7</v>
       </c>
       <c r="M298" t="n">
         <v>329.15</v>
@@ -17023,7 +17023,7 @@
         <v>317.87</v>
       </c>
       <c r="L299" t="n">
-        <v>321.47</v>
+        <v>322.16</v>
       </c>
       <c r="M299" t="n">
         <v>321.47</v>
@@ -17069,7 +17069,7 @@
         <v>347.94</v>
       </c>
       <c r="L300" t="n">
-        <v>347.91</v>
+        <v>347.27</v>
       </c>
       <c r="M300" t="n">
         <v>341.14</v>
@@ -17135,7 +17135,7 @@
         <v>334.87</v>
       </c>
       <c r="L301" t="n">
-        <v>332.08</v>
+        <v>331.23</v>
       </c>
       <c r="M301" t="n">
         <v>329.16</v>
@@ -17185,7 +17185,7 @@
         <v>324.18</v>
       </c>
       <c r="L302" t="n">
-        <v>326.38</v>
+        <v>326.97</v>
       </c>
       <c r="M302" t="n">
         <v>323.06</v>
@@ -17231,7 +17231,7 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
-        <v>333.43</v>
+        <v>332.99</v>
       </c>
       <c r="M303" t="n">
         <v>330.3</v>
@@ -17293,7 +17293,7 @@
         <v>334.92</v>
       </c>
       <c r="L304" t="n">
-        <v>328.29</v>
+        <v>327.91</v>
       </c>
       <c r="M304" t="n">
         <v>328.21</v>
@@ -17339,7 +17339,7 @@
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
-        <v>328.69</v>
+        <v>328.66</v>
       </c>
       <c r="M305" t="n">
         <v>332.64</v>
@@ -17379,7 +17379,7 @@
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
-        <v>324.93</v>
+        <v>324.62</v>
       </c>
       <c r="M306" t="n">
         <v>327.77</v>
@@ -17445,7 +17445,7 @@
         <v>336.19</v>
       </c>
       <c r="L307" t="n">
-        <v>337.16</v>
+        <v>336.75</v>
       </c>
       <c r="M307" t="n">
         <v>334.1</v>
@@ -17489,7 +17489,7 @@
         <v>329.54</v>
       </c>
       <c r="L308" t="n">
-        <v>328.27</v>
+        <v>327.51</v>
       </c>
       <c r="M308" t="n">
         <v>323.06</v>
@@ -17537,7 +17537,7 @@
         <v>332.98</v>
       </c>
       <c r="L309" t="n">
-        <v>336.08</v>
+        <v>335.59</v>
       </c>
       <c r="M309" t="n">
         <v>330.01</v>
@@ -17625,7 +17625,7 @@
         <v>338.64</v>
       </c>
       <c r="L311" t="n">
-        <v>334.03</v>
+        <v>334.67</v>
       </c>
       <c r="M311" t="n">
         <v>335.96</v>
@@ -17691,7 +17691,7 @@
         <v>341.42</v>
       </c>
       <c r="L312" t="n">
-        <v>341.18</v>
+        <v>341.09</v>
       </c>
       <c r="M312" t="n">
         <v>338.92</v>
@@ -17755,7 +17755,7 @@
         <v>320.87</v>
       </c>
       <c r="L313" t="n">
-        <v>320.79</v>
+        <v>321.65</v>
       </c>
       <c r="M313" t="n">
         <v>324.66</v>
@@ -17803,7 +17803,7 @@
         <v>343.69</v>
       </c>
       <c r="L314" t="n">
-        <v>342.48</v>
+        <v>342.92</v>
       </c>
       <c r="M314" t="n">
         <v>346.25</v>
@@ -17851,7 +17851,7 @@
         <v>325.03</v>
       </c>
       <c r="L315" t="n">
-        <v>321.13</v>
+        <v>320.99</v>
       </c>
       <c r="M315" t="n">
         <v>316.28</v>
@@ -17889,7 +17889,7 @@
         <v>333.63</v>
       </c>
       <c r="L316" t="n">
-        <v>330.38</v>
+        <v>330.48</v>
       </c>
       <c r="M316" t="n">
         <v>329.16</v>
@@ -17937,7 +17937,7 @@
         <v>342.56</v>
       </c>
       <c r="L317" t="n">
-        <v>336.97</v>
+        <v>336.39</v>
       </c>
       <c r="M317" t="n">
         <v>333.48</v>
@@ -18003,7 +18003,7 @@
         <v>336.05</v>
       </c>
       <c r="L318" t="n">
-        <v>335.94</v>
+        <v>336.67</v>
       </c>
       <c r="M318" t="n">
         <v>339.65</v>
@@ -18069,7 +18069,7 @@
         <v>332.59</v>
       </c>
       <c r="L319" t="n">
-        <v>332.02</v>
+        <v>331.49</v>
       </c>
       <c r="M319" t="n">
         <v>331.08</v>
@@ -18133,7 +18133,7 @@
         <v>328.09</v>
       </c>
       <c r="L320" t="n">
-        <v>325.17</v>
+        <v>325.75</v>
       </c>
       <c r="M320" t="n">
         <v>325.87</v>
@@ -18179,7 +18179,7 @@
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
-        <v>328.54</v>
+        <v>327.64</v>
       </c>
       <c r="M321" t="n">
         <v>324.98</v>
@@ -18227,7 +18227,7 @@
         <v>335.64</v>
       </c>
       <c r="L322" t="n">
-        <v>328.48</v>
+        <v>328.04</v>
       </c>
       <c r="M322" t="n">
         <v>328.23</v>
@@ -18293,7 +18293,7 @@
         <v>335.15</v>
       </c>
       <c r="L323" t="n">
-        <v>331.24</v>
+        <v>330.89</v>
       </c>
       <c r="M323" t="n">
         <v>330.09</v>
@@ -18341,7 +18341,7 @@
         <v>333.91</v>
       </c>
       <c r="L324" t="n">
-        <v>329.51</v>
+        <v>329.66</v>
       </c>
       <c r="M324" t="n">
         <v>332.25</v>
@@ -18389,7 +18389,7 @@
         <v>334.75</v>
       </c>
       <c r="L325" t="n">
-        <v>335.11</v>
+        <v>334.87</v>
       </c>
       <c r="M325" t="n">
         <v>328.47</v>
@@ -18439,7 +18439,7 @@
         <v>336.31</v>
       </c>
       <c r="L326" t="n">
-        <v>337</v>
+        <v>337.33</v>
       </c>
       <c r="M326" t="n">
         <v>338.09</v>
@@ -18503,7 +18503,7 @@
         <v>322.15</v>
       </c>
       <c r="L327" t="n">
-        <v>322.91</v>
+        <v>323.69</v>
       </c>
       <c r="M327" t="n">
         <v>322.49</v>
@@ -18549,7 +18549,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
-        <v>323.86</v>
+        <v>324.14</v>
       </c>
       <c r="M328" t="n">
         <v>331.18</v>
@@ -18597,7 +18597,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
-        <v>331.99</v>
+        <v>332.26</v>
       </c>
       <c r="M329" t="n">
         <v>339.56</v>
@@ -18643,7 +18643,7 @@
         <v>336.35</v>
       </c>
       <c r="L330" t="n">
-        <v>334.05</v>
+        <v>333.54</v>
       </c>
       <c r="M330" t="n">
         <v>332.48</v>
@@ -18691,7 +18691,7 @@
         <v>323.54</v>
       </c>
       <c r="L331" t="n">
-        <v>328.3</v>
+        <v>328.81</v>
       </c>
       <c r="M331" t="n">
         <v>323.85</v>
@@ -18739,7 +18739,7 @@
         <v>335.46</v>
       </c>
       <c r="L332" t="n">
-        <v>337.41</v>
+        <v>337.94</v>
       </c>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr"/>
@@ -18777,7 +18777,7 @@
         <v>333.01</v>
       </c>
       <c r="L333" t="n">
-        <v>329.42</v>
+        <v>329.73</v>
       </c>
       <c r="M333" t="n">
         <v>328.58</v>
@@ -18843,7 +18843,7 @@
         <v>335.24</v>
       </c>
       <c r="L334" t="n">
-        <v>328.34</v>
+        <v>328.31</v>
       </c>
       <c r="M334" t="n">
         <v>326.8</v>
@@ -18953,7 +18953,7 @@
         <v>340.67</v>
       </c>
       <c r="L336" t="n">
-        <v>338.08</v>
+        <v>338.63</v>
       </c>
       <c r="M336" t="n">
         <v>337.41</v>
@@ -19059,7 +19059,7 @@
         <v>341.4</v>
       </c>
       <c r="L338" t="n">
-        <v>334.67</v>
+        <v>333.91</v>
       </c>
       <c r="M338" t="n">
         <v>323.3</v>
@@ -19107,7 +19107,7 @@
         <v>337.86</v>
       </c>
       <c r="L339" t="n">
-        <v>335.04</v>
+        <v>334.72</v>
       </c>
       <c r="M339" t="n">
         <v>333.01</v>
@@ -19161,7 +19161,7 @@
         <v>331.07</v>
       </c>
       <c r="L340" t="n">
-        <v>326.73</v>
+        <v>326.97</v>
       </c>
       <c r="M340" t="n">
         <v>324.6</v>
@@ -19209,7 +19209,7 @@
         <v>341.73</v>
       </c>
       <c r="L341" t="n">
-        <v>340.1</v>
+        <v>339.92</v>
       </c>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr"/>
@@ -19247,7 +19247,7 @@
         <v>339.2</v>
       </c>
       <c r="L342" t="n">
-        <v>339.76</v>
+        <v>339.94</v>
       </c>
       <c r="M342" t="n">
         <v>336.27</v>
@@ -19293,7 +19293,7 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
-        <v>337.34</v>
+        <v>336.72</v>
       </c>
       <c r="M343" t="n">
         <v>333.43</v>
@@ -19343,7 +19343,7 @@
         <v>324.64</v>
       </c>
       <c r="L344" t="n">
-        <v>307.75</v>
+        <v>308.34</v>
       </c>
       <c r="M344" t="n">
         <v>322.76</v>
@@ -19419,7 +19419,7 @@
         <v>346.52</v>
       </c>
       <c r="L346" t="n">
-        <v>339.51</v>
+        <v>338.66</v>
       </c>
       <c r="M346" t="n">
         <v>333.38</v>
@@ -19467,7 +19467,7 @@
         <v>338.03</v>
       </c>
       <c r="L347" t="n">
-        <v>337.83</v>
+        <v>338.43</v>
       </c>
       <c r="M347" t="n">
         <v>335.12</v>
@@ -19519,7 +19519,7 @@
         <v>332.83</v>
       </c>
       <c r="L348" t="n">
-        <v>326.05</v>
+        <v>325.93</v>
       </c>
       <c r="M348" t="n">
         <v>329.07</v>
@@ -19567,7 +19567,7 @@
         <v>337.32</v>
       </c>
       <c r="L349" t="n">
-        <v>334.01</v>
+        <v>333.83</v>
       </c>
       <c r="M349" t="n">
         <v>330.92</v>
@@ -19615,7 +19615,7 @@
         <v>339.89</v>
       </c>
       <c r="L350" t="n">
-        <v>329.32</v>
+        <v>329.74</v>
       </c>
       <c r="M350" t="n">
         <v>329.3</v>
@@ -19655,7 +19655,7 @@
         <v>327.12</v>
       </c>
       <c r="L351" t="n">
-        <v>330.02</v>
+        <v>330.74</v>
       </c>
       <c r="M351" t="n">
         <v>323.8</v>
@@ -19701,7 +19701,7 @@
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
-        <v>334</v>
+        <v>333.28</v>
       </c>
       <c r="M352" t="n">
         <v>332.17</v>
@@ -19783,7 +19783,7 @@
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
-        <v>320.18</v>
+        <v>319.76</v>
       </c>
       <c r="M354" t="n">
         <v>321.13</v>
@@ -19875,7 +19875,7 @@
         <v>333.73</v>
       </c>
       <c r="L356" t="n">
-        <v>325.33</v>
+        <v>324.92</v>
       </c>
       <c r="M356" t="n">
         <v>319.77</v>
@@ -19921,7 +19921,7 @@
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
-        <v>334.89</v>
+        <v>335.03</v>
       </c>
       <c r="M357" t="n">
         <v>337.18</v>
@@ -20007,7 +20007,7 @@
         <v>338.32</v>
       </c>
       <c r="L359" t="n">
-        <v>332.54</v>
+        <v>332.18</v>
       </c>
       <c r="M359" t="n">
         <v>332.68</v>
@@ -20055,7 +20055,7 @@
         <v>331.47</v>
       </c>
       <c r="L360" t="n">
-        <v>328.81</v>
+        <v>329.46</v>
       </c>
       <c r="M360" t="n">
         <v>333.86</v>
@@ -20097,7 +20097,7 @@
         <v>333.94</v>
       </c>
       <c r="L361" t="n">
-        <v>334.89</v>
+        <v>335.7</v>
       </c>
       <c r="M361" t="n">
         <v>337.97</v>
@@ -20163,7 +20163,7 @@
         <v>333.97</v>
       </c>
       <c r="L362" t="n">
-        <v>336.07</v>
+        <v>336.89</v>
       </c>
       <c r="M362" t="n">
         <v>335.08</v>
@@ -20229,7 +20229,7 @@
         <v>343.43</v>
       </c>
       <c r="L363" t="n">
-        <v>336.32</v>
+        <v>336.04</v>
       </c>
       <c r="M363" t="n">
         <v>333.17</v>
@@ -20283,7 +20283,7 @@
         <v>352.9</v>
       </c>
       <c r="L364" t="n">
-        <v>348.25</v>
+        <v>347.75</v>
       </c>
       <c r="M364" t="n">
         <v>337.65</v>
@@ -20335,7 +20335,7 @@
         <v>348.71</v>
       </c>
       <c r="L365" t="n">
-        <v>345.45</v>
+        <v>344.9</v>
       </c>
       <c r="M365" t="n">
         <v>340.17</v>
@@ -20383,7 +20383,7 @@
         <v>330.97</v>
       </c>
       <c r="L366" t="n">
-        <v>327.61</v>
+        <v>327.96</v>
       </c>
       <c r="M366" t="n">
         <v>327.28</v>
@@ -20419,7 +20419,7 @@
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
-        <v>340.36</v>
+        <v>339.83</v>
       </c>
       <c r="M367" t="n">
         <v>338.04</v>
@@ -20467,7 +20467,7 @@
         <v>340.07</v>
       </c>
       <c r="L368" t="n">
-        <v>339.82</v>
+        <v>340.54</v>
       </c>
       <c r="M368" t="n">
         <v>343.02</v>
@@ -20533,7 +20533,7 @@
         <v>336.05</v>
       </c>
       <c r="L369" t="n">
-        <v>334.39</v>
+        <v>335.27</v>
       </c>
       <c r="M369" t="n">
         <v>340.8</v>
@@ -20613,7 +20613,7 @@
         <v>322.44</v>
       </c>
       <c r="L371" t="n">
-        <v>318.22</v>
+        <v>318.81</v>
       </c>
       <c r="M371" t="n">
         <v>313.21</v>
@@ -20679,7 +20679,7 @@
         <v>316.84</v>
       </c>
       <c r="L372" t="n">
-        <v>315.19</v>
+        <v>315.37</v>
       </c>
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr"/>
@@ -20805,7 +20805,7 @@
         <v>321.4</v>
       </c>
       <c r="L375" t="n">
-        <v>320.91</v>
+        <v>321.35</v>
       </c>
       <c r="M375" t="n">
         <v>322.08</v>
@@ -20849,7 +20849,7 @@
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
-        <v>339.11</v>
+        <v>338.53</v>
       </c>
       <c r="M376" t="n">
         <v>333.53</v>
@@ -20899,7 +20899,7 @@
         <v>323.11</v>
       </c>
       <c r="L377" t="n">
-        <v>324.21</v>
+        <v>324.44</v>
       </c>
       <c r="M377" t="n">
         <v>329.27</v>
@@ -20987,7 +20987,7 @@
         <v>338.37</v>
       </c>
       <c r="L379" t="n">
-        <v>341.57</v>
+        <v>341.25</v>
       </c>
       <c r="M379" t="n">
         <v>339.78</v>
@@ -21035,7 +21035,7 @@
         <v>328.97</v>
       </c>
       <c r="L380" t="n">
-        <v>326.81</v>
+        <v>326.25</v>
       </c>
       <c r="M380" t="n">
         <v>318.23</v>
@@ -21077,7 +21077,7 @@
         <v>327.98</v>
       </c>
       <c r="L381" t="n">
-        <v>321.87</v>
+        <v>321.32</v>
       </c>
       <c r="M381" t="n">
         <v>317.29</v>
@@ -21123,7 +21123,7 @@
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
-        <v>333.69</v>
+        <v>334.33</v>
       </c>
       <c r="M382" t="n">
         <v>334.49</v>
@@ -21171,7 +21171,7 @@
         <v>343.42</v>
       </c>
       <c r="L383" t="n">
-        <v>338.57</v>
+        <v>337.75</v>
       </c>
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
-        <v>340.09</v>
+        <v>340.95</v>
       </c>
       <c r="M384" t="n">
         <v>346.07</v>
@@ -21257,7 +21257,7 @@
         <v>341.64</v>
       </c>
       <c r="L385" t="n">
-        <v>345.73</v>
+        <v>345.45</v>
       </c>
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr"/>
@@ -21315,7 +21315,7 @@
         <v>323.07</v>
       </c>
       <c r="L386" t="n">
-        <v>330.91</v>
+        <v>331.67</v>
       </c>
       <c r="M386" t="n">
         <v>331.98</v>
@@ -21363,7 +21363,7 @@
         <v>337.84</v>
       </c>
       <c r="L387" t="n">
-        <v>336.96</v>
+        <v>337.19</v>
       </c>
       <c r="M387" t="n">
         <v>337.57</v>
@@ -21403,7 +21403,7 @@
         <v>332.43</v>
       </c>
       <c r="L388" t="n">
-        <v>328.17</v>
+        <v>327.35</v>
       </c>
       <c r="M388" t="n">
         <v>329.33</v>
@@ -21469,7 +21469,7 @@
         <v>337.59</v>
       </c>
       <c r="L389" t="n">
-        <v>336.67</v>
+        <v>337.29</v>
       </c>
       <c r="M389" t="n">
         <v>336.42</v>
@@ -21535,7 +21535,7 @@
         <v>333.63</v>
       </c>
       <c r="L390" t="n">
-        <v>330.9</v>
+        <v>330.5</v>
       </c>
       <c r="M390" t="n">
         <v>329.7</v>
@@ -21631,7 +21631,7 @@
         <v>328.45</v>
       </c>
       <c r="L392" t="n">
-        <v>328.31</v>
+        <v>327.81</v>
       </c>
       <c r="M392" t="n">
         <v>329.72</v>
@@ -21675,7 +21675,7 @@
         <v>337.84</v>
       </c>
       <c r="L393" t="n">
-        <v>335.36</v>
+        <v>335.63</v>
       </c>
       <c r="M393" t="n">
         <v>337.83</v>
@@ -21759,7 +21759,7 @@
         <v>330.51</v>
       </c>
       <c r="L395" t="n">
-        <v>333.89</v>
+        <v>333.39</v>
       </c>
       <c r="M395" t="n">
         <v>332.86</v>
@@ -21825,7 +21825,7 @@
         <v>331.92</v>
       </c>
       <c r="L396" t="n">
-        <v>330.37</v>
+        <v>330.82</v>
       </c>
       <c r="M396" t="n">
         <v>336.54</v>
@@ -21953,7 +21953,7 @@
         <v>323.4</v>
       </c>
       <c r="L399" t="n">
-        <v>328.42</v>
+        <v>328.83</v>
       </c>
       <c r="M399" t="n">
         <v>354.68</v>
@@ -22053,7 +22053,7 @@
         <v>330.46</v>
       </c>
       <c r="L401" t="n">
-        <v>327.64</v>
+        <v>326.88</v>
       </c>
       <c r="M401" t="n">
         <v>328.56</v>
@@ -22155,7 +22155,7 @@
         <v>317.26</v>
       </c>
       <c r="L403" t="n">
-        <v>316.73</v>
+        <v>317.24</v>
       </c>
       <c r="M403" t="n">
         <v>319.93</v>
@@ -22207,7 +22207,7 @@
         <v>328.46</v>
       </c>
       <c r="L404" t="n">
-        <v>331.46</v>
+        <v>331.51</v>
       </c>
       <c r="M404" t="n">
         <v>327.8</v>
@@ -22249,7 +22249,7 @@
         <v>326.59</v>
       </c>
       <c r="L405" t="n">
-        <v>321.08</v>
+        <v>320.75</v>
       </c>
       <c r="M405" t="n">
         <v>322.76</v>
@@ -22355,7 +22355,7 @@
         <v>333.47</v>
       </c>
       <c r="L407" t="n">
-        <v>333.49</v>
+        <v>334.21</v>
       </c>
       <c r="M407" t="n">
         <v>338.72</v>
@@ -22483,7 +22483,7 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
-        <v>345.35</v>
+        <v>344.85</v>
       </c>
       <c r="M410" t="n">
         <v>337.53</v>
@@ -22549,7 +22549,7 @@
         <v>335.22</v>
       </c>
       <c r="L411" t="n">
-        <v>332.71</v>
+        <v>333.07</v>
       </c>
       <c r="M411" t="n">
         <v>334.59</v>
@@ -22615,7 +22615,7 @@
         <v>333.89</v>
       </c>
       <c r="L412" t="n">
-        <v>331.59</v>
+        <v>331.62</v>
       </c>
       <c r="M412" t="n">
         <v>332.61</v>
@@ -22681,7 +22681,7 @@
         <v>326.31</v>
       </c>
       <c r="L413" t="n">
-        <v>332.51</v>
+        <v>333.42</v>
       </c>
       <c r="M413" t="n">
         <v>335.21</v>
@@ -22729,7 +22729,7 @@
         <v>335.37</v>
       </c>
       <c r="L414" t="n">
-        <v>333.92</v>
+        <v>333.45</v>
       </c>
       <c r="M414" t="n">
         <v>327.71</v>
@@ -22795,7 +22795,7 @@
         <v>340.56</v>
       </c>
       <c r="L415" t="n">
-        <v>336.64</v>
+        <v>336.14</v>
       </c>
       <c r="M415" t="n">
         <v>326.05</v>
@@ -22857,7 +22857,7 @@
         <v>336.27</v>
       </c>
       <c r="L416" t="n">
-        <v>335.81</v>
+        <v>335.25</v>
       </c>
       <c r="M416" t="n">
         <v>331.51</v>
@@ -22923,7 +22923,7 @@
         <v>338.27</v>
       </c>
       <c r="L417" t="n">
-        <v>338.31</v>
+        <v>337.45</v>
       </c>
       <c r="M417" t="n">
         <v>335.35</v>
@@ -22971,7 +22971,7 @@
         <v>335.97</v>
       </c>
       <c r="L418" t="n">
-        <v>337.06</v>
+        <v>336.98</v>
       </c>
       <c r="M418" t="n">
         <v>334.15</v>
@@ -23011,7 +23011,7 @@
         <v>341.04</v>
       </c>
       <c r="L419" t="n">
-        <v>336.79</v>
+        <v>336.37</v>
       </c>
       <c r="M419" t="n">
         <v>333.07</v>
@@ -23059,7 +23059,7 @@
         <v>330.37</v>
       </c>
       <c r="L420" t="n">
-        <v>332.48</v>
+        <v>333.15</v>
       </c>
       <c r="M420" t="n">
         <v>333.65</v>
@@ -23107,7 +23107,7 @@
         <v>336.1</v>
       </c>
       <c r="L421" t="n">
-        <v>334.69</v>
+        <v>335.1</v>
       </c>
       <c r="M421" t="n">
         <v>334.95</v>
@@ -23203,7 +23203,7 @@
         <v>327.3</v>
       </c>
       <c r="L423" t="n">
-        <v>328.05</v>
+        <v>327.93</v>
       </c>
       <c r="M423" t="n">
         <v>328.18</v>
@@ -23251,7 +23251,7 @@
         <v>333.74</v>
       </c>
       <c r="L424" t="n">
-        <v>331.58</v>
+        <v>331.05</v>
       </c>
       <c r="M424" t="n">
         <v>328.87</v>
@@ -23299,7 +23299,7 @@
         <v>331.08</v>
       </c>
       <c r="L425" t="n">
-        <v>326.18</v>
+        <v>325.69</v>
       </c>
       <c r="M425" t="n">
         <v>325.32</v>
@@ -23345,7 +23345,7 @@
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
-        <v>332.33</v>
+        <v>333.06</v>
       </c>
       <c r="M426" t="n">
         <v>335.64</v>
@@ -23409,7 +23409,7 @@
         <v>336.86</v>
       </c>
       <c r="L427" t="n">
-        <v>325.39</v>
+        <v>324.72</v>
       </c>
       <c r="M427" t="n">
         <v>320.8</v>
@@ -23457,7 +23457,7 @@
         <v>331.73</v>
       </c>
       <c r="L428" t="n">
-        <v>325.53</v>
+        <v>324.86</v>
       </c>
       <c r="M428" t="n">
         <v>322.3</v>
@@ -23549,7 +23549,7 @@
         <v>323.77</v>
       </c>
       <c r="L430" t="n">
-        <v>335.18</v>
+        <v>335.74</v>
       </c>
       <c r="M430" t="inlineStr"/>
       <c r="N430" t="inlineStr"/>
@@ -23601,7 +23601,7 @@
         <v>334.73</v>
       </c>
       <c r="L431" t="n">
-        <v>337.12</v>
+        <v>337.48</v>
       </c>
       <c r="M431" t="n">
         <v>332.95</v>
@@ -23735,7 +23735,7 @@
         <v>329.9</v>
       </c>
       <c r="L434" t="n">
-        <v>326.85</v>
+        <v>326.53</v>
       </c>
       <c r="M434" t="n">
         <v>325</v>
@@ -23783,7 +23783,7 @@
         <v>325.55</v>
       </c>
       <c r="L435" t="n">
-        <v>325.51</v>
+        <v>325.52</v>
       </c>
       <c r="M435" t="n">
         <v>325.83</v>
@@ -23887,7 +23887,7 @@
         <v>327.64</v>
       </c>
       <c r="L437" t="n">
-        <v>326.18</v>
+        <v>326.69</v>
       </c>
       <c r="M437" t="n">
         <v>327.7</v>
@@ -23935,7 +23935,7 @@
         <v>323.48</v>
       </c>
       <c r="L438" t="n">
-        <v>320.42</v>
+        <v>320.8</v>
       </c>
       <c r="M438" t="n">
         <v>317.85</v>
@@ -23983,7 +23983,7 @@
         <v>322.63</v>
       </c>
       <c r="L439" t="n">
-        <v>331.23</v>
+        <v>331.14</v>
       </c>
       <c r="M439" t="n">
         <v>332.57</v>
@@ -24073,7 +24073,7 @@
         <v>333.14</v>
       </c>
       <c r="L441" t="n">
-        <v>334.02</v>
+        <v>334.8</v>
       </c>
       <c r="M441" t="n">
         <v>336.48</v>
@@ -24171,7 +24171,7 @@
         <v>329.93</v>
       </c>
       <c r="L443" t="n">
-        <v>327.53</v>
+        <v>328.29</v>
       </c>
       <c r="M443" t="n">
         <v>334.26</v>
@@ -24209,7 +24209,7 @@
         <v>324.9</v>
       </c>
       <c r="L444" t="n">
-        <v>322.41</v>
+        <v>322.1</v>
       </c>
       <c r="M444" t="n">
         <v>321.08</v>
@@ -24275,7 +24275,7 @@
         <v>333.96</v>
       </c>
       <c r="L445" t="n">
-        <v>331.6</v>
+        <v>331.51</v>
       </c>
       <c r="M445" t="n">
         <v>331.7</v>
@@ -24417,7 +24417,7 @@
         <v>321.73</v>
       </c>
       <c r="L448" t="n">
-        <v>326.04</v>
+        <v>326.77</v>
       </c>
       <c r="M448" t="n">
         <v>333.59</v>
@@ -24465,7 +24465,7 @@
         <v>335.68</v>
       </c>
       <c r="L449" t="n">
-        <v>334.53</v>
+        <v>335.22</v>
       </c>
       <c r="M449" t="n">
         <v>337.32</v>
@@ -24531,7 +24531,7 @@
         <v>336.23</v>
       </c>
       <c r="L450" t="n">
-        <v>332.53</v>
+        <v>331.88</v>
       </c>
       <c r="M450" t="n">
         <v>332.58</v>
@@ -24597,7 +24597,7 @@
         <v>335.89</v>
       </c>
       <c r="L451" t="n">
-        <v>332.02</v>
+        <v>331.34</v>
       </c>
       <c r="M451" t="n">
         <v>330.44</v>
@@ -24663,7 +24663,7 @@
         <v>325.82</v>
       </c>
       <c r="L452" t="n">
-        <v>332.43</v>
+        <v>333.26</v>
       </c>
       <c r="M452" t="n">
         <v>335.89</v>
@@ -24729,7 +24729,7 @@
         <v>336.7</v>
       </c>
       <c r="L453" t="n">
-        <v>335.78</v>
+        <v>335.88</v>
       </c>
       <c r="M453" t="n">
         <v>338.99</v>
@@ -24861,7 +24861,7 @@
         <v>342.6</v>
       </c>
       <c r="L455" t="n">
-        <v>339.24</v>
+        <v>338.91</v>
       </c>
       <c r="M455" t="n">
         <v>340.14</v>
@@ -24949,7 +24949,7 @@
         <v>339.31</v>
       </c>
       <c r="L457" t="n">
-        <v>338.41</v>
+        <v>338.4</v>
       </c>
       <c r="M457" t="n">
         <v>339.71</v>
@@ -25015,7 +25015,7 @@
         <v>336</v>
       </c>
       <c r="L458" t="n">
-        <v>336.57</v>
+        <v>337.07</v>
       </c>
       <c r="M458" t="n">
         <v>341.56</v>
@@ -25061,7 +25061,7 @@
         <v>337.84</v>
       </c>
       <c r="L459" t="n">
-        <v>336.3</v>
+        <v>336.61</v>
       </c>
       <c r="M459" t="n">
         <v>336.25</v>
@@ -25099,7 +25099,7 @@
         <v>333.68</v>
       </c>
       <c r="L460" t="n">
-        <v>333.23</v>
+        <v>333.79</v>
       </c>
       <c r="M460" t="n">
         <v>338.86</v>
@@ -25165,7 +25165,7 @@
         <v>333.62</v>
       </c>
       <c r="L461" t="n">
-        <v>324.81</v>
+        <v>324.36</v>
       </c>
       <c r="M461" t="n">
         <v>320.83</v>
@@ -25213,7 +25213,7 @@
         <v>329.38</v>
       </c>
       <c r="L462" t="n">
-        <v>325.53</v>
+        <v>325.62</v>
       </c>
       <c r="M462" t="n">
         <v>328.82</v>
@@ -25261,7 +25261,7 @@
         <v>339.41</v>
       </c>
       <c r="L463" t="n">
-        <v>337.59</v>
+        <v>337.1</v>
       </c>
       <c r="M463" t="n">
         <v>335.67</v>
@@ -25309,7 +25309,7 @@
         <v>320.77</v>
       </c>
       <c r="L464" t="n">
-        <v>324</v>
+        <v>324.53</v>
       </c>
       <c r="M464" t="n">
         <v>327.73</v>
@@ -25467,7 +25467,7 @@
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
-        <v>331.98</v>
+        <v>332.63</v>
       </c>
       <c r="M468" t="n">
         <v>336.76</v>
@@ -25515,7 +25515,7 @@
         <v>323.56</v>
       </c>
       <c r="L469" t="n">
-        <v>323.25</v>
+        <v>323.58</v>
       </c>
       <c r="M469" t="n">
         <v>327.93</v>
@@ -25581,7 +25581,7 @@
         <v>331.01</v>
       </c>
       <c r="L470" t="n">
-        <v>334.02</v>
+        <v>334.12</v>
       </c>
       <c r="M470" t="n">
         <v>335.7</v>
@@ -25673,7 +25673,7 @@
         <v>335.49</v>
       </c>
       <c r="L472" t="n">
-        <v>339.85</v>
+        <v>339.43</v>
       </c>
       <c r="M472" t="n">
         <v>335.42</v>
@@ -25721,7 +25721,7 @@
         <v>329.49</v>
       </c>
       <c r="L473" t="n">
-        <v>328.43</v>
+        <v>327.92</v>
       </c>
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr"/>
@@ -25773,7 +25773,7 @@
         <v>327.25</v>
       </c>
       <c r="L474" t="n">
-        <v>321.48</v>
+        <v>322.03</v>
       </c>
       <c r="M474" t="n">
         <v>327.45</v>
@@ -25821,7 +25821,7 @@
         <v>341.88</v>
       </c>
       <c r="L475" t="n">
-        <v>341.16</v>
+        <v>341.97</v>
       </c>
       <c r="M475" t="n">
         <v>339.88</v>
@@ -25869,7 +25869,7 @@
         <v>335.03</v>
       </c>
       <c r="L476" t="n">
-        <v>340.05</v>
+        <v>340.63</v>
       </c>
       <c r="M476" t="n">
         <v>342.72</v>
@@ -25917,7 +25917,7 @@
         <v>332.66</v>
       </c>
       <c r="L477" t="n">
-        <v>330.16</v>
+        <v>329.72</v>
       </c>
       <c r="M477" t="n">
         <v>327.54</v>
@@ -25983,7 +25983,7 @@
         <v>327.09</v>
       </c>
       <c r="L478" t="n">
-        <v>326.4</v>
+        <v>326.72</v>
       </c>
       <c r="M478" t="n">
         <v>330.35</v>
@@ -26031,7 +26031,7 @@
         <v>321.6</v>
       </c>
       <c r="L479" t="n">
-        <v>317.33</v>
+        <v>317.36</v>
       </c>
       <c r="M479" t="n">
         <v>321.26</v>
@@ -26097,7 +26097,7 @@
         <v>333.28</v>
       </c>
       <c r="L480" t="n">
-        <v>324.84</v>
+        <v>324.99</v>
       </c>
       <c r="M480" t="n">
         <v>324.42</v>
@@ -26145,7 +26145,7 @@
         <v>331.34</v>
       </c>
       <c r="L481" t="n">
-        <v>313.56</v>
+        <v>313.78</v>
       </c>
       <c r="M481" t="n">
         <v>328.68</v>
@@ -26211,7 +26211,7 @@
         <v>337.29</v>
       </c>
       <c r="L482" t="n">
-        <v>331.32</v>
+        <v>330.94</v>
       </c>
       <c r="M482" t="n">
         <v>329.09</v>
@@ -26277,7 +26277,7 @@
         <v>324.18</v>
       </c>
       <c r="L483" t="n">
-        <v>323</v>
+        <v>323.6</v>
       </c>
       <c r="M483" t="n">
         <v>327.37</v>
@@ -26325,7 +26325,7 @@
         <v>335.12</v>
       </c>
       <c r="L484" t="n">
-        <v>331.16</v>
+        <v>330.43</v>
       </c>
       <c r="M484" t="n">
         <v>328.05</v>
@@ -26435,7 +26435,7 @@
         <v>339.52</v>
       </c>
       <c r="L486" t="n">
-        <v>345.1</v>
+        <v>344.61</v>
       </c>
       <c r="M486" t="n">
         <v>339.39</v>
@@ -26481,7 +26481,7 @@
         <v>333.48</v>
       </c>
       <c r="L487" t="n">
-        <v>333.8</v>
+        <v>334.24</v>
       </c>
       <c r="M487" t="n">
         <v>334.74</v>
@@ -26527,7 +26527,7 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
-        <v>335.91</v>
+        <v>335.49</v>
       </c>
       <c r="M488" t="n">
         <v>329.71</v>
@@ -26593,7 +26593,7 @@
         <v>342.42</v>
       </c>
       <c r="L489" t="n">
-        <v>336.55</v>
+        <v>335.96</v>
       </c>
       <c r="M489" t="n">
         <v>335.23</v>
@@ -26659,7 +26659,7 @@
         <v>335.17</v>
       </c>
       <c r="L490" t="n">
-        <v>332.87</v>
+        <v>332.06</v>
       </c>
       <c r="M490" t="n">
         <v>325.67</v>
@@ -26739,7 +26739,7 @@
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
-        <v>332.92</v>
+        <v>333.24</v>
       </c>
       <c r="M492" t="n">
         <v>330.2</v>
@@ -26787,7 +26787,7 @@
         <v>336.9</v>
       </c>
       <c r="L493" t="n">
-        <v>337.35</v>
+        <v>337.38</v>
       </c>
       <c r="M493" t="n">
         <v>340.32</v>
@@ -26835,7 +26835,7 @@
         <v>349.08</v>
       </c>
       <c r="L494" t="n">
-        <v>343.77</v>
+        <v>343.65</v>
       </c>
       <c r="M494" t="n">
         <v>328.53</v>
@@ -26881,7 +26881,7 @@
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
-        <v>338.03</v>
+        <v>338.13</v>
       </c>
       <c r="M495" t="n">
         <v>335.56</v>
@@ -26929,7 +26929,7 @@
         <v>329.71</v>
       </c>
       <c r="L496" t="n">
-        <v>324.87</v>
+        <v>324.47</v>
       </c>
       <c r="M496" t="n">
         <v>319.47</v>
@@ -26995,7 +26995,7 @@
         <v>333.92</v>
       </c>
       <c r="L497" t="n">
-        <v>329.12</v>
+        <v>328.76</v>
       </c>
       <c r="M497" t="n">
         <v>327.65</v>
@@ -27043,7 +27043,7 @@
         <v>332.68</v>
       </c>
       <c r="L498" t="n">
-        <v>331.38</v>
+        <v>330.69</v>
       </c>
       <c r="M498" t="n">
         <v>328.65</v>
@@ -27135,7 +27135,7 @@
         <v>328.67</v>
       </c>
       <c r="L500" t="n">
-        <v>318.91</v>
+        <v>318.42</v>
       </c>
       <c r="M500" t="n">
         <v>321.09</v>
@@ -27181,7 +27181,7 @@
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
-        <v>315.86</v>
+        <v>315.64</v>
       </c>
       <c r="M501" t="n">
         <v>316.09</v>
@@ -27229,7 +27229,7 @@
         <v>335.66</v>
       </c>
       <c r="L502" t="n">
-        <v>328.6</v>
+        <v>328.15</v>
       </c>
       <c r="M502" t="n">
         <v>332.89</v>
@@ -27277,7 +27277,7 @@
         <v>323.84</v>
       </c>
       <c r="L503" t="n">
-        <v>325.26</v>
+        <v>325.85</v>
       </c>
       <c r="M503" t="n">
         <v>328.33</v>
@@ -27325,7 +27325,7 @@
         <v>336.36</v>
       </c>
       <c r="L504" t="n">
-        <v>334.07</v>
+        <v>333.26</v>
       </c>
       <c r="M504" t="n">
         <v>332.27</v>
@@ -27389,7 +27389,7 @@
         <v>331.14</v>
       </c>
       <c r="L505" t="n">
-        <v>332.75</v>
+        <v>333.65</v>
       </c>
       <c r="M505" t="n">
         <v>339.04</v>
@@ -27437,7 +27437,7 @@
         <v>338.84</v>
       </c>
       <c r="L506" t="n">
-        <v>337.05</v>
+        <v>337.69</v>
       </c>
       <c r="M506" t="n">
         <v>337.66</v>
@@ -27503,7 +27503,7 @@
         <v>341.87</v>
       </c>
       <c r="L507" t="n">
-        <v>336.06</v>
+        <v>335.53</v>
       </c>
       <c r="M507" t="n">
         <v>335.02</v>
@@ -27569,7 +27569,7 @@
         <v>342.55</v>
       </c>
       <c r="L508" t="n">
-        <v>336.3</v>
+        <v>336.27</v>
       </c>
       <c r="M508" t="n">
         <v>339.34</v>
@@ -27635,7 +27635,7 @@
         <v>337.58</v>
       </c>
       <c r="L509" t="n">
-        <v>336.22</v>
+        <v>336.46</v>
       </c>
       <c r="M509" t="n">
         <v>341.52</v>
@@ -27701,7 +27701,7 @@
         <v>344.8</v>
       </c>
       <c r="L510" t="n">
-        <v>342.83</v>
+        <v>342.59</v>
       </c>
       <c r="M510" t="n">
         <v>340.07</v>
@@ -27767,7 +27767,7 @@
         <v>340.71</v>
       </c>
       <c r="L511" t="n">
-        <v>337.6</v>
+        <v>338.18</v>
       </c>
       <c r="M511" t="n">
         <v>336.1</v>
@@ -27815,7 +27815,7 @@
         <v>329.86</v>
       </c>
       <c r="L512" t="n">
-        <v>327.31</v>
+        <v>327.86</v>
       </c>
       <c r="M512" t="n">
         <v>329.26</v>
@@ -27881,7 +27881,7 @@
         <v>333.12</v>
       </c>
       <c r="L513" t="n">
-        <v>334.09</v>
+        <v>334.87</v>
       </c>
       <c r="M513" t="n">
         <v>334.19</v>
@@ -27945,7 +27945,7 @@
         <v>333.16</v>
       </c>
       <c r="L514" t="n">
-        <v>324.39</v>
+        <v>323.81</v>
       </c>
       <c r="M514" t="n">
         <v>324.12</v>
@@ -27991,7 +27991,7 @@
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
-        <v>326.22</v>
+        <v>326.54</v>
       </c>
       <c r="M515" t="n">
         <v>329.62</v>
@@ -28039,7 +28039,7 @@
         <v>332.66</v>
       </c>
       <c r="L516" t="n">
-        <v>330.21</v>
+        <v>330.15</v>
       </c>
       <c r="M516" t="n">
         <v>331.57</v>
@@ -28087,7 +28087,7 @@
         <v>344.88</v>
       </c>
       <c r="L517" t="n">
-        <v>338.17</v>
+        <v>337.39</v>
       </c>
       <c r="M517" t="n">
         <v>338.54</v>
@@ -28151,7 +28151,7 @@
         <v>350.83</v>
       </c>
       <c r="L518" t="n">
-        <v>343.57</v>
+        <v>343.07</v>
       </c>
       <c r="M518" t="n">
         <v>338.38</v>
@@ -28197,7 +28197,7 @@
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
-        <v>357.54</v>
+        <v>356.98</v>
       </c>
       <c r="M519" t="n">
         <v>323.31</v>
@@ -28243,7 +28243,7 @@
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
-        <v>322.22</v>
+        <v>322.14</v>
       </c>
       <c r="M520" t="n">
         <v>323.75</v>
@@ -28309,7 +28309,7 @@
         <v>327.94</v>
       </c>
       <c r="L521" t="n">
-        <v>333.18</v>
+        <v>333.27</v>
       </c>
       <c r="M521" t="n">
         <v>331.24</v>
@@ -28357,7 +28357,7 @@
         <v>325.68</v>
       </c>
       <c r="L522" t="n">
-        <v>328.35</v>
+        <v>328.73</v>
       </c>
       <c r="M522" t="n">
         <v>328.74</v>
@@ -28423,7 +28423,7 @@
         <v>315.97</v>
       </c>
       <c r="L523" t="n">
-        <v>312.43</v>
+        <v>312.05</v>
       </c>
       <c r="M523" t="n">
         <v>311.56</v>
@@ -28489,7 +28489,7 @@
         <v>315.71</v>
       </c>
       <c r="L524" t="n">
-        <v>312.13</v>
+        <v>312.41</v>
       </c>
       <c r="M524" t="n">
         <v>314.19</v>
@@ -28537,7 +28537,7 @@
         <v>322.67</v>
       </c>
       <c r="L525" t="n">
-        <v>322.99</v>
+        <v>323.44</v>
       </c>
       <c r="M525" t="n">
         <v>329.58</v>
@@ -28583,7 +28583,7 @@
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
-        <v>339.38</v>
+        <v>338.85</v>
       </c>
       <c r="M526" t="n">
         <v>334.4</v>
@@ -28631,7 +28631,7 @@
         <v>334.25</v>
       </c>
       <c r="L527" t="n">
-        <v>326.2</v>
+        <v>326.42</v>
       </c>
       <c r="M527" t="n">
         <v>327.59</v>
@@ -28697,7 +28697,7 @@
         <v>334.61</v>
       </c>
       <c r="L528" t="n">
-        <v>327.37</v>
+        <v>326.87</v>
       </c>
       <c r="M528" t="n">
         <v>316.96</v>
@@ -28745,7 +28745,7 @@
         <v>328.94</v>
       </c>
       <c r="L529" t="n">
-        <v>326.2</v>
+        <v>326.88</v>
       </c>
       <c r="M529" t="n">
         <v>332.3</v>
@@ -28793,7 +28793,7 @@
         <v>335.72</v>
       </c>
       <c r="L530" t="n">
-        <v>334.16</v>
+        <v>334.72</v>
       </c>
       <c r="M530" t="n">
         <v>338.14</v>
@@ -28841,7 +28841,7 @@
         <v>333.89</v>
       </c>
       <c r="L531" t="n">
-        <v>329.51</v>
+        <v>329.46</v>
       </c>
       <c r="M531" t="n">
         <v>332.5</v>
@@ -28907,7 +28907,7 @@
         <v>337.15</v>
       </c>
       <c r="L532" t="n">
-        <v>333.92</v>
+        <v>334.14</v>
       </c>
       <c r="M532" t="n">
         <v>332.58</v>
@@ -35388,7 +35388,7 @@
         <v>0.0699</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1313527260865601</v>
+        <v>-0.1306221084750752</v>
       </c>
       <c r="J12" t="n">
         <v>531</v>
@@ -35397,19 +35397,19 @@
         <v>438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01572997952086896</v>
+        <v>0.01575959208018074</v>
       </c>
       <c r="M12" t="n">
-        <v>6.08148315282137</v>
+        <v>6.04843900491388</v>
       </c>
       <c r="N12" t="n">
-        <v>59.96247797478062</v>
+        <v>59.18407839989157</v>
       </c>
       <c r="O12" t="n">
-        <v>7.743544277317759</v>
+        <v>7.6931188993731</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6187535211229</v>
+        <v>333.6236151143922</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36125,7 +36125,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-41.329340177125644,174.79609719056234</t>
+          <t>-41.32934576337373,174.79610178788758</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -36227,7 +36227,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-41.329382341815034,174.79613189094118</t>
+          <t>-41.32938088786042,174.79613069437565</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -36329,7 +36329,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-41.32940966085436,174.79615437378803</t>
+          <t>-41.329415323623806,174.7961590341004</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-41.32934308503563,174.79609958369045</t>
+          <t>-41.32934966609487,174.79610499971804</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -36533,7 +36533,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-41.329379204334,174.7961293088788</t>
+          <t>-41.32938188267146,174.7961315130784</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -36635,7 +36635,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-41.32934209022433,174.7960987649887</t>
+          <t>-41.32934354417932,174.7960999615528</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -36717,7 +36717,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-41.32942504216007,174.79616703220597</t>
+          <t>-41.329423588205856,174.79616583563882</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -36819,7 +36819,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-41.32943353631331,174.79617402267814</t>
+          <t>-41.32942840921186,174.79616980320372</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -36921,7 +36921,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-41.32940958433045,174.79615431081083</t>
+          <t>-41.329405069419515,174.79615059515697</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -37023,7 +37023,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-41.329392825592606,174.79614051881015</t>
+          <t>-41.32938823415726,174.79613674018105</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -37125,7 +37125,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-41.329372317180315,174.79612364093776</t>
+          <t>-41.329371551940994,174.7961230111666</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -37227,7 +37227,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-41.329396804836456,174.79614379362243</t>
+          <t>-41.329398794458356,174.79614543102875</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -37329,7 +37329,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-41.329380199145064,174.79613012758148</t>
+          <t>-41.329386397583086,174.79613522872958</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -37427,7 +37427,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-41.32919814861242,174.79598030540942</t>
+          <t>-41.32920503577398,174.7959859733198</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -37529,7 +37529,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-41.329388769824725,174.7961371810211</t>
+          <t>-41.329384331437105,174.79613352834676</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-41.3294331536938,174.79617370779198</t>
+          <t>-41.3294367503171,174.79617666772216</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-41.32943537288691,174.79617553413186</t>
+          <t>-41.329434607647904,174.79617490435945</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -37835,7 +37835,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-41.329469272970826,174.7962034330633</t>
+          <t>-41.32946850773199,174.79620280329027</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -37937,7 +37937,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-41.32941547667162,174.7961591600548</t>
+          <t>-41.32940858951957,174.7961534921074</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -38039,7 +38039,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-41.32948687346287,174.79621791784743</t>
+          <t>-41.32948419512725,174.79621571364063</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -38141,7 +38141,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-41.32947348178432,174.7962068968153</t>
+          <t>-41.32947547140521,174.7962085342255</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -38239,7 +38239,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-41.32936833793581,174.79612036612795</t>
+          <t>-41.32937239370425,174.79612370391487</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -38415,7 +38415,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-41.329434607647904,174.79617490435945</t>
+          <t>-41.32943039883334,174.79617144061163</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -38517,7 +38517,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-41.32933818750299,174.796095553159</t>
+          <t>-41.32934492161034,174.7961010951399</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -38619,7 +38619,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-41.32938723934625,174.79613592147817</t>
+          <t>-41.3293840253414,174.7961332764382</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -38721,7 +38721,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-41.3294195324388,174.7961624978466</t>
+          <t>-41.32941639495855,174.7961599157812</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -38783,7 +38783,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-41.329328775057,174.7960878069831</t>
+          <t>-41.32933390216179,174.79609202644448</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -38885,7 +38885,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-41.32928829388024,174.79605449215478</t>
+          <t>-41.329283855489685,174.79605083949184</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -38987,7 +38987,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-41.329310332783095,174.79607262952305</t>
+          <t>-41.329307807492306,174.7960705512823</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -39089,7 +39089,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-41.32930918492365,174.79607168486814</t>
+          <t>-41.32930398129406,174.796067402433</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -39191,7 +39191,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-41.32927543785209,174.79604391202898</t>
+          <t>-41.32927138208109,174.79604057425212</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -39289,7 +39289,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-41.32931568946039,174.79607703791302</t>
+          <t>-41.32931117454668,174.79607332227</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -39391,7 +39391,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-41.32937591380505,174.79612660086238</t>
+          <t>-41.32938310705429,174.79613252071258</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-41.329330917727695,174.79608957034</t>
+          <t>-41.32933482044921,174.79609278216898</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -39595,7 +39595,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-41.32937974000149,174.7961297497187</t>
+          <t>-41.32937568423326,174.79612641193097</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -39697,7 +39697,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-41.32932732110189,174.79608661041954</t>
+          <t>-41.329333596065986,174.79609177453634</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -39799,7 +39799,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-41.329348288663894,174.79610386613078</t>
+          <t>-41.32934300851169,174.7960995207134</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-41.32929319141448,174.79605852267997</t>
+          <t>-41.32929212007887,174.79605764100253</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -40003,7 +40003,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-41.329362675164624,174.79611570582236</t>
+          <t>-41.329364817834836,174.79611746918113</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -40105,7 +40105,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-41.32927275951277,174.79604170783665</t>
+          <t>-41.32927597351996,174.79604435286748</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -40191,7 +40191,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-41.32938586191561,174.79613478788957</t>
+          <t>-41.32938823415726,174.79613674018105</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -40331,7 +40331,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-41.32931959218231,174.7960802497405</t>
+          <t>-41.329320740041666,174.7960811943957</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -40397,7 +40397,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-41.32943047535724,174.79617150358888</t>
+          <t>-41.32943560245861,174.79617572306356</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -40487,7 +40487,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-41.32938364272177,174.7961329615525</t>
+          <t>-41.32938785153764,174.79613642529532</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -40589,7 +40589,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-41.32934071279328,174.79609763140172</t>
+          <t>-41.3293375753114,174.79609504934263</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -40681,7 +40681,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-41.32927023422134,174.79603962959834</t>
+          <t>-41.32926633149817,174.7960364177758</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -40771,7 +40771,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-41.32933811097903,174.79609549018198</t>
+          <t>-41.32933175949117,174.79609026308742</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -40873,7 +40873,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-41.329332677778595,174.79609101881186</t>
+          <t>-41.329336580500055,174.79609423064102</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -40943,7 +40943,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-41.32931783213125,174.79607880126923</t>
+          <t>-41.32931193978631,174.79607395203996</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -41045,7 +41045,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-41.32933413173365,174.7960922153756</t>
+          <t>-41.32932969334444,174.79608856270747</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -41291,7 +41291,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-41.329190955354456,174.79597438559315</t>
+          <t>-41.329186363913024,174.79597060698774</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -41415,7 +41415,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-41.32941402271734,174.796157963488</t>
+          <t>-41.32941325747823,174.79615733371605</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -41477,7 +41477,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-41.329262734870845,174.79603345786126</t>
+          <t>-41.32925684252376,174.79602860864026</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -41551,7 +41551,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-41.329350354810366,174.7961055665117</t>
+          <t>-41.329355252342616,174.79610959704468</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-41.329429174450894,174.796170432976</t>
+          <t>-41.32942320558633,174.79616552075274</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -41723,7 +41723,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-41.32918850658571,174.79597237033687</t>
+          <t>-41.329192103214794,174.79597533024457</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -41797,7 +41797,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-41.32923970114913,174.7960145018206</t>
+          <t>-41.329240772485086,174.7960153834966</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -41899,7 +41899,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-41.32937369461108,174.79612477452585</t>
+          <t>-41.32937415375465,174.79612515238858</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -41989,7 +41989,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>-41.32931308764574,174.79607489669493</t>
+          <t>-41.329317372987504,174.79607842340718</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -42091,7 +42091,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-41.329332907350434,174.79609120774296</t>
+          <t>-41.329329463772595,174.7960883737764</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -42185,7 +42185,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>-41.32935104352584,174.79610613330536</t>
+          <t>-41.32934813561601,174.79610374017665</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -42287,7 +42287,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-41.32936596569385,174.7961184138377</t>
+          <t>-41.32936971536662,174.7961214997159</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -42385,7 +42385,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-41.329319668706276,174.7960803127175</t>
+          <t>-41.32932173485311,174.7960820130969</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -42483,7 +42483,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>-41.329388769824725,174.7961371810211</t>
+          <t>-41.32939596307335,174.79614310087365</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -42585,7 +42585,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-41.32938326010214,174.79613264666682</t>
+          <t>-41.329377061664,174.79612754551923</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-41.32934790604417,174.79610355124544</t>
+          <t>-41.32934553380189,174.7961015989564</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>-41.3293337491139,174.7960919004904</t>
+          <t>-41.32933466740131,174.7960926562149</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -42967,7 +42967,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-41.32939757007565,174.79614442339408</t>
+          <t>-41.32940131974763,174.79614750927536</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -43069,7 +43069,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-41.329375531185406,174.79612628597675</t>
+          <t>-41.32937078670167,174.7961223813955</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -43171,7 +43171,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>-41.32942733787721,174.7961689215226</t>
+          <t>-41.329423129062434,174.79616545777554</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -43245,7 +43245,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-41.32939458564278,174.79614196728477</t>
+          <t>-41.32939014725534,174.79613831460978</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -43315,7 +43315,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-41.32912782302266,174.79592242981568</t>
+          <t>-41.32912437944016,174.7959195958671</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -43413,7 +43413,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>-41.32931316416968,174.79607495967193</t>
+          <t>-41.329308725779875,174.79607130700617</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -43475,7 +43475,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>-41.32927666223577,174.79604491965986</t>
+          <t>-41.32927589699599,174.79604428989057</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -43575,7 +43575,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-41.329435985078106,174.79617603794975</t>
+          <t>-41.329432082359176,174.7961728261107</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -43683,7 +43683,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-41.329400707556296,174.79614700545798</t>
+          <t>-41.3294020849868,174.7961481390471</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -43765,7 +43765,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-41.32937423027859,174.7961252153657</t>
+          <t>-41.3293740007068,174.79612502643434</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -43889,7 +43889,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-41.32936895012728,174.79612086994482</t>
+          <t>-41.32937614337684,174.79612678979373</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>-41.3293267854342,174.79608616958035</t>
+          <t>-41.32932165832917,174.79608195011988</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -44185,7 +44185,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-41.32943743903221,174.79617723451736</t>
+          <t>-41.32944203046606,174.7961810131522</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -44309,7 +44309,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-41.32945572824294,174.7961922860827</t>
+          <t>-41.329449912427215,174.79618749980992</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -44473,7 +44473,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>-41.32937139889312,174.79612288521238</t>
+          <t>-41.32936512393057,174.79611772108953</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -44567,7 +44567,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-41.329329846392355,174.79608868866157</t>
+          <t>-41.32933198906303,174.79609045201852</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -44633,7 +44633,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-41.3293889993965,174.79613736995253</t>
+          <t>-41.32938700977448,174.79613573254673</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -44721,7 +44721,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-41.32924651178481,174.79602010676143</t>
+          <t>-41.32924559349687,174.796019351039</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -44787,7 +44787,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>-41.32927972319493,174.79604743873713</t>
+          <t>-41.32927566742404,174.7960441009598</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -44877,7 +44877,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>-41.32929969595191,174.7960638757222</t>
+          <t>-41.32930398129406,174.796067402433</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -44971,7 +44971,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-41.32938226529111,174.79613182796408</t>
+          <t>-41.329386474107,174.79613529170672</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -45119,7 +45119,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-41.32930505262958,174.79606828411076</t>
+          <t>-41.32930719530059,174.7960700474664</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -45205,7 +45205,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-41.329299542903975,174.79606374976828</t>
+          <t>-41.329306277013025,174.79606929174253</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -45307,7 +45307,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-41.32928033538675,174.7960479425526</t>
+          <t>-41.329286839924734,174.7960532955927</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -45393,7 +45393,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-41.329319668706276,174.7960803127175</t>
+          <t>-41.329316072080196,174.79607735279808</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -45471,7 +45471,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-41.32925814343157,174.79602967924743</t>
+          <t>-41.329261204391095,174.79603219832325</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -45569,7 +45569,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-41.3292099333109,174.79599000383462</t>
+          <t>-41.329210851599065,174.79599075955622</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -45631,7 +45631,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-41.32921827442811,174.79599686830656</t>
+          <t>-41.32921957533626,174.79599793891242</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -45755,7 +45755,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-41.32938111743219,174.79613088330706</t>
+          <t>-41.32937591380505,174.79612660086238</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -45857,7 +45857,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-41.329370327558074,174.79612200353282</t>
+          <t>-41.32937423027859,174.7961252153657</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -45959,7 +45959,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-41.32935509929473,174.79610947109052</t>
+          <t>-41.329359690731074,174.7961132497157</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -46005,7 +46005,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-41.329327550673746,174.79608679935063</t>
+          <t>-41.32932165832917,174.79608195011988</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -46051,7 +46051,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>-41.32933879969459,174.79609605697541</t>
+          <t>-41.32934369722721,174.79610008750691</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -46097,7 +46097,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-41.3293139294093,174.79607558944195</t>
+          <t>-41.3293177556073,174.79607873829224</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -46199,7 +46199,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-41.329309950163285,174.79607231463805</t>
+          <t>-41.32930551177337,174.79606866197267</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -46319,7 +46319,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-41.32938050524078,174.79613037949</t>
+          <t>-41.329379204334,174.7961293088788</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-41.32940131974763,174.79614750927536</t>
+          <t>-41.32940537551519,174.7961508470657</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -46443,7 +46443,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>-41.32913287361016,174.79592658627416</t>
+          <t>-41.32913815376964,174.79593093166324</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -46531,7 +46531,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>-41.32928186586629,174.79604920209135</t>
+          <t>-41.32928462072944,174.79605146926124</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -46715,7 +46715,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>-41.329335279592904,174.79609316003126</t>
+          <t>-41.3293342082576,174.79609227835266</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -46797,7 +46797,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>-41.32925890867146,174.79603030901634</t>
+          <t>-41.32926633149817,174.7960364177758</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -46887,7 +46887,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>-41.329377750379365,174.79612811231334</t>
+          <t>-41.329373311991425,174.79612445964028</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -46989,7 +46989,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-41.3294124157152,174.79615664096693</t>
+          <t>-41.32940881909132,174.79615368103896</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -47171,7 +47171,7 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>-41.3293778269033,174.79612817529048</t>
+          <t>-41.329376755568276,174.7961272936107</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -47221,7 +47221,7 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>-41.329273448228584,174.79604227462895</t>
+          <t>-41.329276509187814,174.796044793706</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -47443,7 +47443,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-41.32928768168845,174.79605398833917</t>
+          <t>-41.32928974783573,174.79605568871688</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -47591,7 +47591,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>-41.3292700046494,174.79603944066758</t>
+          <t>-41.32927375432452,174.79604252653664</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -47739,7 +47739,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>-41.32935662977353,174.79611073063217</t>
+          <t>-41.32935173224132,174.79610670009902</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -47841,7 +47841,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>-41.329406370326076,174.79615166576906</t>
+          <t>-41.32939978926928,174.79614624973192</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -47943,7 +47943,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>-41.32940323284555,174.7961490837047</t>
+          <t>-41.32940659989782,174.7961518547006</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -48121,7 +48121,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-41.329378362570786,174.79612861613037</t>
+          <t>-41.329375225089684,174.79612603406827</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -48191,7 +48191,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>-41.3292863042569,174.79605285475407</t>
+          <t>-41.32929051307546,174.79605631848642</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -48229,7 +48229,7 @@
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-41.329268015025825,174.79603780326784</t>
+          <t>-41.329262811394834,174.79603352083814</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -48287,7 +48287,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-41.3293215818052,174.79608188714286</t>
+          <t>-41.32932617324257,174.79608566576414</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -48353,7 +48353,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-41.329325561050936,174.79608516194796</t>
+          <t>-41.32933007596421,174.79608887759264</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-41.32932823938932,174.7960873661439</t>
+          <t>-41.329327780245606,174.7960869882817</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -48537,7 +48537,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-41.32940353894121,174.79614933561342</t>
+          <t>-41.3294020849868,174.7961481390471</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -48619,7 +48619,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>-41.32933244820672,174.79609082988074</t>
+          <t>-41.329339029266436,174.79609624590654</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -48681,7 +48681,7 @@
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
-          <t>-41.32939137163809,174.7961393222442</t>
+          <t>-41.329386244535236,174.7961351027753</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -48783,7 +48783,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-41.329344538990604,174.79610078025462</t>
+          <t>-41.32934966609487,174.79610499971804</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -48845,7 +48845,7 @@
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>-41.32932701500607,174.79608635851142</t>
+          <t>-41.3293337491139,174.7960919004904</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -49051,7 +49051,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>-41.329314847696835,174.79607634516597</t>
+          <t>-41.329310562354976,174.79607281845404</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -49117,7 +49117,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>-41.32933933536223,174.79609649781477</t>
+          <t>-41.32933283082649,174.79609114476594</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -49199,7 +49199,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>-41.32934132498485,174.79609813521813</t>
+          <t>-41.329337728359306,174.79609517529673</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -49293,7 +49293,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>-41.329333596065986,174.79609177453634</t>
+          <t>-41.329337039643754,174.79609460850327</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -49425,7 +49425,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>-41.329251944988336,174.79602457811959</t>
+          <t>-41.32924697092877,174.7960204846227</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -49503,7 +49503,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>-41.32925056755647,174.79602344453576</t>
+          <t>-41.32924857793265,174.79602180713698</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -49605,7 +49605,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>-41.329388616776875,174.7961370550668</t>
+          <t>-41.32939458564278,174.79614196728477</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -49651,7 +49651,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>-41.32928523292125,174.7960519730768</t>
+          <t>-41.32927834576331,174.79604630515232</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>-41.32940981390218,174.79615449974239</t>
+          <t>-41.32940461027602,174.7961502172939</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -49835,7 +49835,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>-41.32932892810492,174.79608793293716</t>
+          <t>-41.3293334430181,174.79609164858226</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -50013,7 +50013,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>-41.3294043807043,174.79615002836238</t>
+          <t>-41.32940193193897,174.79614801309273</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -50189,7 +50189,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>-41.32909637163304,174.79589654642996</t>
+          <t>-41.32909912649954,174.79589881358683</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>-41.329371934560655,174.79612332605217</t>
+          <t>-41.329377750379365,174.79612811231334</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -50357,7 +50357,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-41.32926656107012,174.7960366067065</t>
+          <t>-41.32927222384488,174.7960412669982</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -50443,7 +50443,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>-41.32927413694442,174.79604284142127</t>
+          <t>-41.329267173262004,174.7960371105218</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -50525,7 +50525,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-41.329389688111796,174.79613793674687</t>
+          <t>-41.32939221340124,174.79614001499291</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -50583,7 +50583,7 @@
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-41.329361603829504,174.79611482414302</t>
+          <t>-41.32936229254495,174.79611539093688</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -50743,7 +50743,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-41.329385096676354,174.79613415811818</t>
+          <t>-41.32939007073142,174.7961382516326</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -50829,7 +50829,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-41.329319668706276,174.7960803127175</t>
+          <t>-41.32932165832917,174.79608195011988</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -50981,7 +50981,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>-41.329246817880794,174.79602035866893</t>
+          <t>-41.329252327608295,174.79602489300402</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -51083,7 +51083,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>-41.3293302290121,174.7960890035467</t>
+          <t>-41.32932563757487,174.79608522492498</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
@@ -51165,7 +51165,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-41.32933558568871,174.79609341193944</t>
+          <t>-41.329340177125644,174.79609719056234</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -51231,7 +51231,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>-41.329248807504634,174.7960219960676</t>
+          <t>-41.329245746544856,174.79601947699274</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -51333,7 +51333,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>-41.32928064148266,174.79604819446035</t>
+          <t>-41.32928523292125,174.7960519730768</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>-41.32927283603675,174.79604177081356</t>
+          <t>-41.32927589699599,174.79604428989057</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -51461,7 +51461,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>-41.329258755623485,174.79603018306256</t>
+          <t>-41.32925699557173,174.79602873459405</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -51507,7 +51507,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-41.329329081152814,174.79608805889123</t>
+          <t>-41.329329463772595,174.7960883737764</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -51577,7 +51577,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-41.32929196703093,174.79605751504863</t>
+          <t>-41.329287758212416,174.7960540513161</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>-41.32927474913627,174.79604334523665</t>
+          <t>-41.32928071800664,174.7960482574373</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -51791,7 +51791,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>-41.32934201370038,174.79609870201165</t>
+          <t>-41.32933811097903,174.79609549018198</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -51893,7 +51893,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>-41.3293469112329,174.79610273254357</t>
+          <t>-41.32935180876526,174.7961067630761</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -51983,7 +51983,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>-41.32936466478696,174.79611734322694</t>
+          <t>-41.32936060901833,174.7961140054408</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -52201,7 +52201,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>-41.32925469985203,174.7960268452874</t>
+          <t>-41.329253628516156,174.796025963611</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -52303,7 +52303,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-41.329322423568726,174.79608257989008</t>
+          <t>-41.32932647933838,174.79608591767226</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -52405,7 +52405,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>-41.32934193717644,174.7960986390346</t>
+          <t>-41.329344385942726,174.79610065430046</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -52507,7 +52507,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>-41.32930658310888,174.79606954365047</t>
+          <t>-41.329304746533715,174.79606803220284</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -52609,7 +52609,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>-41.32936244559282,174.79611551689106</t>
+          <t>-41.32935838982412,174.79611217910517</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -52711,7 +52711,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>-41.32933413173365,174.7960922153756</t>
+          <t>-41.32933925883826,174.7960964348377</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -52813,7 +52813,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-41.329305970917154,174.79606903983458</t>
+          <t>-41.329306353536985,174.79606935471952</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -52915,7 +52915,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>-41.329292655746684,174.79605808184124</t>
+          <t>-41.3292909722193,174.79605669634816</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -53017,7 +53017,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>-41.329306277013025,174.79606929174253</t>
+          <t>-41.329303828246125,174.79606727647905</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -53063,7 +53063,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>-41.32926640802216,174.79603648075272</t>
+          <t>-41.32926196963097,174.79603282809225</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -53129,7 +53129,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>-41.32918927182595,174.79597300010442</t>
+          <t>-41.329193098027076,174.79597614894254</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -53231,7 +53231,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>-41.32926518363839,174.79603547312217</t>
+          <t>-41.329269086361606,174.79603868494462</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -53293,7 +53293,7 @@
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
-          <t>-41.32926747935794,174.79603736242944</t>
+          <t>-41.329264724494486,174.79603509526075</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -53387,7 +53387,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>-41.3293075779204,174.79607036235134</t>
+          <t>-41.329311863262355,174.79607388906297</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>-41.32927352475258,174.79604233760588</t>
+          <t>-41.329275361328115,174.79604384905207</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -53609,7 +53609,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>-41.32929502798978,174.7960600341271</t>
+          <t>-41.329296175849336,174.79606097878155</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -53695,7 +53695,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>-41.32932961682048,174.79608849973044</t>
+          <t>-41.329332142110914,174.7960905779726</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>-41.32926319401476,174.79603383572265</t>
+          <t>-41.3292681680738,174.79603792922165</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -53941,7 +53941,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>-41.32932701500607,174.79608635851142</t>
+          <t>-41.329333289970194,174.79609152262816</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -54043,7 +54043,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>-41.32931951565835,174.79608018676348</t>
+          <t>-41.32931362331347,174.79607533753395</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -54137,7 +54137,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>-41.32930589439319,174.79606897685758</t>
+          <t>-41.32930313953044,174.79606670968622</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -54223,7 +54223,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>-41.32925730166769,174.79602898650163</t>
+          <t>-41.329263653158684,174.79603421358408</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -54309,7 +54309,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>-41.32931316416968,174.79607495967193</t>
+          <t>-41.32931117454668,174.79607332227</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>-41.329318750418764,174.79607955699336</t>
+          <t>-41.32932012785001,174.79608069057957</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>-41.329291584411074,174.79605720016383</t>
+          <t>-41.3292915078871,174.79605713718686</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -54583,7 +54583,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>-41.32933841707484,174.79609574209013</t>
+          <t>-41.329332907350434,174.79609120774296</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -54685,7 +54685,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>-41.32939871793443,174.79614536805155</t>
+          <t>-41.329392366449085,174.7961401409472</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -54783,7 +54783,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>-41.329382341815034,174.79613189094118</t>
+          <t>-41.329376755568276,174.7961272936107</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -54877,7 +54877,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>-41.32942779702063,174.79616929938592</t>
+          <t>-41.32943292412209,174.79617351886026</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -54979,7 +54979,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>-41.32936657788534,174.7961189176545</t>
+          <t>-41.3293636699758,174.79611652452465</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -55049,7 +55049,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>-41.329417848912826,174.79616111234805</t>
+          <t>-41.32941639495855,174.7961599157812</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -55151,7 +55151,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>-41.32935838982412,174.79611217910517</t>
+          <t>-41.32936129773377,174.79611457223464</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -55253,7 +55253,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>-41.32925508247198,174.79602716017183</t>
+          <t>-41.3292503379845,174.79602325560512</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -55315,7 +55315,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>-41.32943162321578,174.79617244824732</t>
+          <t>-41.329427184829406,174.79616879556815</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -55551,7 +55551,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>-41.32925416418409,174.79602640444918</t>
+          <t>-41.32925278675226,174.7960252708653</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -55613,7 +55613,7 @@
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>-41.32919340412316,174.79597640084958</t>
+          <t>-41.329191950166745,174.79597520429104</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -55695,7 +55695,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-41.32926625497418,174.79603635479887</t>
+          <t>-41.32926939245753,174.79603893685226</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -55827,7 +55827,7 @@
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
-          <t>-41.32923832371715,174.7960133682372</t>
+          <t>-41.32923618104517,174.79601160488534</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -55893,7 +55893,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>-41.329184527336416,174.7959690955457</t>
+          <t>-41.329180701135066,174.79596594670844</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -55959,7 +55959,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>-41.32925745471568,174.7960291124554</t>
+          <t>-41.32926128091508,174.79603226130016</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -56067,7 +56067,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>-41.32929916028412,174.7960634348834</t>
+          <t>-41.329298471568414,174.79606286809067</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -56169,7 +56169,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>-41.32929709413697,174.7960617345052</t>
+          <t>-41.32929701761301,174.79606167152824</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -56335,7 +56335,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>-41.32928599816101,174.7960526028463</t>
+          <t>-41.32928224848618,174.79604951697604</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -56401,7 +56401,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>-41.32927467261229,174.79604328225975</t>
+          <t>-41.329270616841264,174.7960399444829</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -56487,7 +56487,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>-41.329298854188245,174.79606318297553</t>
+          <t>-41.32930375172216,174.79606721350206</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -56573,7 +56573,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>-41.32928393201367,174.79605090246878</t>
+          <t>-41.32928974783573,174.79605568871688</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -56675,7 +56675,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>-41.329251256272414,174.79602401132766</t>
+          <t>-41.3292491901246,174.79602231095197</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -56753,7 +56753,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>-41.329305358725435,174.79606853601868</t>
+          <t>-41.32930719530059,174.7960700474664</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -56851,7 +56851,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>-41.3293009203354,174.79606488335384</t>
+          <t>-41.329299848999845,174.79606400167617</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -56953,7 +56953,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>-41.32927934057504,174.79604712385245</t>
+          <t>-41.32927895795513,174.7960468089678</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -57109,7 +57109,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>-41.32933466740131,174.7960926562149</t>
+          <t>-41.32933015248816,174.7960889405697</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -57211,7 +57211,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>-41.32933321344625,174.7960914596511</t>
+          <t>-41.329337728359306,174.79609517529673</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -57445,7 +57445,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>-41.3293190565146,174.7960798089014</t>
+          <t>-41.32932403057181,174.79608390240747</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -57547,7 +57547,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>-41.32935104352584,174.79610613330536</t>
+          <t>-41.329354946246845,174.79610934513633</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -57641,7 +57641,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>-41.329325178431134,174.79608484706284</t>
+          <t>-41.3293276271977,174.79608686232766</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -57743,7 +57743,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>-41.32933612135636,174.79609385277874</t>
+          <t>-41.32933428478156,174.7960923413297</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -57859,7 +57859,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>-41.32936849098369,174.79612049208217</t>
+          <t>-41.32936374649974,174.79611658750173</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -57941,7 +57941,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>-41.32938058176471,174.79613044246713</t>
+          <t>-41.32938502015243,174.796134095141</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -58035,7 +58035,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>-41.32938723934625,174.79613592147817</t>
+          <t>-41.32938456100887,174.79613371727817</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -58105,7 +58105,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>-41.32935257400468,174.79610739284686</t>
+          <t>-41.32935265052863,174.79610745582397</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -58257,7 +58257,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>-41.32937813299901,174.79612842719897</t>
+          <t>-41.32938264791073,174.79613214284976</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -58499,7 +58499,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>-41.329396116121174,174.79614322682798</t>
+          <t>-41.329391524685946,174.79613944819852</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -58565,7 +58565,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>-41.3293613742577,174.79611463521172</t>
+          <t>-41.329364588263026,174.79611728024983</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -58667,7 +58667,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>-41.32928286067799,174.7960500207916</t>
+          <t>-41.32928523292125,174.7960519730768</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -58749,7 +58749,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>-41.329399330125774,174.7961458718689</t>
+          <t>-41.32939894750618,174.79614555698308</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -58851,7 +58851,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>-41.32930482305769,174.79606809517983</t>
+          <t>-41.32931285807385,174.79607470776395</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -58963,7 +58963,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>-41.32933198906303,174.79609045201852</t>
+          <t>-41.32933558568871,174.79609341193944</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -59065,7 +59065,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>-41.329333519542054,174.79609171155928</t>
+          <t>-41.329331376871394,174.79608994820222</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -59131,7 +59131,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>-41.32934293198775,174.79609945773635</t>
+          <t>-41.32934499813428,174.79610115811698</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -59181,7 +59181,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>-41.32927957014697,174.79604731278323</t>
+          <t>-41.329280029290835,174.79604769064485</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -59267,7 +59267,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>-41.32938655063092,174.79613535468386</t>
+          <t>-41.32939167773378,174.79613957415282</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -59369,7 +59369,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>-41.32931285807385,174.79607470776395</t>
+          <t>-41.329308419684004,174.79607105509822</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -59471,7 +59471,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>-41.32937407723073,174.79612508941145</t>
+          <t>-41.32938035219293,174.79613025353572</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -59569,7 +59569,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>-41.32937690861614,174.79612741956498</t>
+          <t>-41.329371245845266,174.79612275925814</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -59749,7 +59749,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>-41.32940131974763,174.79614750927536</t>
+          <t>-41.32939711093214,174.7961440455311</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -59815,7 +59815,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>-41.329278116191375,174.79604611622153</t>
+          <t>-41.32928324329787,174.79605033567628</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -59881,7 +59881,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>-41.329242991681,174.79601720982555</t>
+          <t>-41.32924100205708,174.7960155724272</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -59947,7 +59947,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>-41.32935425753138,174.7961087783426</t>
+          <t>-41.329357854156555,174.79611173826555</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -60049,7 +60049,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>-41.32930574134526,174.79606885090362</t>
+          <t>-41.32930153252713,174.79606538716965</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -60147,7 +60147,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>-41.32925385808814,174.79602615254166</t>
+          <t>-41.32925913824344,174.79603049794702</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -60209,7 +60209,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>-41.32945618738627,174.79619266394633</t>
+          <t>-41.32945128985728,174.79618863340076</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -60311,7 +60311,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>-41.32933505002105,174.7960929711001</t>
+          <t>-41.32932854548513,174.796087618052</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -60381,7 +60381,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>-41.329291431363124,174.79605707420993</t>
+          <t>-41.329295946277426,174.79606078985069</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -60443,7 +60443,7 @@
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
-          <t>-41.329345380754,174.79610147300227</t>
+          <t>-41.32934201370038,174.79609870201165</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -60537,7 +60537,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>-41.32930604744112,174.79606910281157</t>
+          <t>-41.32930313953044,174.79606670968622</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -60599,7 +60599,7 @@
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
-          <t>-41.32930910839968,174.79607162189114</t>
+          <t>-41.32930887882778,174.79607143296016</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -60649,7 +60649,7 @@
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
-          <t>-41.32928033538675,174.7960479425526</t>
+          <t>-41.32927796314342,174.79604599026766</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -60751,7 +60751,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>-41.32937392418287,174.79612496345723</t>
+          <t>-41.32937078670167,174.7961223813955</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -60809,7 +60809,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>-41.32930589439319,174.79606897685758</t>
+          <t>-41.329300078571755,174.79606419060707</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -60875,7 +60875,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>-41.32936565959812,174.79611816192926</t>
+          <t>-41.32936190992526,174.79611507605142</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -60991,7 +60991,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>-41.329349972190656,174.79610525162633</t>
+          <t>-41.329354869722906,174.79610928215925</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -61093,7 +61093,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>-41.32940468679995,174.79615028027106</t>
+          <t>-41.32940399808471,174.79614971347647</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -61191,7 +61191,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>-41.32924865445665,174.79602187011386</t>
+          <t>-41.329255235519966,174.7960272861256</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -61257,7 +61257,7 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>-41.32941463490862,174.79615846730562</t>
+          <t>-41.329418001960626,174.7961612383025</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
@@ -61323,7 +61323,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>-41.329251256272414,174.79602401132766</t>
+          <t>-41.32925018493652,174.79602312965136</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -61369,7 +61369,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>-41.329322040948945,174.79608226500497</t>
+          <t>-41.329322806188515,174.79608289477517</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -61435,7 +61435,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>-41.32937247022818,174.79612376689198</t>
+          <t>-41.32936803184009,174.79612011421952</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -61537,7 +61537,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>-41.329364588263026,174.79611728024983</t>
+          <t>-41.32937017451021,174.79612187757857</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -61639,7 +61639,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>-41.32933459087735,174.79609259323786</t>
+          <t>-41.32933053510793,174.79608925545486</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -61737,7 +61737,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>-41.329282171962205,174.7960494539991</t>
+          <t>-41.32928661035281,174.79605310666187</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -61799,7 +61799,7 @@
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
-          <t>-41.329307960540234,174.79607067723626</t>
+          <t>-41.32930107338332,174.7960650093078</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -61865,7 +61865,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>-41.32930750139646,174.79607029937435</t>
+          <t>-41.32930413434199,174.79606752838697</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -61967,7 +61967,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>-41.32932862200911,174.79608768102904</t>
+          <t>-41.329325943670696,174.79608547683307</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -62033,7 +62033,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>-41.32931538336455,174.79607678600502</t>
+          <t>-41.32931653122396,174.7960777306601</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -62099,7 +62099,7 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>-41.32935823677625,174.796112053151</t>
+          <t>-41.32935640020172,174.7961105417009</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -62169,7 +62169,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>-41.32937269979997,174.79612395582333</t>
+          <t>-41.329375225089684,174.79612603406827</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -62267,7 +62267,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>-41.32926487754244,174.79603522121457</t>
+          <t>-41.32927084641321,174.79604013341367</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -62329,7 +62329,7 @@
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
-          <t>-41.3292721473209,174.7960412040213</t>
+          <t>-41.32927428999239,174.79604296737512</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -62395,7 +62395,7 @@
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
-          <t>-41.329334361305506,174.79609240430673</t>
+          <t>-41.329336427452155,174.79609410468692</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -62457,7 +62457,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>-41.329350125238534,174.7961053775805</t>
+          <t>-41.329346222517394,174.79610216574997</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -62523,7 +62523,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>-41.32930612396508,174.79606916578857</t>
+          <t>-41.329310026687246,174.79607237761505</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -62589,7 +62589,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>-41.32937583728113,174.79612653788524</t>
+          <t>-41.32937989304936,174.79612987567293</t>
         </is>
       </c>
       <c r="M332" t="inlineStr"/>
@@ -62635,7 +62635,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>-41.32931469464891,174.79607621921195</t>
+          <t>-41.32931706689167,174.79607817149915</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -62737,7 +62737,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>-41.329306430060946,174.79606941769651</t>
+          <t>-41.32930620048906,174.79606922876553</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -62897,7 +62897,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>-41.32938096438435,174.79613075735278</t>
+          <t>-41.329385173200286,174.79613422109531</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -63049,7 +63049,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>-41.329354869722906,174.79610928215925</t>
+          <t>-41.32934905390333,174.7961044959015</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -63115,7 +63115,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>-41.32935770110867,174.7961116123114</t>
+          <t>-41.329355252342616,174.79610959704468</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
@@ -63193,7 +63193,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>-41.32929410970213,174.79605927840353</t>
+          <t>-41.329295946277426,174.79606078985069</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -63259,7 +63259,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>-41.32939642221686,174.7961434787366</t>
+          <t>-41.3293950447863,174.79614234514773</t>
         </is>
       </c>
       <c r="M341" t="inlineStr"/>
@@ -63305,7 +63305,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>-41.32939382040358,174.79614133751318</t>
+          <t>-41.32939519783415,174.79614247110203</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -63367,7 +63367,7 @@
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
-          <t>-41.32937530161362,174.79612609704537</t>
+          <t>-41.32937055712988,174.79612219246414</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -63437,7 +63437,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>-41.32914886713616,174.79593974839688</t>
+          <t>-41.32915338205468,174.79594346402124</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -63529,7 +63529,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>-41.32939190730554,174.79613976308426</t>
+          <t>-41.329385402772054,174.79613441002672</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -63595,7 +63595,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>-41.329379051286146,174.79612918292452</t>
+          <t>-41.32938364272177,174.7961329615525</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -63669,7 +63669,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>-41.32928890607202,174.7960549959704</t>
+          <t>-41.32928798778434,174.79605424024695</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -63735,7 +63735,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>-41.32934981914276,174.7961051256722</t>
+          <t>-41.32934844171178,174.79610399208494</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -63801,7 +63801,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>-41.3293139294093,174.79607558944195</t>
+          <t>-41.32931714341564,174.79607823447617</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -63851,7 +63851,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>-41.329319286086466,174.79607999783246</t>
+          <t>-41.32932479581137,174.7960845321777</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -63913,7 +63913,7 @@
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
-          <t>-41.329349742618824,174.79610506269512</t>
+          <t>-41.32934423289482,174.79610052834636</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -64017,7 +64017,7 @@
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
-          <t>-41.32924398649296,174.79601802852483</t>
+          <t>-41.329240772485086,174.7960153834966</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -64141,7 +64141,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>-41.32928339634583,174.79605046163016</t>
+          <t>-41.32928025886278,174.79604787957567</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -64203,7 +64203,7 @@
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
-          <t>-41.32935655324958,174.79611066765509</t>
+          <t>-41.32935762458474,174.79611154933428</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -64315,7 +64315,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>-41.32933857012274,174.79609586804426</t>
+          <t>-41.329335815260556,174.79609360087056</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
@@ -64381,7 +64381,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>-41.329310026687246,174.79607237761505</t>
+          <t>-41.32931500074476,174.79607647112</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -64435,7 +64435,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>-41.32935655324958,174.79611066765509</t>
+          <t>-41.32936275168856,174.79611576879944</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -64537,7 +64537,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>-41.329365583074186,174.79611809895215</t>
+          <t>-41.32937185803673,174.79612326307506</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -64639,7 +64639,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>-41.329367496172544,174.79611967337976</t>
+          <t>-41.32936535350238,174.79611791002085</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -64717,7 +64717,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>-41.329458789198505,174.79619480517394</t>
+          <t>-41.329454963004046,174.7961916563099</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -64791,7 +64791,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>-41.329437362508294,174.7961771715401</t>
+          <t>-41.3294331536938,174.79617370779198</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
@@ -64857,7 +64857,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>-41.32930084381142,174.79606482037687</t>
+          <t>-41.329303522150255,174.7960670245711</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -64899,7 +64899,7 @@
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
-          <t>-41.32939841183876,174.7961451161429</t>
+          <t>-41.32939435607102,174.79614177835327</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -64965,7 +64965,7 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>-41.32939427954711,174.79614171537614</t>
+          <t>-41.32939978926928,174.79614624973192</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -65067,7 +65067,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>-41.32935272705256,174.79610751880102</t>
+          <t>-41.329359461159264,174.79611306078442</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -65167,7 +65167,7 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>-41.32922898778899,174.7960056850621</t>
+          <t>-41.329233502705144,174.79600940069568</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
@@ -65269,7 +65269,7 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>-41.32920580101415,174.79598660308773</t>
+          <t>-41.32920717844641,174.79598773666996</t>
         </is>
       </c>
       <c r="M372" t="inlineStr"/>
@@ -65431,7 +65431,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>-41.32924957274457,174.79602262583637</t>
+          <t>-41.329252939800234,174.79602539681906</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -65489,7 +65489,7 @@
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
-          <t>-41.32938884634864,174.79613724399826</t>
+          <t>-41.329384407961015,174.79613359132392</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
@@ -65559,7 +65559,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>-41.32927482566024,174.7960434082136</t>
+          <t>-41.32927658571178,174.7960448566829</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -65675,7 +65675,7 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>-41.3294076712326,174.79615273638117</t>
+          <t>-41.32940522246736,174.79615072111133</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
@@ -65741,7 +65741,7 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>-41.32929472189391,174.79605978221923</t>
+          <t>-41.329290436551474,174.79605625550948</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
@@ -65795,7 +65795,7 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>-41.329256919047744,174.79602867161717</t>
+          <t>-41.32925271022826,174.79602520788842</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
@@ -65857,7 +65857,7 @@
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
-          <t>-41.32934737037657,174.79610311040597</t>
+          <t>-41.32935226790892,174.79610714093857</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
@@ -65923,7 +65923,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>-41.32938471405673,174.79613384323247</t>
+          <t>-41.329378439094725,174.79612867910748</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -65969,7 +65969,7 @@
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
-          <t>-41.32939634569295,174.79614341575947</t>
+          <t>-41.329402926749886,174.796148831796</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -66035,7 +66035,7 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>-41.329439505177454,174.79617893490294</t>
+          <t>-41.329437362508294,174.7961771715401</t>
         </is>
       </c>
       <c r="M385" t="inlineStr"/>
@@ -66121,7 +66121,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>-41.32932609671862,174.79608560278712</t>
+          <t>-41.329331912539054,174.7960903890415</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -66187,7 +66187,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>-41.32937239370425,174.79612370391487</t>
+          <t>-41.32937415375465,174.79612515238858</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -66237,7 +66237,7 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>-41.32930512915355,174.79606834708775</t>
+          <t>-41.329298854188245,174.79606318297553</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -66339,7 +66339,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>-41.32937017451021,174.79612187757857</t>
+          <t>-41.32937491899397,174.79612578215978</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -66441,7 +66441,7 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>-41.32932602019464,174.7960855398101</t>
+          <t>-41.32932295923643,174.7960830207292</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
@@ -66573,7 +66573,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>-41.32930620048906,174.79606922876553</t>
+          <t>-41.32930237429077,174.79606607991641</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -66631,7 +66631,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>-41.329360149874695,174.79611362757825</t>
+          <t>-41.329362216021,174.7961153279598</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -66739,7 +66739,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>-41.329348900855436,174.79610436994736</t>
+          <t>-41.32934507465822,174.79610122109403</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -66841,7 +66841,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>-41.329321964424985,174.79608220202797</t>
+          <t>-41.32932540800301,174.79608503599388</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -67007,7 +67007,7 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>-41.329307042252665,174.7960699215124</t>
+          <t>-41.329310179735174,174.79607250356906</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -67147,7 +67147,7 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>-41.32930107338332,174.7960650093078</t>
+          <t>-41.329295257561704,174.796060223058</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
@@ -67291,7 +67291,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>-41.32921758571203,174.79599630151523</t>
+          <t>-41.32922148843647,174.79599951333293</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -67365,7 +67365,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>-41.329330305536075,174.79608906652373</t>
+          <t>-41.32933068815583,174.7960893814089</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -67419,7 +67419,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>-41.329250873652455,174.79602369644329</t>
+          <t>-41.329248348360665,174.79602161820637</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
@@ -67571,7 +67571,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>-41.32934583989768,174.79610185086466</t>
+          <t>-41.32935134962161,174.79610638521365</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -67737,7 +67737,7 @@
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
-          <t>-41.329436597269314,174.7961765417677</t>
+          <t>-41.329432771074295,174.7961733929058</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
@@ -67839,7 +67839,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>-41.32933987102986,174.79609693865413</t>
+          <t>-41.32934262589194,174.7960992058281</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -67941,7 +67941,7 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>-41.32933130034744,174.79608988522517</t>
+          <t>-41.32933152991931,174.79609007415633</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
@@ -68043,7 +68043,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>-41.3293383405509,174.7960956791131</t>
+          <t>-41.32934530423005,174.79610141002522</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -68109,7 +68109,7 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>-41.329349130427275,174.79610455887854</t>
+          <t>-41.32934553380189,174.7961015989564</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
@@ -68211,7 +68211,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>-41.32936994493841,174.79612168864725</t>
+          <t>-41.32936611874172,174.79611853979188</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
@@ -68305,7 +68305,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>-41.329363593451866,174.79611646154754</t>
+          <t>-41.329359308111385,174.79611293483023</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
@@ -68407,7 +68407,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>-41.32938272443466,174.7961322058269</t>
+          <t>-41.32937614337684,174.79612678979373</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
@@ -68473,7 +68473,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>-41.32937315894356,174.79612433368604</t>
+          <t>-41.32937254675211,174.79612382986912</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
@@ -68523,7 +68523,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>-41.32937109279741,174.79612263330392</t>
+          <t>-41.32936787879222,174.7961199882653</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
@@ -68589,7 +68589,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>-41.32933811097903,174.79609549018198</t>
+          <t>-41.32934323808353,174.79609970964458</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -68655,7 +68655,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>-41.329355022770784,174.7961094081134</t>
+          <t>-41.32935816025231,174.7961119901739</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -68787,7 +68787,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>-41.329304210865956,174.79606759136396</t>
+          <t>-41.32930329257835,174.79606683564018</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -68853,7 +68853,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>-41.32933122382349,174.79608982224818</t>
+          <t>-41.329327168053965,174.7960864844655</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -68919,7 +68919,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>-41.32928990088367,174.79605581467078</t>
+          <t>-41.329286151208954,174.7960527288002</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -68981,7 +68981,7 @@
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
-          <t>-41.3293369631198,174.79609454552624</t>
+          <t>-41.32934254936801,174.79609914285103</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -69079,7 +69079,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>-41.329283855489685,174.79605083949184</t>
+          <t>-41.3292787283832,174.79604662003698</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -69145,7 +69145,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>-41.32928492682536,174.79605172116905</t>
+          <t>-41.329279799718904,174.79604750171407</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -69269,7 +69269,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>-41.329358772443825,174.79611249399062</t>
+          <t>-41.329363057784306,174.79611602070787</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -69343,7 +69343,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>-41.329373618087146,174.79612471154874</t>
+          <t>-41.32937637294864,174.7961269787251</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -69521,7 +69521,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>-41.32929502798978,174.7960600341271</t>
+          <t>-41.32929257922271,174.7960580188643</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -69587,7 +69587,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>-41.329284773777395,174.79605159521518</t>
+          <t>-41.32928485030137,174.7960516581921</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
@@ -69735,7 +69735,7 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>-41.32928990088367,174.79605581467078</t>
+          <t>-41.32929380360624,174.79605902649567</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
@@ -69801,7 +69801,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>-41.32924582306885,174.79601953996962</t>
+          <t>-41.32924873098064,174.79602193309074</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -69867,7 +69867,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>-41.32932854548513,174.796087618052</t>
+          <t>-41.329327856769574,174.79608705125875</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
@@ -69987,7 +69987,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>-41.3293498956667,174.79610518864928</t>
+          <t>-41.329355864534136,174.7961101008613</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -70123,7 +70123,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>-41.329300231619676,174.79606431656103</t>
+          <t>-41.32930604744112,174.79606910281157</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -70169,7 +70169,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>-41.329261051343124,174.79603207236946</t>
+          <t>-41.329258679099496,174.79603012008567</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -70271,7 +70271,7 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>-41.329331376871394,174.79608994820222</t>
+          <t>-41.32933068815583,174.7960893814089</t>
         </is>
       </c>
       <c r="M445" t="inlineStr">
@@ -70465,7 +70465,7 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>-41.32928882954805,174.79605493299343</t>
+          <t>-41.32929441579802,174.79605953031137</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
@@ -70531,7 +70531,7 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>-41.329353798387736,174.79610840048014</t>
+          <t>-41.32935907853957,174.79611274589897</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
@@ -70633,7 +70633,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>-41.32933849359879,174.7960958050672</t>
+          <t>-41.329333519542054,174.79609171155928</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
@@ -70735,7 +70735,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>-41.32933459087735,174.79609259323786</t>
+          <t>-41.329329387248634,174.79608831079935</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
@@ -70837,7 +70837,7 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>-41.329337728359306,174.79609517529673</t>
+          <t>-41.32934407984693,174.79610040239223</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
@@ -70939,7 +70939,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>-41.32936336388005,174.79611627261625</t>
+          <t>-41.32936412911941,174.79611690238724</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
@@ -71143,7 +71143,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>-41.329389841159646,174.79613806270117</t>
+          <t>-41.32938731587017,174.7961359844553</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
@@ -71259,7 +71259,7 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>-41.329383489673916,174.79613283559823</t>
+          <t>-41.32938341315,174.7961327726211</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
@@ -71361,7 +71361,7 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>-41.32936940927089,174.79612124780746</t>
+          <t>-41.32937323546749,174.79612439666317</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
@@ -71423,7 +71423,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>-41.32936734312468,174.79611954742555</t>
+          <t>-41.32936971536662,174.7961214997159</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
@@ -71469,7 +71469,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>-41.329343850275094,174.79610021346105</t>
+          <t>-41.32934813561601,174.79610374017665</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
@@ -71571,7 +71571,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>-41.32927941709901,174.79604718682938</t>
+          <t>-41.32927597351996,174.79604435286748</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
@@ -71637,7 +71637,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>-41.32928492682536,174.79605172116905</t>
+          <t>-41.329285615541124,174.79605228796154</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
@@ -71703,7 +71703,7 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>-41.32937721471186,174.79612767147347</t>
+          <t>-41.329373465039275,174.7961245855945</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
@@ -71769,7 +71769,7 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>-41.32927321865666,174.79604208569822</t>
+          <t>-41.329277274427604,174.79604542347528</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
@@ -71965,7 +71965,7 @@
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
-          <t>-41.32933428478156,174.7960923413297</t>
+          <t>-41.32933925883826,174.7960964348377</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
@@ -72031,7 +72031,7 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>-41.32926747935794,174.79603736242944</t>
+          <t>-41.3292700046494,174.79603944066758</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
@@ -72133,7 +72133,7 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>-41.3293498956667,174.79610518864928</t>
+          <t>-41.32935066090612,174.79610581842</t>
         </is>
       </c>
       <c r="M470" t="inlineStr">
@@ -72257,7 +72257,7 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>-41.32939450911886,174.7961419043076</t>
+          <t>-41.32939129511417,174.79613925926705</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
@@ -72323,7 +72323,7 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>-41.329307118776626,174.7960699844894</t>
+          <t>-41.3293032160544,174.79606677266318</t>
         </is>
       </c>
       <c r="M473" t="inlineStr"/>
@@ -72397,7 +72397,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>-41.329253934612126,174.79602621551854</t>
+          <t>-41.32925814343157,174.79602967924743</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
@@ -72463,7 +72463,7 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>-41.32940453375211,174.7961501543167</t>
+          <t>-41.32941073218914,174.79615525546868</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
@@ -72529,7 +72529,7 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>-41.329396039597256,174.79614316385081</t>
+          <t>-41.32940047798454,174.79614681652646</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
@@ -72595,7 +72595,7 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>-41.329320357421885,174.79608087951064</t>
+          <t>-41.329316990367715,174.79607810852212</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
@@ -72697,7 +72697,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>-41.329291584411074,174.79605720016383</t>
+          <t>-41.32929403317816,174.79605921542657</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
@@ -72763,7 +72763,7 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>-41.329222177152516,174.79600008012432</t>
+          <t>-41.32922240672454,174.7960002690548</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
@@ -72865,7 +72865,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>-41.32927964667095,174.79604737576017</t>
+          <t>-41.32928079453062,174.79604832041423</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
@@ -72931,7 +72931,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>-41.32919332759914,174.79597633787282</t>
+          <t>-41.32919501112761,174.79597772336174</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
@@ -73033,7 +73033,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>-41.32932923420073,174.79608818484527</t>
+          <t>-41.32932632629046,174.79608579171818</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
@@ -73135,7 +73135,7 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>-41.32926556625832,174.79603578800672</t>
+          <t>-41.329270157697366,174.79603956662143</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
@@ -73201,7 +73201,7 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>-41.32932800981746,174.7960871772128</t>
+          <t>-41.329322423568726,174.79608257989008</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
@@ -73361,7 +73361,7 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>-41.329434684171815,174.7961749673367</t>
+          <t>-41.32943093450064,174.79617188145224</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
@@ -73423,7 +73423,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>-41.32934821213995,174.79610380315373</t>
+          <t>-41.329351579193435,174.7961065741449</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
@@ -73485,7 +73485,7 @@
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
-          <t>-41.32936435869122,174.79611709131854</t>
+          <t>-41.32936114468589,174.79611444628043</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
@@ -73587,7 +73587,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>-41.32936925622302,174.79612112185325</t>
+          <t>-41.3293647413109,174.79611740620405</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
@@ -73689,7 +73689,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>-41.329341095413014,174.79609794628698</t>
+          <t>-41.32933489697317,174.79609284514603</t>
         </is>
       </c>
       <c r="M490" t="inlineStr">
@@ -73789,7 +73789,7 @@
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
-          <t>-41.329341478032745,174.79609826117226</t>
+          <t>-41.32934392679905,174.7961002764381</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
@@ -73855,7 +73855,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>-41.32937537813754,174.7961261600225</t>
+          <t>-41.32937560770934,174.79612634895386</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
@@ -73921,7 +73921,7 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>-41.32942450649273,174.79616659136545</t>
+          <t>-41.329423588205856,174.79616583563882</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
@@ -73983,7 +73983,7 @@
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
-          <t>-41.32938058176471,174.79613044246713</t>
+          <t>-41.32938134700399,174.79613107223844</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
@@ -74049,7 +74049,7 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>-41.329279876242886,174.79604756469098</t>
+          <t>-41.32927681528373,174.7960450456137</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
@@ -74151,7 +74151,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>-41.32931239893008,174.79607432990196</t>
+          <t>-41.329309644067436,174.79607206273008</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
@@ -74217,7 +74217,7 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>-41.32932969334444,174.79608856270747</t>
+          <t>-41.32932441319159,174.7960842172926</t>
         </is>
       </c>
       <c r="M498" t="inlineStr">
@@ -74341,7 +74341,7 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>-41.32923426794515,174.79601003046415</t>
+          <t>-41.32923051826906,174.79600694459887</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
@@ -74403,7 +74403,7 @@
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
-          <t>-41.329210928123075,174.795990822533</t>
+          <t>-41.32920924459478,174.79598943704343</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
@@ -74469,7 +74469,7 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>-41.329308419684004,174.79607105509822</t>
+          <t>-41.329304976105604,174.7960682211338</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
@@ -74535,7 +74535,7 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>-41.32928286067799,174.7960500207916</t>
+          <t>-41.32928737559254,174.79605373643136</t>
         </is>
       </c>
       <c r="M503" t="inlineStr">
@@ -74601,7 +74601,7 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>-41.32935027828642,174.79610550353462</t>
+          <t>-41.32934407984693,174.79610040239223</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
@@ -74699,7 +74699,7 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>-41.329340177125644,174.79609719056234</t>
+          <t>-41.32934706428078,174.7961028584977</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
@@ -74765,7 +74765,7 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>-41.329373082419636,174.79612427070893</t>
+          <t>-41.329377979951154,174.79612830124472</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
@@ -74867,7 +74867,7 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>-41.32936550655025,174.79611803597507</t>
+          <t>-41.32936145078164,174.79611469818883</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
@@ -74969,7 +74969,7 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>-41.32936734312468,174.79611954742555</t>
+          <t>-41.32936711355287,174.79611935849422</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
@@ -75071,7 +75071,7 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>-41.32936673093321,174.7961190436087</t>
+          <t>-41.32936856750762,174.79612055505928</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
@@ -75173,7 +75173,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>-41.329417313245465,174.79616067150764</t>
+          <t>-41.32941547667162,174.7961591600548</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
@@ -75275,7 +75275,7 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>-41.32937729123579,174.7961277344506</t>
+          <t>-41.329381729623606,174.79613138712412</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
@@ -75341,7 +75341,7 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>-41.32929854809238,174.79606293106764</t>
+          <t>-41.32930275691059,174.7960663948013</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
@@ -75443,7 +75443,7 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>-41.3293504313343,174.79610562948878</t>
+          <t>-41.32935640020172,174.7961105417009</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
@@ -75541,7 +75541,7 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>-41.3292762030919,174.79604454179827</t>
+          <t>-41.329271764701005,174.7960408891367</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
@@ -75603,7 +75603,7 @@
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
-          <t>-41.329290206979564,174.7960560665786</t>
+          <t>-41.329292655746684,174.79605808184124</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
@@ -75669,7 +75669,7 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>-41.329320740041666,174.7960811943957</t>
+          <t>-41.32932028089793,174.79608081653362</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
@@ -75735,7 +75735,7 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>-41.329381653099695,174.79613132414698</t>
+          <t>-41.32937568423326,174.79612641193097</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
@@ -75833,7 +75833,7 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>-41.32942297601461,174.7961653318211</t>
+          <t>-41.32941914981926,174.79616218296056</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
@@ -75895,7 +75895,7 @@
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
-          <t>-41.32952987987404,174.79625331113579</t>
+          <t>-41.329525594538225,174.7962497844003</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
@@ -75957,7 +75957,7 @@
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
-          <t>-41.32925959738735,174.79603087580838</t>
+          <t>-41.32925898519545,174.79603037199325</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
@@ -76059,7 +76059,7 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>-41.32934346765536,174.79609989857573</t>
+          <t>-41.32934415637088,174.79610046536928</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
@@ -76125,7 +76125,7 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>-41.32930650658492,174.79606948067348</t>
+          <t>-41.32930941449554,174.79607187379912</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
@@ -76227,7 +76227,7 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>-41.32918468038447,174.7959692214992</t>
+          <t>-41.32918177247146,174.79596682838283</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
@@ -76329,7 +76329,7 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>-41.329182384663675,174.7959673321968</t>
+          <t>-41.329184527336416,174.7959690955457</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
@@ -76395,7 +76395,7 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>-41.32926548973433,174.7960357250298</t>
+          <t>-41.329268933313635,174.79603855899077</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
@@ -76457,7 +76457,7 @@
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
-          <t>-41.32939091249457,174.7961389443813</t>
+          <t>-41.32938685672663,174.79613560659243</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
@@ -76523,7 +76523,7 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>-41.32929005393162,174.79605594062468</t>
+          <t>-41.329291737459016,174.79605732611773</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
@@ -76625,7 +76625,7 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>-41.329299007236195,174.79606330892946</t>
+          <t>-41.32929518103772,174.79606016008103</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
@@ -76691,7 +76691,7 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>-41.32929005393162,174.79605594062468</t>
+          <t>-41.329295257561704,174.796060223058</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
@@ -76757,7 +76757,7 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>-41.32935096700189,174.79610607032828</t>
+          <t>-41.329355252342616,174.79610959704468</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
@@ -76823,7 +76823,7 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>-41.32931538336455,174.79607678600502</t>
+          <t>-41.32931500074476,174.79607647112</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
@@ -76925,7 +76925,7 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>-41.329349130427275,174.79610455887854</t>
+          <t>-41.329350813954015,174.79610594437415</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
